--- a/DATA/M013/T1_RADIOMICS_OUTPUT/M013_radiomics2D.xlsx
+++ b/DATA/M013/T1_RADIOMICS_OUTPUT/M013_radiomics2D.xlsx
@@ -13,7 +13,184 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="236">
+  <si>
+    <t>Patient_ID</t>
+  </si>
+  <si>
+    <t>00331813</t>
+  </si>
+  <si>
+    <t>Family_Name</t>
+  </si>
+  <si>
+    <t>M013</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>ACQ_DATE</t>
+  </si>
+  <si>
+    <t>20200619</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>District1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+  <si>
+    <t>Homogeneity</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>SumAverage</t>
+  </si>
+  <si>
+    <t>Variance1</t>
+  </si>
+  <si>
+    <t>Dissimilarity</t>
+  </si>
+  <si>
+    <t>AutoCorrelation</t>
+  </si>
+  <si>
+    <t>Coarseness</t>
+  </si>
+  <si>
+    <t>Contrast1</t>
+  </si>
+  <si>
+    <t>Busyness</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>SRE</t>
+  </si>
+  <si>
+    <t>LRE</t>
+  </si>
+  <si>
+    <t>GLN</t>
+  </si>
+  <si>
+    <t>RLN</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>LGRE</t>
+  </si>
+  <si>
+    <t>HGRE</t>
+  </si>
+  <si>
+    <t>SRLGE</t>
+  </si>
+  <si>
+    <t>SRHGE</t>
+  </si>
+  <si>
+    <t>LRLGE</t>
+  </si>
+  <si>
+    <t>LRHGE</t>
+  </si>
+  <si>
+    <t>GLV</t>
+  </si>
+  <si>
+    <t>RLV</t>
+  </si>
+  <si>
+    <t>SZE</t>
+  </si>
+  <si>
+    <t>LZE</t>
+  </si>
+  <si>
+    <t>GLN1</t>
+  </si>
+  <si>
+    <t>ZSN</t>
+  </si>
+  <si>
+    <t>ZP</t>
+  </si>
+  <si>
+    <t>LGZE</t>
+  </si>
+  <si>
+    <t>HGZE</t>
+  </si>
+  <si>
+    <t>SZLG</t>
+  </si>
+  <si>
+    <t>SZHGE</t>
+  </si>
+  <si>
+    <t>LZLGE</t>
+  </si>
+  <si>
+    <t>LZHGE</t>
+  </si>
+  <si>
+    <t>GLV1</t>
+  </si>
+  <si>
+    <t>ZSV</t>
+  </si>
   <si>
     <t>Patient_ID</t>
   </si>
@@ -564,7 +741,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -575,15 +752,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,382 +790,382 @@
     <col min="13" max="13" width="15.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="13.7109375" customWidth="true"/>
+    <col min="16" max="16" width="13.140625" customWidth="true"/>
     <col min="17" max="17" width="13.7109375" customWidth="true"/>
     <col min="18" max="18" width="15.7109375" customWidth="true"/>
-    <col min="19" max="19" width="15.7109375" customWidth="true"/>
+    <col min="19" max="19" width="14.7109375" customWidth="true"/>
     <col min="20" max="20" width="12.140625" customWidth="true"/>
     <col min="21" max="21" width="15.42578125" customWidth="true"/>
     <col min="22" max="22" width="15.7109375" customWidth="true"/>
     <col min="23" max="23" width="12.7109375" customWidth="true"/>
-    <col min="24" max="24" width="15.7109375" customWidth="true"/>
+    <col min="24" max="24" width="13.7109375" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
     <col min="27" max="27" width="12.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="14.7109375" customWidth="true"/>
+    <col min="29" max="29" width="13.7109375" customWidth="true"/>
     <col min="30" max="30" width="12.7109375" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
-    <col min="32" max="32" width="15.5703125" customWidth="true"/>
+    <col min="32" max="32" width="15.7109375" customWidth="true"/>
     <col min="33" max="33" width="11.7109375" customWidth="true"/>
-    <col min="34" max="34" width="15.5703125" customWidth="true"/>
+    <col min="34" max="34" width="15.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="15.5703125" customWidth="true"/>
+    <col min="36" max="36" width="15.7109375" customWidth="true"/>
     <col min="37" max="37" width="11.7109375" customWidth="true"/>
-    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="13.7109375" customWidth="true"/>
     <col min="39" max="39" width="15.5703125" customWidth="true"/>
     <col min="40" max="40" width="12.7109375" customWidth="true"/>
     <col min="41" max="41" width="11.7109375" customWidth="true"/>
-    <col min="42" max="42" width="14.7109375" customWidth="true"/>
+    <col min="42" max="42" width="13.7109375" customWidth="true"/>
     <col min="43" max="43" width="12.7109375" customWidth="true"/>
     <col min="44" max="44" width="12.7109375" customWidth="true"/>
-    <col min="45" max="45" width="15.5703125" customWidth="true"/>
+    <col min="45" max="45" width="15.7109375" customWidth="true"/>
     <col min="46" max="46" width="11.7109375" customWidth="true"/>
-    <col min="47" max="47" width="15.5703125" customWidth="true"/>
+    <col min="47" max="47" width="15.7109375" customWidth="true"/>
     <col min="48" max="48" width="11.7109375" customWidth="true"/>
-    <col min="49" max="49" width="15.5703125" customWidth="true"/>
+    <col min="49" max="49" width="15.7109375" customWidth="true"/>
     <col min="50" max="50" width="11.7109375" customWidth="true"/>
-    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="14.7109375" customWidth="true"/>
     <col min="52" max="52" width="15.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H2" s="0">
         <v>1</v>
       </c>
       <c r="I2" s="0">
-        <v>519.4752580989674</v>
+        <v>519.47525809896763</v>
       </c>
       <c r="J2" s="0">
-        <v>-0.14948275606019679</v>
+        <v>-0.14948275606019462</v>
       </c>
       <c r="K2" s="0">
-        <v>-0.41751475247747649</v>
+        <v>-0.4175147524774796</v>
       </c>
       <c r="L2" s="0">
         <v>53</v>
       </c>
       <c r="M2" s="0">
-        <v>0.003889209702021188</v>
+        <v>0.0052131583765960337</v>
       </c>
       <c r="N2" s="0">
-        <v>1977.1790927784543</v>
+        <v>249.78346535493273</v>
       </c>
       <c r="O2" s="0">
-        <v>8.1547171194518366</v>
+        <v>7.8433680705587943</v>
       </c>
       <c r="P2" s="0">
-        <v>0.066133028907086777</v>
+        <v>0.13663378024426845</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.089941265211697236</v>
+        <v>0.073539491818215855</v>
       </c>
       <c r="R2" s="0">
-        <v>0.00025848638606206729</v>
+        <v>0.00064842548238731651</v>
       </c>
       <c r="S2" s="0">
-        <v>0.00060562288056750823</v>
+        <v>0.0020557082923727344</v>
       </c>
       <c r="T2" s="0">
-        <v>36.250716265121433</v>
+        <v>12.891111329881154</v>
       </c>
       <c r="U2" s="0">
-        <v>206637.79444770943</v>
+        <v>1786.5723787729751</v>
       </c>
       <c r="V2" s="0">
-        <v>0.00024350356376494977</v>
+        <v>0.00023773443861522901</v>
       </c>
       <c r="W2" s="0">
-        <v>0.45274220307738605</v>
+        <v>0.59477883102754692</v>
       </c>
       <c r="X2" s="0">
-        <v>0.011434625915522519</v>
+        <v>1.5187467909051835</v>
       </c>
       <c r="Y2" s="0">
-        <v>3099178.2294848259</v>
+        <v>18865.624796921511</v>
       </c>
       <c r="Z2" s="0">
-        <v>41.175703338238812</v>
+        <v>0.55757708307883747</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.99285714285714288</v>
+        <v>0.98985846731274152</v>
       </c>
       <c r="AB2" s="0">
-        <v>1.0285714285714287</v>
+        <v>1.0405661307490337</v>
       </c>
       <c r="AC2" s="0">
-        <v>0.027682631304016034</v>
+        <v>0.045382478169724065</v>
       </c>
       <c r="AD2" s="0">
-        <v>0.98113378684807273</v>
+        <v>0.97332160415929914</v>
       </c>
       <c r="AE2" s="0">
-        <v>0.99056603773584906</v>
+        <v>0.98665836261912165</v>
       </c>
       <c r="AF2" s="0">
-        <v>5.0659096922316339e-06</v>
+        <v>0.0010386129172403403</v>
       </c>
       <c r="AG2" s="0">
-        <v>202274.34898368359</v>
+        <v>1749.8755635369475</v>
       </c>
       <c r="AH2" s="0">
-        <v>5.0297039995909123e-06</v>
+        <v>0.0010323271646133789</v>
       </c>
       <c r="AI2" s="0">
-        <v>200865.13929287487</v>
+        <v>1733.1819374325216</v>
       </c>
       <c r="AJ2" s="0">
-        <v>5.2107324627945238e-06</v>
+        <v>0.0010637559277481873</v>
       </c>
       <c r="AK2" s="0">
-        <v>207911.18774691861</v>
+        <v>1816.6500679546516</v>
       </c>
       <c r="AL2" s="0">
-        <v>2.0175980252946646</v>
+        <v>0.14304431136156401</v>
       </c>
       <c r="AM2" s="0">
-        <v>1.0029773604992549e-05</v>
+        <v>8.2260904292675587e-05</v>
       </c>
       <c r="AN2" s="0">
-        <v>0.97058823529411753</v>
+        <v>0.95499999999999985</v>
       </c>
       <c r="AO2" s="0">
-        <v>1.1176470588235294</v>
+        <v>1.1799999999999997</v>
       </c>
       <c r="AP2" s="0">
-        <v>0.026528258362168398</v>
+        <v>0.043999999999999997</v>
       </c>
       <c r="AQ2" s="0">
-        <v>0.9246443675509417</v>
+        <v>0.88719999999999977</v>
       </c>
       <c r="AR2" s="0">
-        <v>0.96226415094339635</v>
+        <v>0.94339622641509435</v>
       </c>
       <c r="AS2" s="0">
-        <v>5.0656710298055549e-06</v>
+        <v>0.0010581306233223482</v>
       </c>
       <c r="AT2" s="0">
-        <v>202426.9411764706</v>
+        <v>1753.5999999999999</v>
       </c>
       <c r="AU2" s="0">
-        <v>4.9164734591154369e-06</v>
+        <v>0.0010304734713417355</v>
       </c>
       <c r="AV2" s="0">
-        <v>196628.79411764708</v>
+        <v>1678.75</v>
       </c>
       <c r="AW2" s="0">
-        <v>5.6624613125660279e-06</v>
+        <v>0.0011687592312447977</v>
       </c>
       <c r="AX2" s="0">
-        <v>225619.52941176473</v>
+        <v>2053</v>
       </c>
       <c r="AY2" s="0">
-        <v>1.8837619211232732</v>
+        <v>0.13233140484428765</v>
       </c>
       <c r="AZ2" s="0">
-        <v>1.0139504210395616e-05</v>
+        <v>8.1170319108034346e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H3" s="0">
         <v>2</v>
@@ -1004,156 +1183,156 @@
         <v>97</v>
       </c>
       <c r="M3" s="0">
-        <v>0.0017306364408341923</v>
+        <v>0.0028079108594079305</v>
       </c>
       <c r="N3" s="0">
-        <v>1222.3105946394471</v>
+        <v>153.96566966606352</v>
       </c>
       <c r="O3" s="0">
-        <v>9.2390707123952893</v>
+        <v>8.6910834600070004</v>
       </c>
       <c r="P3" s="0">
-        <v>0.084531780590531291</v>
+        <v>0.18514176016804348</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.3267992083785537</v>
+        <v>0.32946827646314147</v>
       </c>
       <c r="R3" s="0">
-        <v>0.00026259340479698558</v>
+        <v>0.00068713343435497032</v>
       </c>
       <c r="S3" s="0">
-        <v>0.00050172386159112042</v>
+        <v>0.0017089109026317795</v>
       </c>
       <c r="T3" s="0">
-        <v>27.674462480568216</v>
+        <v>9.8167990171381625</v>
       </c>
       <c r="U3" s="0">
-        <v>213448.69048020098</v>
+        <v>2030.5175935355278</v>
       </c>
       <c r="V3" s="0">
-        <v>0.033682476945746116</v>
+        <v>0.052497722592436839</v>
       </c>
       <c r="W3" s="0">
-        <v>7.1672605385051149</v>
+        <v>1.0422907702291295</v>
       </c>
       <c r="X3" s="0">
-        <v>0.0020596324152309629</v>
+        <v>0.017963243236600965</v>
       </c>
       <c r="Y3" s="0">
-        <v>56158.576126148575</v>
+        <v>4103.7915967890749</v>
       </c>
       <c r="Z3" s="0">
-        <v>147.74752744636007</v>
+        <v>32.091776054439805</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.99839523253490547</v>
+        <v>0.97226963358202101</v>
       </c>
       <c r="AB3" s="0">
-        <v>1.0064190698603777</v>
+        <v>1.1207789040768918</v>
       </c>
       <c r="AC3" s="0">
-        <v>0.01774115441765628</v>
+        <v>0.032651623220808182</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.9957297766392752</v>
+        <v>0.92939517935725302</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.9978648785444687</v>
+        <v>0.96266680058185938</v>
       </c>
       <c r="AF3" s="0">
-        <v>4.7599524445911392e-06</v>
+        <v>0.00061001097893633794</v>
       </c>
       <c r="AG3" s="0">
-        <v>213649.15600119921</v>
+        <v>2087.5354893314229</v>
       </c>
       <c r="AH3" s="0">
-        <v>4.7541961333785361e-06</v>
+        <v>0.00059632465455008369</v>
       </c>
       <c r="AI3" s="0">
-        <v>213201.77250821033</v>
+        <v>2020.1455157756075</v>
       </c>
       <c r="AJ3" s="0">
-        <v>4.7829776894415537e-06</v>
+        <v>0.00066840177885005867</v>
       </c>
       <c r="AK3" s="0">
-        <v>215438.68997315475</v>
+        <v>2383.7498970017391</v>
       </c>
       <c r="AL3" s="0">
-        <v>1.3731609776102784</v>
+        <v>0.073384004198547514</v>
       </c>
       <c r="AM3" s="0">
-        <v>6.5256748197517446e-06</v>
+        <v>3.788199622638101e-05</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.99218749999999989</v>
+        <v>0.895582329317269</v>
       </c>
       <c r="AO3" s="0">
-        <v>1.03125</v>
+        <v>1.5783132530120483</v>
       </c>
       <c r="AP3" s="0">
-        <v>0.017795138888888888</v>
+        <v>0.031209174045579914</v>
       </c>
       <c r="AQ3" s="0">
-        <v>0.97938368055555536</v>
+        <v>0.76310059515169093</v>
       </c>
       <c r="AR3" s="0">
-        <v>0.98969072164948468</v>
+        <v>0.85567010309278357</v>
       </c>
       <c r="AS3" s="0">
-        <v>4.7696401627438083e-06</v>
+        <v>0.00062577988201791804</v>
       </c>
       <c r="AT3" s="0">
-        <v>213111.1875</v>
+        <v>2029.3614457831327</v>
       </c>
       <c r="AU3" s="0">
-        <v>4.7416166750257185e-06</v>
+        <v>0.00057494414003543765</v>
       </c>
       <c r="AV3" s="0">
-        <v>210933.18749999997</v>
+        <v>1757.7921686746993</v>
       </c>
       <c r="AW3" s="0">
-        <v>4.8817341136161679e-06</v>
+        <v>0.00090554503433692762</v>
       </c>
       <c r="AX3" s="0">
-        <v>221823.18749999997</v>
+        <v>3463.1084337349403</v>
       </c>
       <c r="AY3" s="0">
-        <v>1.3787444883940143</v>
+        <v>0.060968430387272496</v>
       </c>
       <c r="AZ3" s="0">
-        <v>6.6876656086773317e-06</v>
+        <v>4.1119005404043943e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H4" s="0">
         <v>3</v>
       </c>
       <c r="I4" s="0">
-        <v>238.08686317066918</v>
+        <v>238.08686317066915</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.58336409868557237</v>
+        <v>-0.58336409868557393</v>
       </c>
       <c r="K4" s="0">
         <v>0.96397318794605802</v>
@@ -1162,147 +1341,147 @@
         <v>207</v>
       </c>
       <c r="M4" s="0">
-        <v>0.00079919743654052505</v>
+        <v>0.0013772894025934118</v>
       </c>
       <c r="N4" s="0">
-        <v>1756.4590556635872</v>
+        <v>208.91080878140099</v>
       </c>
       <c r="O4" s="0">
-        <v>10.366888288403631</v>
+        <v>9.7589727501774295</v>
       </c>
       <c r="P4" s="0">
-        <v>0.079937990874218628</v>
+        <v>0.17176446831796238</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.52031460279920838</v>
+        <v>0.50038060989384348</v>
       </c>
       <c r="R4" s="0">
-        <v>0.00025235894099236362</v>
+        <v>0.00059255070928685143</v>
       </c>
       <c r="S4" s="0">
-        <v>0.0010025606937869396</v>
+        <v>0.0031151512747009608</v>
       </c>
       <c r="T4" s="0">
-        <v>32.299654681096968</v>
+        <v>11.121737978640894</v>
       </c>
       <c r="U4" s="0">
-        <v>197769.03152193723</v>
+        <v>1582.7152043070273</v>
       </c>
       <c r="V4" s="0">
-        <v>0.02426156721996137</v>
+        <v>0.031153965212808638</v>
       </c>
       <c r="W4" s="0">
-        <v>5.7263233472743806</v>
+        <v>0.81755191345077038</v>
       </c>
       <c r="X4" s="0">
-        <v>0.0012906571078811226</v>
+        <v>0.01454341090168032</v>
       </c>
       <c r="Y4" s="0">
-        <v>161215.08061240881</v>
+        <v>11425.781196284457</v>
       </c>
       <c r="Z4" s="0">
-        <v>259.67695950493965</v>
+        <v>48.765141882114534</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.9952861623048268</v>
+        <v>0.98031963287036572</v>
       </c>
       <c r="AB4" s="0">
-        <v>1.0188553507806908</v>
+        <v>1.0787214685185369</v>
       </c>
       <c r="AC4" s="0">
-        <v>0.010898429949658204</v>
+        <v>0.024134675826347762</v>
       </c>
       <c r="AD4" s="0">
-        <v>0.98750877153577465</v>
+        <v>0.94889614756668972</v>
       </c>
       <c r="AE4" s="0">
-        <v>0.99375413903954868</v>
+        <v>0.97443046754196394</v>
       </c>
       <c r="AF4" s="0">
-        <v>5.30667793667605e-06</v>
+        <v>0.0033424533100299301</v>
       </c>
       <c r="AG4" s="0">
-        <v>196998.65608332248</v>
+        <v>1649.0850101701385</v>
       </c>
       <c r="AH4" s="0">
-        <v>5.2812283770866433e-06</v>
+        <v>0.0033182928448190867</v>
       </c>
       <c r="AI4" s="0">
-        <v>196087.02587315292</v>
+        <v>1614.3235908346533</v>
       </c>
       <c r="AJ4" s="0">
-        <v>5.4084761750336751e-06</v>
+        <v>0.0034390951708732995</v>
       </c>
       <c r="AK4" s="0">
-        <v>200645.17692400067</v>
+        <v>1788.130687512079</v>
       </c>
       <c r="AL4" s="0">
-        <v>0.77578020702706696</v>
+        <v>0.067394554423123032</v>
       </c>
       <c r="AM4" s="0">
-        <v>3.9141232582969746e-06</v>
+        <v>4.0809745375307898e-05</v>
       </c>
       <c r="AN4" s="0">
-        <v>0.98143564356435664</v>
+        <v>0.9339539007092198</v>
       </c>
       <c r="AO4" s="0">
-        <v>1.0742574257425745</v>
+        <v>1.3351063829787233</v>
       </c>
       <c r="AP4" s="0">
-        <v>0.010832271345946477</v>
+        <v>0.023653236758714346</v>
       </c>
       <c r="AQ4" s="0">
-        <v>0.9517204195667095</v>
+        <v>0.84206654594839281</v>
       </c>
       <c r="AR4" s="0">
-        <v>0.97584541062801933</v>
+        <v>0.90821256038647347</v>
       </c>
       <c r="AS4" s="0">
-        <v>5.3069854391178108e-06</v>
+        <v>0.0035015450012101032</v>
       </c>
       <c r="AT4" s="0">
-        <v>197002.01485148515</v>
+        <v>1632.127659574468</v>
       </c>
       <c r="AU4" s="0">
-        <v>5.2082582857735833e-06</v>
+        <v>0.0034187467385582591</v>
       </c>
       <c r="AV4" s="0">
-        <v>193364.68193069307</v>
+        <v>1506.5586583924348</v>
       </c>
       <c r="AW4" s="0">
-        <v>5.7018940524947193e-06</v>
+        <v>0.0038805855963048499</v>
       </c>
       <c r="AX4" s="0">
-        <v>211551.34653465345</v>
+        <v>2240.7393617021276</v>
       </c>
       <c r="AY4" s="0">
-        <v>0.75975678362623555</v>
+        <v>0.039604471867125783</v>
       </c>
       <c r="AZ4" s="0">
-        <v>3.9629794836180505e-06</v>
+        <v>2.7479245455094796e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H5" s="0">
         <v>4</v>
@@ -1320,147 +1499,147 @@
         <v>426</v>
       </c>
       <c r="M5" s="0">
-        <v>0.00042967336695742516</v>
+        <v>0.0010161541064527895</v>
       </c>
       <c r="N5" s="0">
-        <v>2886.3663243535225</v>
+        <v>224.0348605557611</v>
       </c>
       <c r="O5" s="0">
-        <v>11.316543134172861</v>
+        <v>10.288495837948322</v>
       </c>
       <c r="P5" s="0">
-        <v>0.079366370749615403</v>
+        <v>0.19812640318036645</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.63379885640990674</v>
+        <v>0.63379174505292823</v>
       </c>
       <c r="R5" s="0">
-        <v>0.00024385583998703521</v>
+        <v>0.00053970578800726667</v>
       </c>
       <c r="S5" s="0">
-        <v>0.0021545303869352425</v>
+        <v>0.0043907620895935065</v>
       </c>
       <c r="T5" s="0">
-        <v>36.802949468738653</v>
+        <v>10.699802371570499</v>
       </c>
       <c r="U5" s="0">
-        <v>186185.24796483357</v>
+        <v>1405.1066006427307</v>
       </c>
       <c r="V5" s="0">
-        <v>0.015228443198022731</v>
+        <v>0.018871735948432528</v>
       </c>
       <c r="W5" s="0">
-        <v>6.0398653814005785</v>
+        <v>0.93163589370860111</v>
       </c>
       <c r="X5" s="0">
-        <v>0.0010545699312990624</v>
+        <v>0.025847193935729672</v>
       </c>
       <c r="Y5" s="0">
-        <v>446218.97042693681</v>
+        <v>12951.49046633057</v>
       </c>
       <c r="Z5" s="0">
-        <v>399.6145727706334</v>
+        <v>34.699105609154245</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.99289099526066338</v>
+        <v>0.96796692490089786</v>
       </c>
       <c r="AB5" s="0">
-        <v>1.0284360189573458</v>
+        <v>1.1348994182436496</v>
       </c>
       <c r="AC5" s="0">
-        <v>0.0079636975066888997</v>
+        <v>0.02058418355978393</v>
       </c>
       <c r="AD5" s="0">
-        <v>0.98122234451157864</v>
+        <v>0.91861823194146264</v>
       </c>
       <c r="AE5" s="0">
-        <v>0.99061032863849752</v>
+        <v>0.95789899332736061</v>
       </c>
       <c r="AF5" s="0">
-        <v>6.1315557113192084e-06</v>
+        <v>0.021307683624395897</v>
       </c>
       <c r="AG5" s="0">
-        <v>185572.24004947141</v>
+        <v>1515.8752149003203</v>
       </c>
       <c r="AH5" s="0">
-        <v>6.0946258003471188e-06</v>
+        <v>0.018416266327461146</v>
       </c>
       <c r="AI5" s="0">
-        <v>184143.27909131427</v>
+        <v>1485.7290944657752</v>
       </c>
       <c r="AJ5" s="0">
-        <v>6.2792753552075619e-06</v>
+        <v>0.035193668562525295</v>
       </c>
       <c r="AK5" s="0">
-        <v>191288.08388209977</v>
+        <v>1639.1507538357548</v>
       </c>
       <c r="AL5" s="0">
-        <v>0.54071397514402153</v>
+        <v>0.03382676979594422</v>
       </c>
       <c r="AM5" s="0">
-        <v>2.8031937588172141e-06</v>
+        <v>2.3316463059874558e-05</v>
       </c>
       <c r="AN5" s="0">
-        <v>0.97708840227088367</v>
+        <v>0.89328703703703694</v>
       </c>
       <c r="AO5" s="0">
-        <v>1.1240875912408756</v>
+        <v>1.7</v>
       </c>
       <c r="AP5" s="0">
-        <v>0.0079386221961745447</v>
+        <v>0.020740740740740744</v>
       </c>
       <c r="AQ5" s="0">
-        <v>0.94299110234961836</v>
+        <v>0.75836419753086415</v>
       </c>
       <c r="AR5" s="0">
-        <v>0.96478873239436636</v>
+        <v>0.84507042253521136</v>
       </c>
       <c r="AS5" s="0">
-        <v>6.1565793874672093e-06</v>
+        <v>0.012949365727019338</v>
       </c>
       <c r="AT5" s="0">
-        <v>185122.93187347933</v>
+        <v>1574.461111111111</v>
       </c>
       <c r="AU5" s="0">
-        <v>6.0362420333506177e-06</v>
+        <v>0.0058378259627090917</v>
       </c>
       <c r="AV5" s="0">
-        <v>180528.05305487965</v>
+        <v>1449.7524112654321</v>
       </c>
       <c r="AW5" s="0">
-        <v>6.797142364368248e-06</v>
+        <v>0.083922335541194271</v>
       </c>
       <c r="AX5" s="0">
-        <v>210297.34306569342</v>
+        <v>2209.4305555555552</v>
       </c>
       <c r="AY5" s="0">
-        <v>0.35886817595345899</v>
+        <v>0.016750859857109474</v>
       </c>
       <c r="AZ5" s="0">
-        <v>1.9262533263133412e-06</v>
+        <v>1.2120694319849337e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H6" s="0">
         <v>5</v>
@@ -1478,147 +1657,147 @@
         <v>621</v>
       </c>
       <c r="M6" s="0">
-        <v>0.00029112886059091671</v>
+        <v>0.0011392020888358295</v>
       </c>
       <c r="N6" s="0">
-        <v>3893.0182420919973</v>
+        <v>282.25375470200339</v>
       </c>
       <c r="O6" s="0">
-        <v>11.87482469960643</v>
+        <v>10.5120604792984</v>
       </c>
       <c r="P6" s="0">
-        <v>0.07239515957980136</v>
+        <v>0.20061267033760274</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.69153811953122268</v>
+        <v>0.64056108699587</v>
       </c>
       <c r="R6" s="0">
-        <v>0.00024328282531832921</v>
+        <v>0.00055733685571301473</v>
       </c>
       <c r="S6" s="0">
-        <v>0.0034388232060746245</v>
+        <v>0.0055686261368516725</v>
       </c>
       <c r="T6" s="0">
-        <v>41.341241719410476</v>
+        <v>11.283288270783618</v>
       </c>
       <c r="U6" s="0">
-        <v>187077.0997255409</v>
+        <v>1534.3707269028018</v>
       </c>
       <c r="V6" s="0">
-        <v>0.011589377524522385</v>
+        <v>0.013075335639094779</v>
       </c>
       <c r="W6" s="0">
-        <v>6.0591166028862045</v>
+        <v>0.9166528196767374</v>
       </c>
       <c r="X6" s="0">
-        <v>0.00085745018922485871</v>
+        <v>0.027703762529698341</v>
       </c>
       <c r="Y6" s="0">
-        <v>959712.28864716063</v>
+        <v>20832.270327704184</v>
       </c>
       <c r="Z6" s="0">
-        <v>572.50936074529227</v>
+        <v>34.597406356389641</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.99600187550540065</v>
+        <v>0.96922467556718161</v>
       </c>
       <c r="AB6" s="0">
-        <v>1.0159924979783985</v>
+        <v>1.163106186954397</v>
       </c>
       <c r="AC6" s="0">
-        <v>0.0066751918018181098</v>
+        <v>0.019133311392911918</v>
       </c>
       <c r="AD6" s="0">
-        <v>0.98939517023475476</v>
+        <v>0.92298665602529983</v>
       </c>
       <c r="AE6" s="0">
-        <v>0.99469743443025183</v>
+        <v>0.95473977179098535</v>
       </c>
       <c r="AF6" s="0">
-        <v>7.0383819671990279e-06</v>
+        <v>0.043938759709118418</v>
       </c>
       <c r="AG6" s="0">
-        <v>187004.53410187695</v>
+        <v>1702.9618701824397</v>
       </c>
       <c r="AH6" s="0">
-        <v>7.0160713900111523e-06</v>
+        <v>0.035691356787620199</v>
       </c>
       <c r="AI6" s="0">
-        <v>186226.22799458672</v>
+        <v>1671.1179022299239</v>
       </c>
       <c r="AJ6" s="0">
-        <v>7.1276242759505372e-06</v>
+        <v>0.11072831485381474</v>
       </c>
       <c r="AK6" s="0">
-        <v>190117.75853103769</v>
+        <v>1840.5890001944711</v>
       </c>
       <c r="AL6" s="0">
-        <v>0.46601063868014647</v>
+        <v>0.01674582630863666</v>
       </c>
       <c r="AM6" s="0">
-        <v>2.3408695725861388e-06</v>
+        <v>1.1090163055834552e-05</v>
       </c>
       <c r="AN6" s="0">
-        <v>0.98396381578947356</v>
+        <v>0.90790538287833966</v>
       </c>
       <c r="AO6" s="0">
-        <v>1.0641447368421051</v>
+        <v>1.9261363636363635</v>
       </c>
       <c r="AP6" s="0">
-        <v>0.0066168195983379464</v>
+        <v>0.018709825528007346</v>
       </c>
       <c r="AQ6" s="0">
-        <v>0.95815118594182791</v>
+        <v>0.78785726584022031</v>
       </c>
       <c r="AR6" s="0">
-        <v>0.97906602254428321</v>
+        <v>0.85024154589371959</v>
       </c>
       <c r="AS6" s="0">
-        <v>7.0633494627836586e-06</v>
+        <v>0.023226369832893487</v>
       </c>
       <c r="AT6" s="0">
-        <v>186841.10197368421</v>
+        <v>1758.5246212121215</v>
       </c>
       <c r="AU6" s="0">
-        <v>6.9751291205294889e-06</v>
+        <v>0.014459019991910776</v>
       </c>
       <c r="AV6" s="0">
-        <v>183688.56085526312</v>
+        <v>1623.6853185773225</v>
       </c>
       <c r="AW6" s="0">
-        <v>7.4162308318003402e-06</v>
+        <v>0.49258436765941649</v>
       </c>
       <c r="AX6" s="0">
-        <v>199451.26644736837</v>
+        <v>2427.712121212121</v>
       </c>
       <c r="AY6" s="0">
-        <v>0.44685376203493787</v>
+        <v>0.0072282183090049646</v>
       </c>
       <c r="AZ6" s="0">
-        <v>2.2844772689228119e-06</v>
+        <v>5.1036856651230713e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H7" s="0">
         <v>6</v>
@@ -1636,621 +1815,621 @@
         <v>701</v>
       </c>
       <c r="M7" s="0">
-        <v>0.00027947808986985645</v>
+        <v>0.0012650353306160565</v>
       </c>
       <c r="N7" s="0">
-        <v>4433.7892563382438</v>
+        <v>268.72758501776974</v>
       </c>
       <c r="O7" s="0">
-        <v>11.969484958698894</v>
+        <v>10.517010995855543</v>
       </c>
       <c r="P7" s="0">
-        <v>0.076612358397304542</v>
+        <v>0.20314558567255764</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.67857960473474754</v>
+        <v>0.6307743002210342</v>
       </c>
       <c r="R7" s="0">
-        <v>0.00024328415727762151</v>
+        <v>0.00056257904116292269</v>
       </c>
       <c r="S7" s="0">
-        <v>0.0038023886686656843</v>
+        <v>0.0052079668148609978</v>
       </c>
       <c r="T7" s="0">
-        <v>43.38541545734715</v>
+        <v>11.245513103981555</v>
       </c>
       <c r="U7" s="0">
-        <v>187447.96623031417</v>
+        <v>1542.5051819372256</v>
       </c>
       <c r="V7" s="0">
-        <v>0.010044065374544702</v>
+        <v>0.011187392173565597</v>
       </c>
       <c r="W7" s="0">
-        <v>6.6638626881436895</v>
+        <v>0.85124022081281669</v>
       </c>
       <c r="X7" s="0">
-        <v>0.00091339855936666719</v>
+        <v>0.030103841637676248</v>
       </c>
       <c r="Y7" s="0">
-        <v>1109937.0228146359</v>
+        <v>20897.319051650993</v>
       </c>
       <c r="Z7" s="0">
-        <v>594.34613577227833</v>
+        <v>29.885067293679445</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.99410763451935336</v>
+        <v>0.96325629541994029</v>
       </c>
       <c r="AB7" s="0">
-        <v>1.0235694619225866</v>
+        <v>1.1935226424773879</v>
       </c>
       <c r="AC7" s="0">
-        <v>0.0068720970704297772</v>
+        <v>0.019663752606439794</v>
       </c>
       <c r="AD7" s="0">
-        <v>0.98441047417056904</v>
+        <v>0.90837192517587595</v>
       </c>
       <c r="AE7" s="0">
-        <v>0.99220475592857738</v>
+        <v>0.94711687901303088</v>
       </c>
       <c r="AF7" s="0">
-        <v>1.0078084091093891e-05</v>
+        <v>0.041812424366302968</v>
       </c>
       <c r="AG7" s="0">
-        <v>188547.92619628977</v>
+        <v>1722.6329995720562</v>
       </c>
       <c r="AH7" s="0">
-        <v>1.0048440356128724e-05</v>
+        <v>0.030302055992618638</v>
       </c>
       <c r="AI7" s="0">
-        <v>187358.8045420578</v>
+        <v>1683.3244066404886</v>
       </c>
       <c r="AJ7" s="0">
-        <v>1.019665903095456e-05</v>
+        <v>0.1264659878036811</v>
       </c>
       <c r="AK7" s="0">
-        <v>193304.4128132179</v>
+        <v>1887.6716982898868</v>
       </c>
       <c r="AL7" s="0">
-        <v>0.48046434766846025</v>
+        <v>0.015535476819566687</v>
       </c>
       <c r="AM7" s="0">
-        <v>2.3959999736825114e-06</v>
+        <v>9.8250329487621827e-06</v>
       </c>
       <c r="AN7" s="0">
-        <v>0.97863562091503276</v>
+        <v>0.89411368843069849</v>
       </c>
       <c r="AO7" s="0">
-        <v>1.098529411764706</v>
+        <v>2.3247422680412368</v>
       </c>
       <c r="AP7" s="0">
-        <v>0.0067690311418685091</v>
+        <v>0.019059765472774298</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0.94553200692041539</v>
+        <v>0.75963911621260949</v>
       </c>
       <c r="AR7" s="0">
-        <v>0.9700427960057062</v>
+        <v>0.83024251069900146</v>
       </c>
       <c r="AS7" s="0">
-        <v>1.0193265928420894e-05</v>
+        <v>0.017955260288935113</v>
       </c>
       <c r="AT7" s="0">
-        <v>188254.1323529412</v>
+        <v>1793.9432989690722</v>
       </c>
       <c r="AU7" s="0">
-        <v>1.0086441354440819e-05</v>
+        <v>0.0099498032543816565</v>
       </c>
       <c r="AV7" s="0">
-        <v>183916.86891339865</v>
+        <v>1637.8982335815194</v>
       </c>
       <c r="AW7" s="0">
-        <v>1.0691806326060599e-05</v>
+        <v>0.82676588327064815</v>
       </c>
       <c r="AX7" s="0">
-        <v>208003.89852941173</v>
+        <v>2563.6323024054982</v>
       </c>
       <c r="AY7" s="0">
-        <v>0.30890233342878576</v>
+        <v>0.0048973838555778394</v>
       </c>
       <c r="AZ7" s="0">
-        <v>1.5773770969857912e-06</v>
+        <v>3.4655127065942781e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H8" s="0">
         <v>7</v>
       </c>
       <c r="I8" s="0">
-        <v>143.55206630032546</v>
+        <v>143.55206630032535</v>
       </c>
       <c r="J8" s="0">
-        <v>-1.2525363983654125</v>
+        <v>-1.2525363983654156</v>
       </c>
       <c r="K8" s="0">
-        <v>4.8708573809375206</v>
+        <v>4.870857380937534</v>
       </c>
       <c r="L8" s="0">
         <v>739</v>
       </c>
       <c r="M8" s="0">
-        <v>0.00029540941737375757</v>
+        <v>0.0010517865183167134</v>
       </c>
       <c r="N8" s="0">
-        <v>2344.3727236584236</v>
+        <v>205.47046946851691</v>
       </c>
       <c r="O8" s="0">
-        <v>11.91962073385573</v>
+        <v>10.48101597192481</v>
       </c>
       <c r="P8" s="0">
-        <v>0.089988296669423817</v>
+        <v>0.2067414279423026</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.68321516364184576</v>
+        <v>0.60356675859547182</v>
       </c>
       <c r="R8" s="0">
-        <v>0.0002484739279553917</v>
+        <v>0.00057585663780348681</v>
       </c>
       <c r="S8" s="0">
-        <v>0.0020294937835913015</v>
+        <v>0.003733044082532984</v>
       </c>
       <c r="T8" s="0">
-        <v>32.611451628458362</v>
+        <v>9.9815389135026322</v>
       </c>
       <c r="U8" s="0">
-        <v>193265.37729124047</v>
+        <v>1542.1398136603452</v>
       </c>
       <c r="V8" s="0">
-        <v>0.0094284430442118511</v>
+        <v>0.011127630648662012</v>
       </c>
       <c r="W8" s="0">
-        <v>3.8797483592019431</v>
+        <v>0.59610030099804967</v>
       </c>
       <c r="X8" s="0">
-        <v>0.0011306905104205291</v>
+        <v>0.028448257582265889</v>
       </c>
       <c r="Y8" s="0">
-        <v>612631.74543921126</v>
+        <v>18909.017553051639</v>
       </c>
       <c r="Z8" s="0">
-        <v>372.84966991510777</v>
+        <v>27.621556370429989</v>
       </c>
       <c r="AA8" s="0">
-        <v>0.99141436989358145</v>
+        <v>0.96479997822774355</v>
       </c>
       <c r="AB8" s="0">
-        <v>1.0343425204256729</v>
+        <v>1.1647664576232444</v>
       </c>
       <c r="AC8" s="0">
-        <v>0.0082062177815391199</v>
+        <v>0.02142372940359007</v>
       </c>
       <c r="AD8" s="0">
-        <v>0.97736707720714788</v>
+        <v>0.91173848127502988</v>
       </c>
       <c r="AE8" s="0">
-        <v>0.98868205543886511</v>
+        <v>0.95134527182311834</v>
       </c>
       <c r="AF8" s="0">
-        <v>5.8864776460326242e-06</v>
+        <v>0.017959675684681372</v>
       </c>
       <c r="AG8" s="0">
-        <v>195121.64742537538</v>
+        <v>1706.3104965182549</v>
       </c>
       <c r="AH8" s="0">
-        <v>5.8342215924474803e-06</v>
+        <v>0.011200432169805147</v>
       </c>
       <c r="AI8" s="0">
-        <v>193503.3333908878</v>
+        <v>1659.3738210887054</v>
       </c>
       <c r="AJ8" s="0">
-        <v>6.0955018603732102e-06</v>
+        <v>0.063832452622990046</v>
       </c>
       <c r="AK8" s="0">
-        <v>201594.90356332553</v>
+        <v>1898.5837439466354</v>
       </c>
       <c r="AL8" s="0">
-        <v>0.56925972129429503</v>
+        <v>0.028606098929589503</v>
       </c>
       <c r="AM8" s="0">
-        <v>2.8728680910493211e-06</v>
+        <v>1.8371332454829732e-05</v>
       </c>
       <c r="AN8" s="0">
-        <v>0.96444917929292961</v>
+        <v>0.88185354655199455</v>
       </c>
       <c r="AO8" s="0">
-        <v>1.1548295454545459</v>
+        <v>1.8390243902439027</v>
       </c>
       <c r="AP8" s="0">
-        <v>0.0080788352272727262</v>
+        <v>0.020942560645118641</v>
       </c>
       <c r="AQ8" s="0">
-        <v>0.91039433755165355</v>
+        <v>0.73551721858681995</v>
       </c>
       <c r="AR8" s="0">
-        <v>0.95263870094722569</v>
+        <v>0.83220568335588629</v>
       </c>
       <c r="AS8" s="0">
-        <v>5.8765606016757505e-06</v>
+        <v>0.0095750466672229577</v>
       </c>
       <c r="AT8" s="0">
-        <v>195389.65482954544</v>
+        <v>1736.6325203252034</v>
       </c>
       <c r="AU8" s="0">
-        <v>5.6569831307010966e-06</v>
+        <v>0.0050678745158389349</v>
       </c>
       <c r="AV8" s="0">
-        <v>188705.26972853541</v>
+        <v>1548.3494235555856</v>
       </c>
       <c r="AW8" s="0">
-        <v>6.8212770128131663e-06</v>
+        <v>0.25153089071249946</v>
       </c>
       <c r="AX8" s="0">
-        <v>224534.575284091</v>
+        <v>2691.6146341463414</v>
       </c>
       <c r="AY8" s="0">
-        <v>0.35618663871555967</v>
+        <v>0.0085965250314771584</v>
       </c>
       <c r="AZ8" s="0">
-        <v>1.8674115137980753e-06</v>
+        <v>6.4079263727820711e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H9" s="0">
         <v>8</v>
       </c>
       <c r="I9" s="0">
-        <v>122.92511143877894</v>
+        <v>122.92511143877884</v>
       </c>
       <c r="J9" s="0">
-        <v>-1.0771766393996416</v>
+        <v>-1.0771766393996449</v>
       </c>
       <c r="K9" s="0">
-        <v>4.1968178170179797</v>
+        <v>4.1968178170179948</v>
       </c>
       <c r="L9" s="0">
         <v>907</v>
       </c>
       <c r="M9" s="0">
-        <v>0.00024085096204254936</v>
+        <v>0.00083984935076053579</v>
       </c>
       <c r="N9" s="0">
-        <v>2790.5616308166209</v>
+        <v>227.61530538097659</v>
       </c>
       <c r="O9" s="0">
-        <v>12.214282094800886</v>
+        <v>10.703579112922597</v>
       </c>
       <c r="P9" s="0">
-        <v>0.087205536030751762</v>
+        <v>0.20192882800769368</v>
       </c>
       <c r="Q9" s="0">
-        <v>0.64594038559312039</v>
+        <v>0.60932927770137613</v>
       </c>
       <c r="R9" s="0">
-        <v>0.00024650453341210147</v>
+        <v>0.00055718194907499981</v>
       </c>
       <c r="S9" s="0">
-        <v>0.0021694934562714436</v>
+        <v>0.0042246745740781499</v>
       </c>
       <c r="T9" s="0">
-        <v>35.125275767106139</v>
+        <v>10.445547628348567</v>
       </c>
       <c r="U9" s="0">
-        <v>190274.78871520894</v>
+        <v>1473.5695091099335</v>
       </c>
       <c r="V9" s="0">
-        <v>0.0082637885191260991</v>
+        <v>0.0090966385411168395</v>
       </c>
       <c r="W9" s="0">
-        <v>3.3824700178004807</v>
+        <v>0.66158752211377803</v>
       </c>
       <c r="X9" s="0">
-        <v>0.0011736084870054048</v>
+        <v>0.039047375361533902</v>
       </c>
       <c r="Y9" s="0">
-        <v>737332.13362044585</v>
+        <v>19505.89195285258</v>
       </c>
       <c r="Z9" s="0">
-        <v>351.05002814211753</v>
+        <v>23.133212683726235</v>
       </c>
       <c r="AA9" s="0">
-        <v>0.99054415237973581</v>
+        <v>0.96802605340027981</v>
       </c>
       <c r="AB9" s="0">
-        <v>1.0378233904810539</v>
+        <v>1.1426811697240227</v>
       </c>
       <c r="AC9" s="0">
-        <v>0.0073938162939500033</v>
+        <v>0.019931287987398062</v>
       </c>
       <c r="AD9" s="0">
-        <v>0.97510231942762537</v>
+        <v>0.91907183587867891</v>
       </c>
       <c r="AE9" s="0">
-        <v>0.98754918057462693</v>
+        <v>0.95678898770074394</v>
       </c>
       <c r="AF9" s="0">
-        <v>6.1503572400204113e-06</v>
+        <v>0.017932027354215532</v>
       </c>
       <c r="AG9" s="0">
-        <v>190881.26165318693</v>
+        <v>1606.9637396895992</v>
       </c>
       <c r="AH9" s="0">
-        <v>6.1002034651883622e-06</v>
+        <v>0.014440710424420721</v>
       </c>
       <c r="AI9" s="0">
-        <v>189055.30590601385</v>
+        <v>1567.715576096818</v>
       </c>
       <c r="AJ9" s="0">
-        <v>6.350972339348601e-06</v>
+        <v>0.038334197128807923</v>
       </c>
       <c r="AK9" s="0">
-        <v>198185.08464187934</v>
+        <v>1769.9391507524692</v>
       </c>
       <c r="AL9" s="0">
-        <v>0.49385728232577347</v>
+        <v>0.024412823182056391</v>
       </c>
       <c r="AM9" s="0">
-        <v>2.5558477305751136e-06</v>
+        <v>1.70012416599293e-05</v>
       </c>
       <c r="AN9" s="0">
-        <v>0.96226475895849439</v>
+        <v>0.89744085031064891</v>
       </c>
       <c r="AO9" s="0">
-        <v>1.1612529002320184</v>
+        <v>1.7074122236671001</v>
       </c>
       <c r="AP9" s="0">
-        <v>0.0072081868637658055</v>
+        <v>0.019485559582048867</v>
       </c>
       <c r="AQ9" s="0">
-        <v>0.90498812990886135</v>
+        <v>0.76697482586778642</v>
       </c>
       <c r="AR9" s="0">
-        <v>0.95038588754134523</v>
+        <v>0.84785005512679157</v>
       </c>
       <c r="AS9" s="0">
-        <v>6.1808207538199029e-06</v>
+        <v>0.011668329902542192</v>
       </c>
       <c r="AT9" s="0">
-        <v>190870.06496519723</v>
+        <v>1644.6280884265279</v>
       </c>
       <c r="AU9" s="0">
-        <v>5.9792015965851665e-06</v>
+        <v>0.0082078874665418716</v>
       </c>
       <c r="AV9" s="0">
-        <v>183616.98968806388</v>
+        <v>1498.6209702355152</v>
       </c>
       <c r="AW9" s="0">
-        <v>7.0456460730361383e-06</v>
+        <v>0.11254828506784317</v>
       </c>
       <c r="AX9" s="0">
-        <v>221706.03712296978</v>
+        <v>2420.9674902470733</v>
       </c>
       <c r="AY9" s="0">
-        <v>0.30188460291529867</v>
+        <v>0.010421103645853814</v>
       </c>
       <c r="AZ9" s="0">
-        <v>1.6145048648858851e-06</v>
+        <v>7.7685044033806348e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H10" s="0">
         <v>9</v>
       </c>
       <c r="I10" s="0">
-        <v>125.59041829754381</v>
+        <v>125.59041829754379</v>
       </c>
       <c r="J10" s="0">
-        <v>-1.52764276103448</v>
+        <v>-1.5276427610344809</v>
       </c>
       <c r="K10" s="0">
-        <v>5.7191328920605216</v>
+        <v>5.7191328920605269</v>
       </c>
       <c r="L10" s="0">
         <v>944</v>
       </c>
       <c r="M10" s="0">
-        <v>0.0002397347276531836</v>
+        <v>0.00088669085769820183</v>
       </c>
       <c r="N10" s="0">
-        <v>2486.6068114329596</v>
+        <v>181.23566778934725</v>
       </c>
       <c r="O10" s="0">
-        <v>12.235115527961007</v>
+        <v>10.645168254867144</v>
       </c>
       <c r="P10" s="0">
-        <v>0.088203276822148471</v>
+        <v>0.20241785014377567</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.65530627045886447</v>
+        <v>0.63392015226533616</v>
       </c>
       <c r="R10" s="0">
-        <v>0.0002450332828169764</v>
+        <v>0.00054493388144948702</v>
       </c>
       <c r="S10" s="0">
-        <v>0.001993421703260851</v>
+        <v>0.0036089982026705132</v>
       </c>
       <c r="T10" s="0">
-        <v>32.352088512273767</v>
+        <v>9.5203224358519751</v>
       </c>
       <c r="U10" s="0">
-        <v>187881.46198907803</v>
+        <v>1399.6487078843288</v>
       </c>
       <c r="V10" s="0">
-        <v>0.0079993895600324137</v>
+        <v>0.009400881200224271</v>
       </c>
       <c r="W10" s="0">
-        <v>3.0353430694207906</v>
+        <v>0.48343422714276207</v>
       </c>
       <c r="X10" s="0">
-        <v>0.001214472791655148</v>
+        <v>0.036337861243323472</v>
       </c>
       <c r="Y10" s="0">
-        <v>685400.44227129221</v>
+        <v>18964.576005824307</v>
       </c>
       <c r="Z10" s="0">
-        <v>355.04324085456483</v>
+        <v>24.379190121970762</v>
       </c>
       <c r="AA10" s="0">
-        <v>0.99203963888569846</v>
+        <v>0.97263243642621089</v>
       </c>
       <c r="AB10" s="0">
-        <v>1.0318414444572059</v>
+        <v>1.1395107504730841</v>
       </c>
       <c r="AC10" s="0">
-        <v>0.0075919481701431212</v>
+        <v>0.02032120415320024</v>
       </c>
       <c r="AD10" s="0">
-        <v>0.97899767649188951</v>
+        <v>0.93026805713559424</v>
       </c>
       <c r="AE10" s="0">
-        <v>0.98949765512460475</v>
+        <v>0.96151649668988759</v>
       </c>
       <c r="AF10" s="0">
-        <v>6.2564361578543578e-06</v>
+        <v>0.021828982960951666</v>
       </c>
       <c r="AG10" s="0">
-        <v>188165.60690417897</v>
+        <v>1505.511962204384</v>
       </c>
       <c r="AH10" s="0">
-        <v>6.2157628461787722e-06</v>
+        <v>0.017961044432306939</v>
       </c>
       <c r="AI10" s="0">
-        <v>186588.26963795582</v>
+        <v>1474.2302875180092</v>
       </c>
       <c r="AJ10" s="0">
-        <v>6.4191294045567018e-06</v>
+        <v>0.063881662678317394</v>
       </c>
       <c r="AK10" s="0">
-        <v>194474.95596907151</v>
+        <v>1635.7730670337289</v>
       </c>
       <c r="AL10" s="0">
-        <v>0.50358989935303888</v>
+        <v>0.011936091191458843</v>
       </c>
       <c r="AM10" s="0">
-        <v>2.651548099195015e-06</v>
+        <v>9.0352146399059117e-06</v>
       </c>
       <c r="AN10" s="0">
-        <v>0.97134075300466072</v>
+        <v>0.9108005733005734</v>
       </c>
       <c r="AO10" s="0">
-        <v>1.1368653421633557</v>
+        <v>1.7886977886977888</v>
       </c>
       <c r="AP10" s="0">
-        <v>0.0074850518252123459</v>
+        <v>0.019921641543263161</v>
       </c>
       <c r="AQ10" s="0">
-        <v>0.92752998162848677</v>
+        <v>0.79330693212757109</v>
       </c>
       <c r="AR10" s="0">
-        <v>0.95974576271186418</v>
+        <v>0.86228813559322026</v>
       </c>
       <c r="AS10" s="0">
-        <v>6.2914533433974606e-06</v>
+        <v>0.0096965578428756111</v>
       </c>
       <c r="AT10" s="0">
-        <v>187879.19867549668</v>
+        <v>1542.1486486486488</v>
       </c>
       <c r="AU10" s="0">
-        <v>6.1445234665082227e-06</v>
+        <v>0.0054667224203806221</v>
       </c>
       <c r="AV10" s="0">
-        <v>182219.72338729457</v>
+        <v>1425.3881825006824</v>
       </c>
       <c r="AW10" s="0">
-        <v>6.991201999332082e-06</v>
+        <v>0.31012539338676132</v>
       </c>
       <c r="AX10" s="0">
-        <v>214968.57395143487</v>
+        <v>2203.8488943488946</v>
       </c>
       <c r="AY10" s="0">
-        <v>0.24067580088335672</v>
+        <v>0.0054231066916646132</v>
       </c>
       <c r="AZ10" s="0">
-        <v>1.3018741575961042e-06</v>
+        <v>4.4353265225603707e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H11" s="0">
         <v>10</v>
@@ -2268,463 +2447,463 @@
         <v>956</v>
       </c>
       <c r="M11" s="0">
-        <v>0.00024724518522410786</v>
+        <v>0.00085234773487696813</v>
       </c>
       <c r="N11" s="0">
-        <v>1819.9297725988381</v>
+        <v>164.44168089766234</v>
       </c>
       <c r="O11" s="0">
-        <v>12.203190056637199</v>
+        <v>10.642966709061488</v>
       </c>
       <c r="P11" s="0">
-        <v>0.095465532164490566</v>
+        <v>0.20324603648375034</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.64786452441903619</v>
+        <v>0.63325461888926116</v>
       </c>
       <c r="R11" s="0">
-        <v>0.000245397393826964</v>
+        <v>0.00053538321238160824</v>
       </c>
       <c r="S11" s="0">
-        <v>0.0014273311358837676</v>
+        <v>0.0032900269879624204</v>
       </c>
       <c r="T11" s="0">
-        <v>29.105269009828813</v>
+        <v>9.176471408330416</v>
       </c>
       <c r="U11" s="0">
-        <v>187771.51610198821</v>
+        <v>1343.6785607614534</v>
       </c>
       <c r="V11" s="0">
-        <v>0.0087547209619210382</v>
+        <v>0.0095660604308813544</v>
       </c>
       <c r="W11" s="0">
-        <v>2.2133523651148272</v>
+        <v>0.44234003187437188</v>
       </c>
       <c r="X11" s="0">
-        <v>0.0012834582697144954</v>
+        <v>0.038090199327966076</v>
       </c>
       <c r="Y11" s="0">
-        <v>454798.30010674865</v>
+        <v>16694.636777576332</v>
       </c>
       <c r="Z11" s="0">
-        <v>239.67597345284773</v>
+        <v>22.953904812474988</v>
       </c>
       <c r="AA11" s="0">
-        <v>0.98968348207176493</v>
+        <v>0.97142759501685594</v>
       </c>
       <c r="AB11" s="0">
-        <v>1.0426468072366497</v>
+        <v>1.1219531597555481</v>
       </c>
       <c r="AC11" s="0">
-        <v>0.0079210117201987309</v>
+        <v>0.02091358274666082</v>
       </c>
       <c r="AD11" s="0">
-        <v>0.9729712898669739</v>
+        <v>0.92717545406763269</v>
       </c>
       <c r="AE11" s="0">
-        <v>0.9861850347477128</v>
+        <v>0.96199955321679254</v>
       </c>
       <c r="AF11" s="0">
-        <v>5.7317626163602607e-06</v>
+        <v>0.012097208176368782</v>
       </c>
       <c r="AG11" s="0">
-        <v>188692.01417982019</v>
+        <v>1447.6822146512443</v>
       </c>
       <c r="AH11" s="0">
-        <v>5.6772043008082867e-06</v>
+        <v>0.0099260413236737614</v>
       </c>
       <c r="AI11" s="0">
-        <v>186693.89406168406</v>
+        <v>1413.6296360680415</v>
       </c>
       <c r="AJ11" s="0">
-        <v>5.9561673428115619e-06</v>
+        <v>0.021787251082044351</v>
       </c>
       <c r="AK11" s="0">
-        <v>196993.40523034972</v>
+        <v>1594.6665487950795</v>
       </c>
       <c r="AL11" s="0">
-        <v>0.35036669176352742</v>
+        <v>0.029955181880034609</v>
       </c>
       <c r="AM11" s="0">
-        <v>1.868127794890782e-06</v>
+        <v>2.3568360005214806e-05</v>
       </c>
       <c r="AN11" s="0">
-        <v>0.96023844641101297</v>
+        <v>0.89970478731484482</v>
       </c>
       <c r="AO11" s="0">
-        <v>1.183628318584071</v>
+        <v>1.6151035322777101</v>
       </c>
       <c r="AP11" s="0">
-        <v>0.007829019500352417</v>
+        <v>0.02050468740032135</v>
       </c>
       <c r="AQ11" s="0">
-        <v>0.90090991855274527</v>
+        <v>0.77019795531725832</v>
       </c>
       <c r="AR11" s="0">
-        <v>0.94560669456066904</v>
+        <v>0.85878661087866082</v>
       </c>
       <c r="AS11" s="0">
-        <v>5.7519496848987487e-06</v>
+        <v>0.0074706993830500005</v>
       </c>
       <c r="AT11" s="0">
-        <v>188428.67367256636</v>
+        <v>1470.9037758830696</v>
       </c>
       <c r="AU11" s="0">
-        <v>5.5431822205625832e-06</v>
+        <v>0.004426909725547842</v>
       </c>
       <c r="AV11" s="0">
-        <v>180662.90572763028</v>
+        <v>1340.6519314493967</v>
       </c>
       <c r="AW11" s="0">
-        <v>6.720473645421118e-06</v>
+        <v>0.058088717170516044</v>
       </c>
       <c r="AX11" s="0">
-        <v>224094.16924778762</v>
+        <v>2199.2704019488428</v>
       </c>
       <c r="AY11" s="0">
-        <v>0.32280464083211274</v>
+        <v>0.010945295662378932</v>
       </c>
       <c r="AZ11" s="0">
-        <v>1.7743635804072366e-06</v>
+        <v>9.2206869148964152e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H12" s="0">
         <v>11</v>
       </c>
       <c r="I12" s="0">
-        <v>106.59911956572631</v>
+        <v>106.5991195657263</v>
       </c>
       <c r="J12" s="0">
-        <v>-1.5060624607975293</v>
+        <v>-1.5060624607975259</v>
       </c>
       <c r="K12" s="0">
-        <v>5.7357126670756085</v>
+        <v>5.7357126670756049</v>
       </c>
       <c r="L12" s="0">
         <v>1023</v>
       </c>
       <c r="M12" s="0">
-        <v>0.00021687790762683822</v>
+        <v>0.000804343272541608</v>
       </c>
       <c r="N12" s="0">
-        <v>2002.4281182175366</v>
+        <v>156.80474030548245</v>
       </c>
       <c r="O12" s="0">
-        <v>12.355009044755679</v>
+        <v>10.696905781869862</v>
       </c>
       <c r="P12" s="0">
-        <v>0.092806883918248095</v>
+        <v>0.20159038272592636</v>
       </c>
       <c r="Q12" s="0">
-        <v>0.66051559989960917</v>
+        <v>0.64893710909796321</v>
       </c>
       <c r="R12" s="0">
-        <v>0.00024401940244176689</v>
+        <v>0.00052889199579862799</v>
       </c>
       <c r="S12" s="0">
-        <v>0.001622759737404508</v>
+        <v>0.0032626218681006819</v>
       </c>
       <c r="T12" s="0">
-        <v>30.24651724650278</v>
+        <v>9.280784677121158</v>
       </c>
       <c r="U12" s="0">
-        <v>185938.91599011101</v>
+        <v>1316.5043936690699</v>
       </c>
       <c r="V12" s="0">
-        <v>0.0075213951385394162</v>
+        <v>0.0082991884435597869</v>
       </c>
       <c r="W12" s="0">
-        <v>2.6461522279460916</v>
+        <v>0.50307058489311507</v>
       </c>
       <c r="X12" s="0">
-        <v>0.0014278471961555338</v>
+        <v>0.048591995637477077</v>
       </c>
       <c r="Y12" s="0">
-        <v>571000.03703708563</v>
+        <v>15399.775647390081</v>
       </c>
       <c r="Z12" s="0">
-        <v>284.08960424777115</v>
+        <v>18.411841098478092</v>
       </c>
       <c r="AA12" s="0">
-        <v>0.99016399293975066</v>
+        <v>0.96967211636875605</v>
       </c>
       <c r="AB12" s="0">
-        <v>1.0393440282409936</v>
+        <v>1.1389813262922464</v>
       </c>
       <c r="AC12" s="0">
-        <v>0.0075118958240804924</v>
+        <v>0.020719476407135222</v>
       </c>
       <c r="AD12" s="0">
-        <v>0.97411463729671954</v>
+        <v>0.92313535023228266</v>
       </c>
       <c r="AE12" s="0">
-        <v>0.98705509219245435</v>
+        <v>0.95850464568103022</v>
       </c>
       <c r="AF12" s="0">
-        <v>6.0375806307823762e-06</v>
+        <v>0.020097858153560702</v>
       </c>
       <c r="AG12" s="0">
-        <v>186366.37221452501</v>
+        <v>1413.7759275675253</v>
       </c>
       <c r="AH12" s="0">
-        <v>5.9854733420575811e-06</v>
+        <v>0.017487027681048675</v>
       </c>
       <c r="AI12" s="0">
-        <v>184463.14038538287</v>
+        <v>1376.4478153132623</v>
       </c>
       <c r="AJ12" s="0">
-        <v>6.2460097856815594e-06</v>
+        <v>0.040041012008234934</v>
       </c>
       <c r="AK12" s="0">
-        <v>193979.29953109351</v>
+        <v>1569.1695551568232</v>
       </c>
       <c r="AL12" s="0">
-        <v>0.49107527428330788</v>
+        <v>0.018261963785858492</v>
       </c>
       <c r="AM12" s="0">
-        <v>2.6102976623839592e-06</v>
+        <v>1.4418482274093177e-05</v>
       </c>
       <c r="AN12" s="0">
-        <v>0.9602806414662084</v>
+        <v>0.89458461637156783</v>
       </c>
       <c r="AO12" s="0">
-        <v>1.1680412371134019</v>
+        <v>1.6847575057736721</v>
       </c>
       <c r="AP12" s="0">
-        <v>0.0074609416516101604</v>
+        <v>0.020742550229613469</v>
       </c>
       <c r="AQ12" s="0">
-        <v>0.90016579870336899</v>
+        <v>0.76108465029948413</v>
       </c>
       <c r="AR12" s="0">
-        <v>0.94819159335288339</v>
+        <v>0.84652981427174967</v>
       </c>
       <c r="AS12" s="0">
-        <v>6.0676934272966804e-06</v>
+        <v>0.011706850688500102</v>
       </c>
       <c r="AT12" s="0">
-        <v>186076.30515463918</v>
+        <v>1439.8314087759816</v>
       </c>
       <c r="AU12" s="0">
-        <v>5.8581651007664633e-06</v>
+        <v>0.0073925733644148502</v>
       </c>
       <c r="AV12" s="0">
-        <v>178354.96577892324</v>
+        <v>1304.9252620605596</v>
       </c>
       <c r="AW12" s="0">
-        <v>6.9620007649385712e-06</v>
+        <v>0.11327961829672575</v>
       </c>
       <c r="AX12" s="0">
-        <v>218462.7164948454</v>
+        <v>2206.444572748268</v>
       </c>
       <c r="AY12" s="0">
-        <v>0.30969367695697103</v>
+        <v>0.013103706729634419</v>
       </c>
       <c r="AZ12" s="0">
-        <v>1.700798972539882e-06</v>
+        <v>1.092089700429894e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H13" s="0">
         <v>12</v>
       </c>
       <c r="I13" s="0">
-        <v>149.10247597078049</v>
+        <v>149.10247597078055</v>
       </c>
       <c r="J13" s="0">
-        <v>0.33316323084869359</v>
+        <v>0.33316323084869476</v>
       </c>
       <c r="K13" s="0">
-        <v>1.0473513453239107</v>
+        <v>1.0473513453239089</v>
       </c>
       <c r="L13" s="0">
         <v>1020</v>
       </c>
       <c r="M13" s="0">
-        <v>0.00023412901202421538</v>
+        <v>0.0008031487165225731</v>
       </c>
       <c r="N13" s="0">
-        <v>1307.0199418307554</v>
+        <v>152.69087463182231</v>
       </c>
       <c r="O13" s="0">
-        <v>12.273391084630402</v>
+        <v>10.646738656889358</v>
       </c>
       <c r="P13" s="0">
-        <v>0.092782596736737943</v>
+        <v>0.19407733863014792</v>
       </c>
       <c r="Q13" s="0">
-        <v>0.58169373990146922</v>
+        <v>0.59591183733621955</v>
       </c>
       <c r="R13" s="0">
-        <v>0.00024863227335374897</v>
+        <v>0.00055354680953839631</v>
       </c>
       <c r="S13" s="0">
-        <v>0.00085072824530530485</v>
+        <v>0.0027711957766526473</v>
       </c>
       <c r="T13" s="0">
-        <v>26.063720720987611</v>
+        <v>9.0754640330129028</v>
       </c>
       <c r="U13" s="0">
-        <v>191954.80705488095</v>
+        <v>1399.447052527687</v>
       </c>
       <c r="V13" s="0">
-        <v>0.007774313410112677</v>
+        <v>0.008627818447633202</v>
       </c>
       <c r="W13" s="0">
-        <v>1.7737753079396732</v>
+        <v>0.4344577676467628</v>
       </c>
       <c r="X13" s="0">
-        <v>0.0020414968831353707</v>
+        <v>0.04756859828265806</v>
       </c>
       <c r="Y13" s="0">
-        <v>255734.90672792782</v>
+        <v>14296.751089052879</v>
       </c>
       <c r="Z13" s="0">
-        <v>107.93104783151018</v>
+        <v>17.007555194993891</v>
       </c>
       <c r="AA13" s="0">
-        <v>0.99174347725683232</v>
+        <v>0.97573675198023135</v>
       </c>
       <c r="AB13" s="0">
-        <v>1.0330260909726703</v>
+        <v>1.0979847666812741</v>
       </c>
       <c r="AC13" s="0">
-        <v>0.0081710396234907015</v>
+        <v>0.021254012420623462</v>
       </c>
       <c r="AD13" s="0">
-        <v>0.97822498883709397</v>
+        <v>0.93745034572362107</v>
       </c>
       <c r="AE13" s="0">
-        <v>0.98911117478647226</v>
+        <v>0.96850253235493189</v>
       </c>
       <c r="AF13" s="0">
-        <v>5.3702789049130073e-06</v>
+        <v>0.0017069042034604963</v>
       </c>
       <c r="AG13" s="0">
-        <v>192628.63763708394</v>
+        <v>1488.4470333713957</v>
       </c>
       <c r="AH13" s="0">
-        <v>5.3267907678441391e-06</v>
+        <v>0.0016735185060130339</v>
       </c>
       <c r="AI13" s="0">
-        <v>191029.05523458592</v>
+        <v>1455.1839035726732</v>
       </c>
       <c r="AJ13" s="0">
-        <v>5.5442314531884782e-06</v>
+        <v>0.0018410293523767197</v>
       </c>
       <c r="AK13" s="0">
-        <v>199026.96724707601</v>
+        <v>1622.9903919298063</v>
       </c>
       <c r="AL13" s="0">
-        <v>0.5423817406684085</v>
+        <v>0.031964205248423097</v>
       </c>
       <c r="AM13" s="0">
-        <v>2.8621664572703078e-06</v>
+        <v>2.4216767338123604e-05</v>
       </c>
       <c r="AN13" s="0">
-        <v>0.96583390371891364</v>
+        <v>0.90147325334333206</v>
       </c>
       <c r="AO13" s="0">
-        <v>1.1457905544147839</v>
+        <v>1.4870641169853769</v>
       </c>
       <c r="AP13" s="0">
-        <v>0.0080744110739599181</v>
+        <v>0.020823184503511862</v>
       </c>
       <c r="AQ13" s="0">
-        <v>0.91355531287815794</v>
+        <v>0.77279358640349927</v>
       </c>
       <c r="AR13" s="0">
-        <v>0.95490196078431366</v>
+        <v>0.8715686274509804</v>
       </c>
       <c r="AS13" s="0">
-        <v>5.374756533010108e-06</v>
+        <v>0.0017425925348280974</v>
       </c>
       <c r="AT13" s="0">
-        <v>192566.14065708418</v>
+        <v>1499.9628796400452</v>
       </c>
       <c r="AU13" s="0">
-        <v>5.1961934110687522e-06</v>
+        <v>0.001605940590990374</v>
       </c>
       <c r="AV13" s="0">
-        <v>185902.02253023043</v>
+        <v>1360.5401902887138</v>
       </c>
       <c r="AW13" s="0">
-        <v>6.1429494115411633e-06</v>
+        <v>0.002411511551592316</v>
       </c>
       <c r="AX13" s="0">
-        <v>220788.50410677618</v>
+        <v>2161.4139482564678</v>
       </c>
       <c r="AY13" s="0">
-        <v>0.34015500595417392</v>
+        <v>0.019419822711666031</v>
       </c>
       <c r="AZ13" s="0">
-        <v>1.8449309501269818e-06</v>
+        <v>1.5932965039199068e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H14" s="0">
         <v>13</v>
@@ -2742,147 +2921,147 @@
         <v>1120</v>
       </c>
       <c r="M14" s="0">
-        <v>0.00019779742100018278</v>
+        <v>0.0006801835506097749</v>
       </c>
       <c r="N14" s="0">
-        <v>1657.9207087729089</v>
+        <v>165.17302110456063</v>
       </c>
       <c r="O14" s="0">
-        <v>12.492940161136499</v>
+        <v>10.913273077734578</v>
       </c>
       <c r="P14" s="0">
-        <v>0.088838149108217898</v>
+        <v>0.18872959739806569</v>
       </c>
       <c r="Q14" s="0">
-        <v>0.66246844606922539</v>
+        <v>0.66435253100041902</v>
       </c>
       <c r="R14" s="0">
-        <v>0.00024882176410980688</v>
+        <v>0.0005629220670798343</v>
       </c>
       <c r="S14" s="0">
-        <v>0.0013528472979205297</v>
+        <v>0.0036465049046426876</v>
       </c>
       <c r="T14" s="0">
-        <v>29.336714185268633</v>
+        <v>9.685417616469163</v>
       </c>
       <c r="U14" s="0">
-        <v>192953.63768625111</v>
+        <v>1494.3808294800622</v>
       </c>
       <c r="V14" s="0">
-        <v>0.0073390377303169992</v>
+        <v>0.0079522332427802503</v>
       </c>
       <c r="W14" s="0">
-        <v>2.0851331605151446</v>
+        <v>0.49935409786855212</v>
       </c>
       <c r="X14" s="0">
-        <v>0.0015752602754896274</v>
+        <v>0.047177899883859488</v>
       </c>
       <c r="Y14" s="0">
-        <v>473951.82043080957</v>
+        <v>17030.202789403422</v>
       </c>
       <c r="Z14" s="0">
-        <v>200.46033970519071</v>
+        <v>18.416947604282495</v>
       </c>
       <c r="AA14" s="0">
-        <v>0.99188416206171537</v>
+        <v>0.97277935517809522</v>
       </c>
       <c r="AB14" s="0">
-        <v>1.0332942226093405</v>
+        <v>1.118426810164562</v>
       </c>
       <c r="AC14" s="0">
-        <v>0.0071247328547753754</v>
+        <v>0.01904990664654764</v>
       </c>
       <c r="AD14" s="0">
-        <v>0.97865573871189282</v>
+        <v>0.930579150735109</v>
       </c>
       <c r="AE14" s="0">
-        <v>0.98914566584866737</v>
+        <v>0.96340599877300137</v>
       </c>
       <c r="AF14" s="0">
-        <v>5.6014658466939119e-06</v>
+        <v>0.0090573897646740245</v>
       </c>
       <c r="AG14" s="0">
-        <v>193094.85111204424</v>
+        <v>1574.5633151852921</v>
       </c>
       <c r="AH14" s="0">
-        <v>5.5586081365633568e-06</v>
+        <v>0.0078437367069177488</v>
       </c>
       <c r="AI14" s="0">
-        <v>191503.94230922216</v>
+        <v>1533.7432218482975</v>
       </c>
       <c r="AJ14" s="0">
-        <v>5.7769277709563826e-06</v>
+        <v>0.013919246461657771</v>
       </c>
       <c r="AK14" s="0">
-        <v>199629.74210073039</v>
+        <v>1757.4428496686489</v>
       </c>
       <c r="AL14" s="0">
-        <v>0.32218287560118963</v>
+        <v>0.022573113576116844</v>
       </c>
       <c r="AM14" s="0">
-        <v>1.6881218532632586e-06</v>
+        <v>1.6400894825663645e-05</v>
       </c>
       <c r="AN14" s="0">
-        <v>0.96552440290758068</v>
+        <v>0.90377152203856737</v>
       </c>
       <c r="AO14" s="0">
-        <v>1.1420560747663555</v>
+        <v>1.5578512396694215</v>
       </c>
       <c r="AP14" s="0">
-        <v>0.0071028037383177572</v>
+        <v>0.018900262960180318</v>
       </c>
       <c r="AQ14" s="0">
-        <v>0.91252161760852524</v>
+        <v>0.77895977050747867</v>
       </c>
       <c r="AR14" s="0">
-        <v>0.95535714285714279</v>
+        <v>0.86428571428571432</v>
       </c>
       <c r="AS14" s="0">
-        <v>5.6145563217127679e-06</v>
+        <v>0.0073012068132811917</v>
       </c>
       <c r="AT14" s="0">
-        <v>192930.92990654203</v>
+        <v>1576.7985537190084</v>
       </c>
       <c r="AU14" s="0">
-        <v>5.4336156768783423e-06</v>
+        <v>0.0052239820669478902</v>
       </c>
       <c r="AV14" s="0">
-        <v>186132.20189511936</v>
+        <v>1428.8336900252527</v>
       </c>
       <c r="AW14" s="0">
-        <v>6.3584710794193431e-06</v>
+        <v>0.02736650808527416</v>
       </c>
       <c r="AX14" s="0">
-        <v>220981.98317757004</v>
+        <v>2440.5309917355371</v>
       </c>
       <c r="AY14" s="0">
-        <v>0.30295643178274378</v>
+        <v>0.01560012029676365</v>
       </c>
       <c r="AZ14" s="0">
-        <v>1.6214311170905366e-06</v>
+        <v>1.1842379296410362e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H15" s="0">
         <v>14</v>
@@ -2900,305 +3079,305 @@
         <v>1136</v>
       </c>
       <c r="M15" s="0">
-        <v>0.00019837043711537586</v>
+        <v>0.00068112759264552718</v>
       </c>
       <c r="N15" s="0">
-        <v>1577.6743772748391</v>
+        <v>166.67846449015181</v>
       </c>
       <c r="O15" s="0">
-        <v>12.506188162314322</v>
+        <v>10.934317008926808</v>
       </c>
       <c r="P15" s="0">
-        <v>0.094838660393510368</v>
+        <v>0.19712815796938721</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.67868050605366759</v>
+        <v>0.70066537966893028</v>
       </c>
       <c r="R15" s="0">
-        <v>0.00025110283877733828</v>
+        <v>0.00057739257128382399</v>
       </c>
       <c r="S15" s="0">
-        <v>0.0013485892166894434</v>
+        <v>0.0040721219216352357</v>
       </c>
       <c r="T15" s="0">
-        <v>28.235114019452659</v>
+        <v>9.5347189560177963</v>
       </c>
       <c r="U15" s="0">
-        <v>196511.75277489258</v>
+        <v>1591.0739124666502</v>
       </c>
       <c r="V15" s="0">
-        <v>0.007993858985577515</v>
+        <v>0.0088192941094560103</v>
       </c>
       <c r="W15" s="0">
-        <v>1.9185444233846334</v>
+        <v>0.50814887235725381</v>
       </c>
       <c r="X15" s="0">
-        <v>0.0015915211364672523</v>
+        <v>0.044082908343637907</v>
       </c>
       <c r="Y15" s="0">
-        <v>406069.04428884492</v>
+        <v>16641.610218573354</v>
       </c>
       <c r="Z15" s="0">
-        <v>180.97145242232037</v>
+        <v>20.561327923074263</v>
       </c>
       <c r="AA15" s="0">
-        <v>0.99092194333865269</v>
+        <v>0.96999459857350034</v>
       </c>
       <c r="AB15" s="0">
-        <v>1.0363122266453864</v>
+        <v>1.1321414872303346</v>
       </c>
       <c r="AC15" s="0">
-        <v>0.0069261205448419667</v>
+        <v>0.018342281284653261</v>
       </c>
       <c r="AD15" s="0">
-        <v>0.97608486619283985</v>
+        <v>0.92377804269977348</v>
       </c>
       <c r="AE15" s="0">
-        <v>0.98804068095279307</v>
+        <v>0.95961383833059843</v>
       </c>
       <c r="AF15" s="0">
-        <v>5.3996948121422579e-06</v>
+        <v>0.003984097541109414</v>
       </c>
       <c r="AG15" s="0">
-        <v>197345.75187396427</v>
+        <v>1681.2643510739131</v>
       </c>
       <c r="AH15" s="0">
-        <v>5.3516620495919844e-06</v>
+        <v>0.0039193499523277669</v>
       </c>
       <c r="AI15" s="0">
-        <v>195566.64924077151</v>
+        <v>1628.6340945801167</v>
       </c>
       <c r="AJ15" s="0">
-        <v>5.5918258623433588e-06</v>
+        <v>0.0042852267703884731</v>
       </c>
       <c r="AK15" s="0">
-        <v>204462.16240673524</v>
+        <v>1905.1880643143372</v>
       </c>
       <c r="AL15" s="0">
-        <v>0.45917540152281322</v>
+        <v>0.021874243367708227</v>
       </c>
       <c r="AM15" s="0">
-        <v>2.4011795052087742e-06</v>
+        <v>1.5628588806554312e-05</v>
       </c>
       <c r="AN15" s="0">
-        <v>0.96313411378106417</v>
+        <v>0.88905179398148138</v>
       </c>
       <c r="AO15" s="0">
-        <v>1.1515711645101665</v>
+        <v>1.6604166666666664</v>
       </c>
       <c r="AP15" s="0">
-        <v>0.0068863370017185942</v>
+        <v>0.018207465277777772</v>
       </c>
       <c r="AQ15" s="0">
-        <v>0.90674317772592061</v>
+        <v>0.74965060763888858</v>
       </c>
       <c r="AR15" s="0">
-        <v>0.9524647887323946</v>
+        <v>0.84507042253521125</v>
       </c>
       <c r="AS15" s="0">
-        <v>5.4028828027064031e-06</v>
+        <v>0.0042139647849028907</v>
       </c>
       <c r="AT15" s="0">
-        <v>197417.41682070238</v>
+        <v>1680.0458333333336</v>
       </c>
       <c r="AU15" s="0">
-        <v>5.2082637063055375e-06</v>
+        <v>0.003948101609052122</v>
       </c>
       <c r="AV15" s="0">
-        <v>190175.41497227355</v>
+        <v>1501.3686501736113</v>
       </c>
       <c r="AW15" s="0">
-        <v>6.2110419524619405e-06</v>
+        <v>0.0056472868424927653</v>
       </c>
       <c r="AX15" s="0">
-        <v>226953.8530499076</v>
+        <v>2835.9333333333329</v>
       </c>
       <c r="AY15" s="0">
-        <v>0.29012362497668759</v>
+        <v>0.01432423116509768</v>
       </c>
       <c r="AZ15" s="0">
-        <v>1.5536556003873475e-06</v>
+        <v>1.112800098252834e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H16" s="0">
         <v>15</v>
       </c>
       <c r="I16" s="0">
-        <v>198.69560813533349</v>
+        <v>198.69560813533357</v>
       </c>
       <c r="J16" s="0">
-        <v>0.74592726610348459</v>
+        <v>0.7459272661034807</v>
       </c>
       <c r="K16" s="0">
-        <v>1.5084820226882787</v>
+        <v>1.5084820226882725</v>
       </c>
       <c r="L16" s="0">
         <v>1163</v>
       </c>
       <c r="M16" s="0">
-        <v>0.00020219113412644693</v>
+        <v>0.00068446221913454476</v>
       </c>
       <c r="N16" s="0">
-        <v>1278.6887114774286</v>
+        <v>147.76544177916892</v>
       </c>
       <c r="O16" s="0">
-        <v>12.48093295093798</v>
+        <v>10.887181230794504</v>
       </c>
       <c r="P16" s="0">
-        <v>0.092208518296733502</v>
+        <v>0.19236036884842539</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.72863757432866416</v>
+        <v>0.72444737720964625</v>
       </c>
       <c r="R16" s="0">
-        <v>0.00025296003344263965</v>
+        <v>0.00059184385549865531</v>
       </c>
       <c r="S16" s="0">
-        <v>0.0012968655734147383</v>
+        <v>0.0039569762623378728</v>
       </c>
       <c r="T16" s="0">
-        <v>26.995123073654941</v>
+        <v>9.2185624173929064</v>
       </c>
       <c r="U16" s="0">
-        <v>199464.41916185323</v>
+        <v>1664.4876924852342</v>
       </c>
       <c r="V16" s="0">
-        <v>0.0076090887905979499</v>
+        <v>0.0081126417007757277</v>
       </c>
       <c r="W16" s="0">
-        <v>1.7420783462292142</v>
+        <v>0.49721570908910534</v>
       </c>
       <c r="X16" s="0">
-        <v>0.001653837364846018</v>
+        <v>0.047208116550495421</v>
       </c>
       <c r="Y16" s="0">
-        <v>363889.99808625272</v>
+        <v>15761.804273927737</v>
       </c>
       <c r="Z16" s="0">
-        <v>170.10605768146908</v>
+        <v>19.475437504169665</v>
       </c>
       <c r="AA16" s="0">
-        <v>0.98885700729388093</v>
+        <v>0.97124547172721898</v>
       </c>
       <c r="AB16" s="0">
-        <v>1.045375312130236</v>
+        <v>1.1221413499474304</v>
       </c>
       <c r="AC16" s="0">
-        <v>0.0071134416915670344</v>
+        <v>0.018935060809739904</v>
       </c>
       <c r="AD16" s="0">
-        <v>0.97078649747970802</v>
+        <v>0.92669252886917752</v>
       </c>
       <c r="AE16" s="0">
-        <v>0.98521720708905824</v>
+        <v>0.9618665155589704</v>
       </c>
       <c r="AF16" s="0">
-        <v>5.2205406288339969e-06</v>
+        <v>0.0015788775306938788</v>
       </c>
       <c r="AG16" s="0">
-        <v>200351.94402914582</v>
+        <v>1749.5720292245446</v>
       </c>
       <c r="AH16" s="0">
-        <v>5.1635975920527428e-06</v>
+        <v>0.0015329522755551412</v>
       </c>
       <c r="AI16" s="0">
-        <v>198102.94252309232</v>
+        <v>1698.2162658908283</v>
       </c>
       <c r="AJ16" s="0">
-        <v>5.4519034651667694e-06</v>
+        <v>0.0017732301911517162</v>
       </c>
       <c r="AK16" s="0">
-        <v>209527.68080035647</v>
+        <v>1968.2775087750422</v>
       </c>
       <c r="AL16" s="0">
-        <v>0.32461365437387429</v>
+        <v>0.031760913981011218</v>
       </c>
       <c r="AM16" s="0">
-        <v>1.6687296870808908e-06</v>
+        <v>2.1234777023138988e-05</v>
       </c>
       <c r="AN16" s="0">
-        <v>0.95660674385537292</v>
+        <v>0.88992600067272121</v>
       </c>
       <c r="AO16" s="0">
-        <v>1.2020109689213896</v>
+        <v>1.5933400605449042</v>
       </c>
       <c r="AP16" s="0">
-        <v>0.0070469136957778695</v>
+        <v>0.018950575359873573</v>
       </c>
       <c r="AQ16" s="0">
-        <v>0.89243471954386433</v>
+        <v>0.75079041341803798</v>
       </c>
       <c r="AR16" s="0">
-        <v>0.94067067927773018</v>
+        <v>0.85210662080825461</v>
       </c>
       <c r="AS16" s="0">
-        <v>5.2251929754321291e-06</v>
+        <v>0.0015798579914773484</v>
       </c>
       <c r="AT16" s="0">
-        <v>200289.20932358317</v>
+        <v>1745.4258324924317</v>
       </c>
       <c r="AU16" s="0">
-        <v>5.0028962510137652e-06</v>
+        <v>0.0014035614534713135</v>
       </c>
       <c r="AV16" s="0">
-        <v>191540.42814340844</v>
+        <v>1550.9557545688979</v>
       </c>
       <c r="AW16" s="0">
-        <v>6.2583015140710331e-06</v>
+        <v>0.0025072512581763864</v>
       </c>
       <c r="AX16" s="0">
-        <v>241070.36288848257</v>
+        <v>2811.9021190716448</v>
       </c>
       <c r="AY16" s="0">
-        <v>0.29884899979567692</v>
+        <v>0.019848886792008049</v>
       </c>
       <c r="AZ16" s="0">
-        <v>1.5990266588318018e-06</v>
+        <v>1.4050747861502875e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H17" s="0">
         <v>16</v>
@@ -3207,156 +3386,156 @@
         <v>204.86206597222224</v>
       </c>
       <c r="J17" s="0">
-        <v>1.0130494926124072</v>
+        <v>1.0130494926124058</v>
       </c>
       <c r="K17" s="0">
-        <v>2.2637873239022097</v>
+        <v>2.263787323902207</v>
       </c>
       <c r="L17" s="0">
         <v>1200</v>
       </c>
       <c r="M17" s="0">
-        <v>0.00018943434779965972</v>
+        <v>0.00066869112134292866</v>
       </c>
       <c r="N17" s="0">
-        <v>1355.5795565109818</v>
+        <v>154.43754416714054</v>
       </c>
       <c r="O17" s="0">
-        <v>12.561287212296111</v>
+        <v>10.939266956114125</v>
       </c>
       <c r="P17" s="0">
-        <v>0.090544625409358342</v>
+        <v>0.19493322805051133</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.74523543682030202</v>
+        <v>0.72942972518368088</v>
       </c>
       <c r="R17" s="0">
-        <v>0.00025473819038276621</v>
+        <v>0.00060524676377498449</v>
       </c>
       <c r="S17" s="0">
-        <v>0.0014740495627691118</v>
+        <v>0.0042253933896561572</v>
       </c>
       <c r="T17" s="0">
-        <v>27.328337166490559</v>
+        <v>9.2875881437706216</v>
       </c>
       <c r="U17" s="0">
-        <v>202528.44778585693</v>
+        <v>1746.4456142564241</v>
       </c>
       <c r="V17" s="0">
-        <v>0.0075246985475799213</v>
+        <v>0.0081050905512165886</v>
       </c>
       <c r="W17" s="0">
-        <v>1.860516103073222</v>
+        <v>0.52460492451902252</v>
       </c>
       <c r="X17" s="0">
-        <v>0.0016414806339070981</v>
+        <v>0.047603478447980255</v>
       </c>
       <c r="Y17" s="0">
-        <v>406777.10025020078</v>
+        <v>16120.653032997463</v>
       </c>
       <c r="Z17" s="0">
-        <v>195.82058259128056</v>
+        <v>19.136025250618882</v>
       </c>
       <c r="AA17" s="0">
-        <v>0.99246567161795229</v>
+        <v>0.97437154585398145</v>
       </c>
       <c r="AB17" s="0">
-        <v>1.0301373135281908</v>
+        <v>1.1066757336813842</v>
       </c>
       <c r="AC17" s="0">
-        <v>0.0069178080203011472</v>
+        <v>0.018378652078985754</v>
       </c>
       <c r="AD17" s="0">
-        <v>0.98011029268491634</v>
+        <v>0.93425407135173311</v>
       </c>
       <c r="AE17" s="0">
-        <v>0.99005414263121283</v>
+        <v>0.96624491945465862</v>
       </c>
       <c r="AF17" s="0">
-        <v>5.1530819606951096e-06</v>
+        <v>0.0014310360192590077</v>
       </c>
       <c r="AG17" s="0">
-        <v>203733.10468117433</v>
+        <v>1830.6813769010168</v>
       </c>
       <c r="AH17" s="0">
-        <v>5.1124733656620312e-06</v>
+        <v>0.0013979205346929752</v>
       </c>
       <c r="AI17" s="0">
-        <v>202289.15658994761</v>
+        <v>1777.4228718667657</v>
       </c>
       <c r="AJ17" s="0">
-        <v>5.3155163408274307e-06</v>
+        <v>0.0015692206111136951</v>
       </c>
       <c r="AK17" s="0">
-        <v>209508.89704608143</v>
+        <v>2062.0426187165281</v>
       </c>
       <c r="AL17" s="0">
-        <v>0.4710135852948521</v>
+        <v>0.031847671139655351</v>
       </c>
       <c r="AM17" s="0">
-        <v>2.4074073167035327e-06</v>
+        <v>2.0718688135500429e-05</v>
       </c>
       <c r="AN17" s="0">
-        <v>0.96671018276762388</v>
+        <v>0.90691095397890698</v>
       </c>
       <c r="AO17" s="0">
-        <v>1.1331592689295038</v>
+        <v>1.5551294343240651</v>
       </c>
       <c r="AP17" s="0">
-        <v>0.0068512294718758747</v>
+        <v>0.018281029812041927</v>
       </c>
       <c r="AQ17" s="0">
-        <v>0.91516746313629493</v>
+        <v>0.78472563747358326</v>
       </c>
       <c r="AR17" s="0">
-        <v>0.95750000000000035</v>
+        <v>0.86916666666666675</v>
       </c>
       <c r="AS17" s="0">
-        <v>5.1447008706877654e-06</v>
+        <v>0.0014411828519011183</v>
       </c>
       <c r="AT17" s="0">
-        <v>204162.51000870322</v>
+        <v>1812.8859060402683</v>
       </c>
       <c r="AU17" s="0">
-        <v>4.9650256729284318e-06</v>
+        <v>0.0013130897326845679</v>
       </c>
       <c r="AV17" s="0">
-        <v>197796.46562228029</v>
+        <v>1648.2635232236071</v>
       </c>
       <c r="AW17" s="0">
-        <v>5.8634016617250929e-06</v>
+        <v>0.0021205933615302702</v>
       </c>
       <c r="AX17" s="0">
-        <v>229626.68755439518</v>
+        <v>3187.0882070949187</v>
       </c>
       <c r="AY17" s="0">
-        <v>0.43702048541423355</v>
+        <v>0.01055657753818625</v>
       </c>
       <c r="AZ17" s="0">
-        <v>2.277811880822524e-06</v>
+        <v>7.326978197728195e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H18" s="0">
         <v>17</v>
@@ -3374,147 +3553,147 @@
         <v>1236</v>
       </c>
       <c r="M18" s="0">
-        <v>0.00018292323801177244</v>
+        <v>0.00063229094826908097</v>
       </c>
       <c r="N18" s="0">
-        <v>1506.7270753643777</v>
+        <v>174.01038636918278</v>
       </c>
       <c r="O18" s="0">
-        <v>12.621788568413105</v>
+        <v>11.031886542222463</v>
       </c>
       <c r="P18" s="0">
-        <v>0.087623667801925542</v>
+        <v>0.18777666474478286</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.70264430775771436</v>
+        <v>0.69150990570232684</v>
       </c>
       <c r="R18" s="0">
-        <v>0.00025428676820019779</v>
+        <v>0.00060268127144588214</v>
       </c>
       <c r="S18" s="0">
-        <v>0.0013995175181904602</v>
+        <v>0.0041499675481102821</v>
       </c>
       <c r="T18" s="0">
-        <v>29.038334248335673</v>
+        <v>9.9265912182081113</v>
       </c>
       <c r="U18" s="0">
-        <v>201611.43738013363</v>
+        <v>1718.651574640925</v>
       </c>
       <c r="V18" s="0">
-        <v>0.0066831248691044953</v>
+        <v>0.0072113545123023252</v>
       </c>
       <c r="W18" s="0">
-        <v>1.8000818394607214</v>
+        <v>0.55705855345830046</v>
       </c>
       <c r="X18" s="0">
-        <v>0.0017483379993753056</v>
+        <v>0.055129951158716613</v>
       </c>
       <c r="Y18" s="0">
-        <v>441173.85861096717</v>
+        <v>16782.822641467399</v>
       </c>
       <c r="Z18" s="0">
-        <v>176.64463367455386</v>
+        <v>17.159737790709254</v>
       </c>
       <c r="AA18" s="0">
-        <v>0.99187452117731811</v>
+        <v>0.97254723860298475</v>
       </c>
       <c r="AB18" s="0">
-        <v>1.0332548069023098</v>
+        <v>1.1168224124926771</v>
       </c>
       <c r="AC18" s="0">
-        <v>0.007046398061166307</v>
+        <v>0.0186727098207644</v>
       </c>
       <c r="AD18" s="0">
-        <v>0.97862458728788571</v>
+        <v>0.9299043832354007</v>
       </c>
       <c r="AE18" s="0">
-        <v>0.98914707640584709</v>
+        <v>0.96349407739194215</v>
       </c>
       <c r="AF18" s="0">
-        <v>5.167241923504353e-06</v>
+        <v>0.0014388317465306403</v>
       </c>
       <c r="AG18" s="0">
-        <v>202802.36255340173</v>
+        <v>1815.2165948938782</v>
       </c>
       <c r="AH18" s="0">
-        <v>5.1230550564396615e-06</v>
+        <v>0.0014036320836664866</v>
       </c>
       <c r="AI18" s="0">
-        <v>201273.75981160332</v>
+        <v>1763.3709934520634</v>
       </c>
       <c r="AJ18" s="0">
-        <v>5.3476582932810047e-06</v>
+        <v>0.0015847638081208015</v>
       </c>
       <c r="AK18" s="0">
-        <v>209071.27365531679</v>
+        <v>2033.7511770218612</v>
       </c>
       <c r="AL18" s="0">
-        <v>0.3252855134691679</v>
+        <v>0.031862533416056119</v>
       </c>
       <c r="AM18" s="0">
-        <v>1.6678224437996784e-06</v>
+        <v>2.0960862497270015e-05</v>
       </c>
       <c r="AN18" s="0">
-        <v>0.96846529538837178</v>
+        <v>0.90899558670820346</v>
       </c>
       <c r="AO18" s="0">
-        <v>1.1411665257819099</v>
+        <v>1.5794392523364487</v>
       </c>
       <c r="AP18" s="0">
-        <v>0.0070147032238195538</v>
+        <v>0.018574547995458119</v>
       </c>
       <c r="AQ18" s="0">
-        <v>0.92033377897218105</v>
+        <v>0.79015285177744776</v>
       </c>
       <c r="AR18" s="0">
-        <v>0.95711974110032361</v>
+        <v>0.86569579288025889</v>
       </c>
       <c r="AS18" s="0">
-        <v>5.1595916965986262e-06</v>
+        <v>0.001447664080575121</v>
       </c>
       <c r="AT18" s="0">
-        <v>203238.29078613693</v>
+        <v>1811.4261682242991</v>
       </c>
       <c r="AU18" s="0">
-        <v>4.9886090035300365e-06</v>
+        <v>0.0013151495997118063</v>
       </c>
       <c r="AV18" s="0">
-        <v>197278.71205503895</v>
+        <v>1648.9749135514019</v>
       </c>
       <c r="AW18" s="0">
-        <v>5.9207752940512562e-06</v>
+        <v>0.002166475745888467</v>
       </c>
       <c r="AX18" s="0">
-        <v>230020.92054099744</v>
+        <v>2915.9644859813084</v>
       </c>
       <c r="AY18" s="0">
-        <v>0.3082442538279746</v>
+        <v>0.017347730744597615</v>
       </c>
       <c r="AZ18" s="0">
-        <v>1.6022446269641268e-06</v>
+        <v>1.1588173337391759e-05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H19" s="0">
         <v>18</v>
@@ -3532,621 +3711,621 @@
         <v>1259</v>
       </c>
       <c r="M19" s="0">
-        <v>0.00018913120576492763</v>
+        <v>0.00067912878835965943</v>
       </c>
       <c r="N19" s="0">
-        <v>1496.5095151797118</v>
+        <v>172.74157426028248</v>
       </c>
       <c r="O19" s="0">
-        <v>12.590088589349882</v>
+        <v>10.939219952624601</v>
       </c>
       <c r="P19" s="0">
-        <v>0.093445639522971011</v>
+        <v>0.19361862531121671</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.68233949906954394</v>
+        <v>0.67516444290305544</v>
       </c>
       <c r="R19" s="0">
-        <v>0.00025477367525839496</v>
+        <v>0.0006083894164855305</v>
       </c>
       <c r="S19" s="0">
-        <v>0.0012977374640666724</v>
+        <v>0.0039049083973509394</v>
       </c>
       <c r="T19" s="0">
-        <v>28.452447368557124</v>
+        <v>9.7478280541360149</v>
       </c>
       <c r="U19" s="0">
-        <v>202203.87231084716</v>
+        <v>1732.5807670474671</v>
       </c>
       <c r="V19" s="0">
-        <v>0.0068540324257514587</v>
+        <v>0.0072616420371609128</v>
       </c>
       <c r="W19" s="0">
-        <v>1.6811132179554944</v>
+        <v>0.46830362342069898</v>
       </c>
       <c r="X19" s="0">
-        <v>0.0016621218802186036</v>
+        <v>0.046133613909603806</v>
       </c>
       <c r="Y19" s="0">
-        <v>414175.29370401212</v>
+        <v>17998.815634891071</v>
       </c>
       <c r="Z19" s="0">
-        <v>164.93859216006794</v>
+        <v>18.52688691965562</v>
       </c>
       <c r="AA19" s="0">
-        <v>0.98898688366209386</v>
+        <v>0.97120648284948996</v>
       </c>
       <c r="AB19" s="0">
-        <v>1.0458440329258387</v>
+        <v>1.123906956186395</v>
       </c>
       <c r="AC19" s="0">
-        <v>0.0071935776948365074</v>
+        <v>0.019253512409318753</v>
       </c>
       <c r="AD19" s="0">
-        <v>0.97119640914238048</v>
+        <v>0.92669548886609376</v>
       </c>
       <c r="AE19" s="0">
-        <v>0.98520943578748255</v>
+        <v>0.9615455015390203</v>
       </c>
       <c r="AF19" s="0">
-        <v>5.1410015835484698e-06</v>
+        <v>0.0015884502789908796</v>
       </c>
       <c r="AG19" s="0">
-        <v>203436.44373310433</v>
+        <v>1835.203326879355</v>
       </c>
       <c r="AH19" s="0">
-        <v>5.0838150519875608e-06</v>
+        <v>0.0015534408848064344</v>
       </c>
       <c r="AI19" s="0">
-        <v>201217.66403170142</v>
+        <v>1780.9071063851875</v>
       </c>
       <c r="AJ19" s="0">
-        <v>5.3785670229528965e-06</v>
+        <v>0.0017388944079713303</v>
       </c>
       <c r="AK19" s="0">
-        <v>212677.04980802027</v>
+        <v>2070.4138633551438</v>
       </c>
       <c r="AL19" s="0">
-        <v>0.33379743338260603</v>
+        <v>0.033699729686387236</v>
       </c>
       <c r="AM19" s="0">
-        <v>1.6923176191906313e-06</v>
+        <v>2.1572876622121338e-05</v>
       </c>
       <c r="AN19" s="0">
-        <v>0.95558840090090091</v>
+        <v>0.89335254413291798</v>
       </c>
       <c r="AO19" s="0">
-        <v>1.2001689189189189</v>
+        <v>1.6289719626168224</v>
       </c>
       <c r="AP19" s="0">
-        <v>0.0071690672936449967</v>
+        <v>0.01914053629137916</v>
       </c>
       <c r="AQ19" s="0">
-        <v>0.8896990846420747</v>
+        <v>0.75848021661280451</v>
       </c>
       <c r="AR19" s="0">
-        <v>0.94042891183478938</v>
+        <v>0.84988085782366951</v>
       </c>
       <c r="AS19" s="0">
-        <v>5.138488865370054e-06</v>
+        <v>0.001636777966633687</v>
       </c>
       <c r="AT19" s="0">
-        <v>203520.38935810811</v>
+        <v>1833.3242990654207</v>
       </c>
       <c r="AU19" s="0">
-        <v>4.906889118930708e-06</v>
+        <v>0.0015020178587158422</v>
       </c>
       <c r="AV19" s="0">
-        <v>194584.26088588589</v>
+        <v>1641.6016118899274</v>
       </c>
       <c r="AW19" s="0">
-        <v>6.1744484261637127e-06</v>
+        <v>0.0023957640945635973</v>
       </c>
       <c r="AX19" s="0">
-        <v>243943.34543918923</v>
+        <v>3019.5308411214955</v>
       </c>
       <c r="AY19" s="0">
-        <v>0.3100324374859646</v>
+        <v>0.017316507162515392</v>
       </c>
       <c r="AZ19" s="0">
-        <v>1.6089669856702057e-06</v>
+        <v>1.1747099560497263e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H20" s="0">
         <v>19</v>
       </c>
       <c r="I20" s="0">
-        <v>91.643700888734116</v>
+        <v>91.643700888734145</v>
       </c>
       <c r="J20" s="0">
-        <v>0.44731943233144861</v>
+        <v>0.44731943233145077</v>
       </c>
       <c r="K20" s="0">
-        <v>2.2186674923921421</v>
+        <v>2.218667492392143</v>
       </c>
       <c r="L20" s="0">
         <v>1285</v>
       </c>
       <c r="M20" s="0">
-        <v>0.00017271317785004113</v>
+        <v>0.00060916126082464063</v>
       </c>
       <c r="N20" s="0">
-        <v>1649.940084134136</v>
+        <v>184.53850719636009</v>
       </c>
       <c r="O20" s="0">
-        <v>12.68565561185164</v>
+        <v>11.060049332621379</v>
       </c>
       <c r="P20" s="0">
-        <v>0.085708101199159226</v>
+        <v>0.18085098071381772</v>
       </c>
       <c r="Q20" s="0">
-        <v>0.65831348039528848</v>
+        <v>0.65764303388644507</v>
       </c>
       <c r="R20" s="0">
-        <v>0.00025650155079559443</v>
+        <v>0.00062550332759631424</v>
       </c>
       <c r="S20" s="0">
-        <v>0.0013244495858890709</v>
+        <v>0.0040185442260650874</v>
       </c>
       <c r="T20" s="0">
-        <v>30.172353306119192</v>
+        <v>10.331463056720349</v>
       </c>
       <c r="U20" s="0">
-        <v>204905.24757374305</v>
+        <v>1823.3583003013171</v>
       </c>
       <c r="V20" s="0">
-        <v>0.0066841658409218735</v>
+        <v>0.0069968264656589656</v>
       </c>
       <c r="W20" s="0">
-        <v>1.8308686095287794</v>
+        <v>0.53036439421545822</v>
       </c>
       <c r="X20" s="0">
-        <v>0.0018536233851048534</v>
+        <v>0.051225786745016572</v>
       </c>
       <c r="Y20" s="0">
-        <v>414747.61471147923</v>
+        <v>17049.02110042869</v>
       </c>
       <c r="Z20" s="0">
-        <v>151.78417193637756</v>
+        <v>16.111845131116521</v>
       </c>
       <c r="AA20" s="0">
-        <v>0.99104799618349637</v>
+        <v>0.97413151449942625</v>
       </c>
       <c r="AB20" s="0">
-        <v>1.0358080152660136</v>
+        <v>1.1093676181039027</v>
       </c>
       <c r="AC20" s="0">
-        <v>0.006784775290092802</v>
+        <v>0.018530706721156236</v>
       </c>
       <c r="AD20" s="0">
-        <v>0.97641292625761067</v>
+        <v>0.93371463082068651</v>
       </c>
       <c r="AE20" s="0">
-        <v>0.98820478268521994</v>
+        <v>0.96569870469550567</v>
       </c>
       <c r="AF20" s="0">
-        <v>5.1062347599893818e-06</v>
+        <v>0.0020678076882585236</v>
       </c>
       <c r="AG20" s="0">
-        <v>206004.23821455953</v>
+        <v>1923.3942289605097</v>
       </c>
       <c r="AH20" s="0">
-        <v>5.0602679498182713e-06</v>
+        <v>0.0020396940558320307</v>
       </c>
       <c r="AI20" s="0">
-        <v>204197.22894853808</v>
+        <v>1872.847423418682</v>
       </c>
       <c r="AJ20" s="0">
-        <v>5.2901020006738139e-06</v>
+        <v>0.0021861005346649844</v>
       </c>
       <c r="AK20" s="0">
-        <v>213232.27527864542</v>
+        <v>2144.5612031755986</v>
       </c>
       <c r="AL20" s="0">
-        <v>0.47009633761819997</v>
+        <v>0.02703956917131262</v>
       </c>
       <c r="AM20" s="0">
-        <v>2.3502139919787296e-06</v>
+        <v>1.5981199510066398e-05</v>
       </c>
       <c r="AN20" s="0">
-        <v>0.96347778686290575</v>
+        <v>0.91070571910000997</v>
       </c>
       <c r="AO20" s="0">
-        <v>1.1569910057236308</v>
+        <v>1.5263157894736843</v>
       </c>
       <c r="AP20" s="0">
-        <v>0.0067318344432714707</v>
+        <v>0.018230345818734228</v>
       </c>
       <c r="AQ20" s="0">
-        <v>0.90794589126773695</v>
+        <v>0.79315333496201379</v>
       </c>
       <c r="AR20" s="0">
-        <v>0.95175097276264553</v>
+        <v>0.87237354085603103</v>
       </c>
       <c r="AS20" s="0">
-        <v>5.105856003997324e-06</v>
+        <v>0.0021668494018560829</v>
       </c>
       <c r="AT20" s="0">
-        <v>206142.62551103844</v>
+        <v>1938.1061552185547</v>
       </c>
       <c r="AU20" s="0">
-        <v>4.9198653170286674e-06</v>
+        <v>0.0020646827817521907</v>
       </c>
       <c r="AV20" s="0">
-        <v>198716.65935313891</v>
+        <v>1781.3085392506687</v>
       </c>
       <c r="AW20" s="0">
-        <v>5.9131236915744042e-06</v>
+        <v>0.0027468323872641559</v>
       </c>
       <c r="AX20" s="0">
-        <v>237768.08912510224</v>
+        <v>2975.252453166815</v>
       </c>
       <c r="AY20" s="0">
-        <v>0.29669282816232656</v>
+        <v>0.015638724217826163</v>
       </c>
       <c r="AZ20" s="0">
-        <v>1.5169572516379474e-06</v>
+        <v>9.4524050396842371e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H21" s="0">
         <v>20</v>
       </c>
       <c r="I21" s="0">
-        <v>144.98157392073469</v>
+        <v>144.98157392073472</v>
       </c>
       <c r="J21" s="0">
-        <v>0.32086597652367449</v>
+        <v>0.32086597652367199</v>
       </c>
       <c r="K21" s="0">
-        <v>0.8575287349748173</v>
+        <v>0.8575287349748133</v>
       </c>
       <c r="L21" s="0">
         <v>1304</v>
       </c>
       <c r="M21" s="0">
-        <v>0.00016850821205065822</v>
+        <v>0.00057308698502299047</v>
       </c>
       <c r="N21" s="0">
-        <v>1614.6941914027416</v>
+        <v>184.10569224437651</v>
       </c>
       <c r="O21" s="0">
-        <v>12.73234333823849</v>
+        <v>11.159205490716335</v>
       </c>
       <c r="P21" s="0">
-        <v>0.089009935589419747</v>
+        <v>0.18319123680936267</v>
       </c>
       <c r="Q21" s="0">
-        <v>0.67821584976776894</v>
+        <v>0.68267278115583419</v>
       </c>
       <c r="R21" s="0">
-        <v>0.00025730337812645112</v>
+        <v>0.0006339551262581546</v>
       </c>
       <c r="S21" s="0">
-        <v>0.0013791002809746117</v>
+        <v>0.0042743841219577408</v>
       </c>
       <c r="T21" s="0">
-        <v>30.174328882202509</v>
+        <v>10.302053313025365</v>
       </c>
       <c r="U21" s="0">
-        <v>206292.62066943993</v>
+        <v>1885.2191110873905</v>
       </c>
       <c r="V21" s="0">
-        <v>0.0068620176259998255</v>
+        <v>0.007215950836224617</v>
       </c>
       <c r="W21" s="0">
-        <v>1.8325697528359632</v>
+        <v>0.53042437820537858</v>
       </c>
       <c r="X21" s="0">
-        <v>0.0018274713289618105</v>
+        <v>0.047133717087198143</v>
       </c>
       <c r="Y21" s="0">
-        <v>402678.00388057536</v>
+        <v>17713.208278726819</v>
       </c>
       <c r="Z21" s="0">
-        <v>146.77493740750421</v>
+        <v>17.158670521594146</v>
       </c>
       <c r="AA21" s="0">
-        <v>0.98956176352500735</v>
+        <v>0.97528158032592127</v>
       </c>
       <c r="AB21" s="0">
-        <v>1.041752945899969</v>
+        <v>1.1045875643573873</v>
       </c>
       <c r="AC21" s="0">
-        <v>0.0065979457199191252</v>
+        <v>0.017850675695663204</v>
       </c>
       <c r="AD21" s="0">
-        <v>0.97255210462031438</v>
+        <v>0.93662071872487906</v>
       </c>
       <c r="AE21" s="0">
-        <v>0.98627339345351861</v>
+        <v>0.96711290160210883</v>
       </c>
       <c r="AF21" s="0">
-        <v>5.060970941735936e-06</v>
+        <v>0.002332073628600286</v>
       </c>
       <c r="AG21" s="0">
-        <v>207509.87469495062</v>
+        <v>1989.2163528525543</v>
       </c>
       <c r="AH21" s="0">
-        <v>5.0083295112297856e-06</v>
+        <v>0.0023094471223702477</v>
       </c>
       <c r="AI21" s="0">
-        <v>205376.87906118218</v>
+        <v>1938.4113662917989</v>
       </c>
       <c r="AJ21" s="0">
-        <v>5.2715366637605373e-06</v>
+        <v>0.0024264466304656737</v>
       </c>
       <c r="AK21" s="0">
-        <v>216041.85723002444</v>
+        <v>2206.9085613740644</v>
       </c>
       <c r="AL21" s="0">
-        <v>0.46051302767073704</v>
+        <v>0.035784523531320264</v>
       </c>
       <c r="AM21" s="0">
-        <v>2.2700807369650209e-06</v>
+        <v>2.0025917754770186e-05</v>
       </c>
       <c r="AN21" s="0">
-        <v>0.95914502164502136</v>
+        <v>0.90814310798946463</v>
       </c>
       <c r="AO21" s="0">
-        <v>1.1850649350649349</v>
+        <v>1.4925373134328361</v>
       </c>
       <c r="AP21" s="0">
-        <v>0.0065343544442570418</v>
+        <v>0.017597032654215881</v>
       </c>
       <c r="AQ21" s="0">
-        <v>0.89812257547647112</v>
+        <v>0.78761000554219074</v>
       </c>
       <c r="AR21" s="0">
-        <v>0.94478527607361973</v>
+        <v>0.87346625766871155</v>
       </c>
       <c r="AS21" s="0">
-        <v>5.0629324193074732e-06</v>
+        <v>0.0024828992921977966</v>
       </c>
       <c r="AT21" s="0">
-        <v>207587.28652597402</v>
+        <v>1980.7471466198419</v>
       </c>
       <c r="AU21" s="0">
-        <v>4.8584133850056926e-06</v>
+        <v>0.0023939712424512747</v>
       </c>
       <c r="AV21" s="0">
-        <v>199162.32490079364</v>
+        <v>1794.6850612135404</v>
       </c>
       <c r="AW21" s="0">
-        <v>5.9947814483068709e-06</v>
+        <v>0.002920186550544135</v>
       </c>
       <c r="AX21" s="0">
-        <v>245489.950487013</v>
+        <v>3020.6101843722563</v>
       </c>
       <c r="AY21" s="0">
-        <v>0.28905538214852938</v>
+        <v>0.022371119058472732</v>
       </c>
       <c r="AZ21" s="0">
-        <v>1.4691431307185514e-06</v>
+        <v>1.3340406650529076e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H22" s="0">
         <v>21</v>
       </c>
       <c r="I22" s="0">
-        <v>217.90105192609792</v>
+        <v>217.90105192609789</v>
       </c>
       <c r="J22" s="0">
-        <v>0.40777611444689588</v>
+        <v>0.40777611444689726</v>
       </c>
       <c r="K22" s="0">
-        <v>0.40292508439057428</v>
+        <v>0.40292508439057562</v>
       </c>
       <c r="L22" s="0">
         <v>1319</v>
       </c>
       <c r="M22" s="0">
-        <v>0.00015924246167933726</v>
+        <v>0.00054084023912333236</v>
       </c>
       <c r="N22" s="0">
-        <v>1726.8764141495487</v>
+        <v>199.89534783170669</v>
       </c>
       <c r="O22" s="0">
-        <v>12.787776504792912</v>
+        <v>11.198539821692057</v>
       </c>
       <c r="P22" s="0">
-        <v>0.080849436757983922</v>
+        <v>0.17592799524953323</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.66447638281744548</v>
+        <v>0.66421908983607802</v>
       </c>
       <c r="R22" s="0">
-        <v>0.00025981533977036922</v>
+        <v>0.00065705760080318222</v>
       </c>
       <c r="S22" s="0">
-        <v>0.0014173756559955131</v>
+        <v>0.0044006974933831757</v>
       </c>
       <c r="T22" s="0">
-        <v>31.369379196888328</v>
+        <v>10.727691603667209</v>
       </c>
       <c r="U22" s="0">
-        <v>210319.67707841322</v>
+        <v>2011.6478741812266</v>
       </c>
       <c r="V22" s="0">
-        <v>0.0066134682640415577</v>
+        <v>0.0068980022056679005</v>
       </c>
       <c r="W22" s="0">
-        <v>1.7034483306582788</v>
+        <v>0.59398198210439979</v>
       </c>
       <c r="X22" s="0">
-        <v>0.0016182988644001569</v>
+        <v>0.05140657731272711</v>
       </c>
       <c r="Y22" s="0">
-        <v>491222.7766746899</v>
+        <v>17778.357743897548</v>
       </c>
       <c r="Z22" s="0">
-        <v>160.47380294213255</v>
+        <v>15.674075735238601</v>
       </c>
       <c r="AA22" s="0">
-        <v>0.99409891125208338</v>
+        <v>0.97783361031948135</v>
       </c>
       <c r="AB22" s="0">
-        <v>1.0243077937284819</v>
+        <v>1.0946779820694224</v>
       </c>
       <c r="AC22" s="0">
-        <v>0.0064350928270612345</v>
+        <v>0.017351195560097839</v>
       </c>
       <c r="AD22" s="0">
-        <v>0.98444284581383867</v>
+        <v>0.94297883909679825</v>
       </c>
       <c r="AE22" s="0">
-        <v>0.99206636384073754</v>
+        <v>0.97030206756993642</v>
       </c>
       <c r="AF22" s="0">
-        <v>4.9672264312878043e-06</v>
+        <v>0.0013270658822657369</v>
       </c>
       <c r="AG22" s="0">
-        <v>211275.94895198982</v>
+        <v>2119.3756044180518</v>
       </c>
       <c r="AH22" s="0">
-        <v>4.9382170457942699e-06</v>
+        <v>0.0013060342879882478</v>
       </c>
       <c r="AI22" s="0">
-        <v>210036.77989364965</v>
+        <v>2072.6873357304535</v>
       </c>
       <c r="AJ22" s="0">
-        <v>5.0861117996035622e-06</v>
+        <v>0.0014149071620704928</v>
       </c>
       <c r="AK22" s="0">
-        <v>216406.38088429283</v>
+        <v>2320.958775736372</v>
       </c>
       <c r="AL22" s="0">
-        <v>0.31263584509615006</v>
+        <v>0.02831737978813903</v>
       </c>
       <c r="AM22" s="0">
-        <v>1.5264715659347801e-06</v>
+        <v>1.5004965035383868e-05</v>
       </c>
       <c r="AN22" s="0">
-        <v>0.97689532255259992</v>
+        <v>0.91978460954549768</v>
       </c>
       <c r="AO22" s="0">
-        <v>1.0993740219092336</v>
+        <v>1.4372331340734417</v>
       </c>
       <c r="AP22" s="0">
-        <v>0.0063944788536470145</v>
+        <v>0.017075772967698605</v>
       </c>
       <c r="AQ22" s="0">
-        <v>0.94073902640324714</v>
+        <v>0.81150796978795114</v>
       </c>
       <c r="AR22" s="0">
-        <v>0.96891584533737685</v>
+        <v>0.88779378316906743</v>
       </c>
       <c r="AS22" s="0">
-        <v>4.9683032130691281e-06</v>
+        <v>0.0013625523663046977</v>
       </c>
       <c r="AT22" s="0">
-        <v>211320.80516431923</v>
+        <v>2120.7882152006832</v>
       </c>
       <c r="AU22" s="0">
-        <v>4.8541615829969025e-06</v>
+        <v>0.0012834539757776901</v>
       </c>
       <c r="AV22" s="0">
-        <v>206495.78205964179</v>
+        <v>1955.3609554986242</v>
       </c>
       <c r="AW22" s="0">
-        <v>5.4551715559129848e-06</v>
+        <v>0.0017596474348865023</v>
       </c>
       <c r="AX22" s="0">
-        <v>232225.41158059466</v>
+        <v>3060.5627668659267</v>
       </c>
       <c r="AY22" s="0">
-        <v>0.29735642647935051</v>
+        <v>0.019893782445657079</v>
       </c>
       <c r="AZ22" s="0">
-        <v>1.4710411915242641e-06</v>
+        <v>1.0673303831005095e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H23" s="0">
         <v>22</v>
@@ -4164,147 +4343,147 @@
         <v>1358</v>
       </c>
       <c r="M23" s="0">
-        <v>0.00015599838592041687</v>
+        <v>0.00050262970719521297</v>
       </c>
       <c r="N23" s="0">
-        <v>2040.3362971658569</v>
+        <v>219.91860367058391</v>
       </c>
       <c r="O23" s="0">
-        <v>12.835397765046324</v>
+        <v>11.331602631457445</v>
       </c>
       <c r="P23" s="0">
-        <v>0.079850288590520666</v>
+        <v>0.17392010783423895</v>
       </c>
       <c r="Q23" s="0">
-        <v>0.66280062211692303</v>
+        <v>0.67304242076463594</v>
       </c>
       <c r="R23" s="0">
-        <v>0.00026256560103954705</v>
+        <v>0.00068066802351392122</v>
       </c>
       <c r="S23" s="0">
-        <v>0.0016687093980060359</v>
+        <v>0.0049428008536906067</v>
       </c>
       <c r="T23" s="0">
-        <v>33.603546923079762</v>
+        <v>11.218635159358069</v>
       </c>
       <c r="U23" s="0">
-        <v>215046.41957796863</v>
+        <v>2170.4327158984001</v>
       </c>
       <c r="V23" s="0">
-        <v>0.0067126566762657621</v>
+        <v>0.0071391966306337427</v>
       </c>
       <c r="W23" s="0">
-        <v>1.9445297744634924</v>
+        <v>0.67738699879394348</v>
       </c>
       <c r="X23" s="0">
-        <v>0.0015856943383830645</v>
+        <v>0.054665473757823269</v>
       </c>
       <c r="Y23" s="0">
-        <v>545045.06491088262</v>
+        <v>17480.169395036279</v>
       </c>
       <c r="Z23" s="0">
-        <v>175.32037175003759</v>
+        <v>15.562405460717324</v>
       </c>
       <c r="AA23" s="0">
-        <v>0.99256597629844556</v>
+        <v>0.97438862756638178</v>
       </c>
       <c r="AB23" s="0">
-        <v>1.0297360948062122</v>
+        <v>1.1048397420550757</v>
       </c>
       <c r="AC23" s="0">
-        <v>0.0061035388075016128</v>
+        <v>0.016322306714878797</v>
       </c>
       <c r="AD23" s="0">
-        <v>0.98037243353681647</v>
+        <v>0.93418505656619366</v>
       </c>
       <c r="AE23" s="0">
-        <v>0.99018525248545963</v>
+        <v>0.96656885498040368</v>
       </c>
       <c r="AF23" s="0">
-        <v>4.8935405130611445e-06</v>
+        <v>0.0015710862787846232</v>
       </c>
       <c r="AG23" s="0">
-        <v>216076.31111587505</v>
+        <v>2282.431147004927</v>
       </c>
       <c r="AH23" s="0">
-        <v>4.8550125645329823e-06</v>
+        <v>0.0015479548549644851</v>
       </c>
       <c r="AI23" s="0">
-        <v>214606.75866685229</v>
+        <v>2226.4636693269686</v>
       </c>
       <c r="AJ23" s="0">
-        <v>5.0476523071737975e-06</v>
+        <v>0.0016658470687673454</v>
       </c>
       <c r="AK23" s="0">
-        <v>221954.52091196598</v>
+        <v>2509.3143862955235</v>
       </c>
       <c r="AL23" s="0">
-        <v>0.43771883496611252</v>
+        <v>0.03654968732169632</v>
       </c>
       <c r="AM23" s="0">
-        <v>2.1054387523827955e-06</v>
+        <v>1.8174990125066743e-05</v>
       </c>
       <c r="AN23" s="0">
-        <v>0.97000851426138757</v>
+        <v>0.91251356154133934</v>
       </c>
       <c r="AO23" s="0">
-        <v>1.1233716475095783</v>
+        <v>1.5117845117845117</v>
       </c>
       <c r="AP23" s="0">
-        <v>0.0060286842530203602</v>
+        <v>0.016168985024203875</v>
       </c>
       <c r="AQ23" s="0">
-        <v>0.9234221458874643</v>
+        <v>0.79687305150268106</v>
       </c>
       <c r="AR23" s="0">
-        <v>0.9609720176730483</v>
+        <v>0.87481590574374091</v>
       </c>
       <c r="AS23" s="0">
-        <v>4.8859322734654909e-06</v>
+        <v>0.0016408374971224591</v>
       </c>
       <c r="AT23" s="0">
-        <v>216591.03141762453</v>
+        <v>2297.0412457912457</v>
       </c>
       <c r="AU23" s="0">
-        <v>4.7320028423894087e-06</v>
+        <v>0.0015615429365475324</v>
       </c>
       <c r="AV23" s="0">
-        <v>210608.31687952322</v>
+        <v>2102.7926697530861</v>
       </c>
       <c r="AW23" s="0">
-        <v>5.5238133187502067e-06</v>
+        <v>0.0020999306975874078</v>
       </c>
       <c r="AX23" s="0">
-        <v>241045.2237547893</v>
+        <v>3374.3821548821547</v>
       </c>
       <c r="AY23" s="0">
-        <v>0.27920012340129347</v>
+        <v>0.02051306799840405</v>
       </c>
       <c r="AZ23" s="0">
-        <v>1.3577722424053383e-06</v>
+        <v>1.0178364743107779e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H24" s="0">
         <v>23</v>
@@ -4322,305 +4501,305 @@
         <v>1370</v>
       </c>
       <c r="M24" s="0">
-        <v>0.00014760948848805929</v>
+        <v>0.00049788785054623395</v>
       </c>
       <c r="N24" s="0">
-        <v>2264.4997474496604</v>
+        <v>214.41252578285722</v>
       </c>
       <c r="O24" s="0">
-        <v>12.89588760107657</v>
+        <v>11.344390006221326</v>
       </c>
       <c r="P24" s="0">
-        <v>0.077241043120170563</v>
+        <v>0.18259556029105878</v>
       </c>
       <c r="Q24" s="0">
-        <v>0.73235872777838251</v>
+        <v>0.74082478744330538</v>
       </c>
       <c r="R24" s="0">
-        <v>0.00026872901049037625</v>
+        <v>0.00072936572733326452</v>
       </c>
       <c r="S24" s="0">
-        <v>0.0023143336046490951</v>
+        <v>0.0059357943676147506</v>
       </c>
       <c r="T24" s="0">
-        <v>34.228472816111967</v>
+        <v>10.78654240908581</v>
       </c>
       <c r="U24" s="0">
-        <v>226193.01967765903</v>
+        <v>2528.089703810771</v>
       </c>
       <c r="V24" s="0">
-        <v>0.007475032023287133</v>
+        <v>0.0078670439953561801</v>
       </c>
       <c r="W24" s="0">
-        <v>2.0781538524100336</v>
+        <v>0.74099360586243967</v>
       </c>
       <c r="X24" s="0">
-        <v>0.0012155578328819398</v>
+        <v>0.045990758086556907</v>
       </c>
       <c r="Y24" s="0">
-        <v>745482.88020713499</v>
+        <v>17607.136988648206</v>
       </c>
       <c r="Z24" s="0">
-        <v>280.22820556946976</v>
+        <v>18.210182441798409</v>
       </c>
       <c r="AA24" s="0">
-        <v>0.99463417893007211</v>
+        <v>0.97529225841186973</v>
       </c>
       <c r="AB24" s="0">
-        <v>1.0221400538122771</v>
+        <v>1.1084083697495379</v>
       </c>
       <c r="AC24" s="0">
-        <v>0.0054434689655628987</v>
+        <v>0.01493788118780098</v>
       </c>
       <c r="AD24" s="0">
-        <v>0.98584698367194212</v>
+        <v>0.93676549430713474</v>
       </c>
       <c r="AE24" s="0">
-        <v>0.99277409128714478</v>
+        <v>0.96660676106457744</v>
       </c>
       <c r="AF24" s="0">
-        <v>4.7612302955477581e-06</v>
+        <v>0.0027848834868519456</v>
       </c>
       <c r="AG24" s="0">
-        <v>226873.84626434406</v>
+        <v>2590.5596848804962</v>
       </c>
       <c r="AH24" s="0">
-        <v>4.7342642780613632e-06</v>
+        <v>0.0026496789710723279</v>
       </c>
       <c r="AI24" s="0">
-        <v>225773.21335591038</v>
+        <v>2507.1423227037894</v>
       </c>
       <c r="AJ24" s="0">
-        <v>4.8722927092200012e-06</v>
+        <v>0.0033310393861361552</v>
       </c>
       <c r="AK24" s="0">
-        <v>231419.58233116943</v>
+        <v>2974.1577485392977</v>
       </c>
       <c r="AL24" s="0">
-        <v>0.27617945829976365</v>
+        <v>0.024337492257306713</v>
       </c>
       <c r="AM24" s="0">
-        <v>1.2838089988286438e-06</v>
+        <v>1.0418043229071548e-05</v>
       </c>
       <c r="AN24" s="0">
-        <v>0.97720046854083054</v>
+        <v>0.91041310591020952</v>
       </c>
       <c r="AO24" s="0">
-        <v>1.0978915662650608</v>
+        <v>1.5762144053601339</v>
       </c>
       <c r="AP24" s="0">
-        <v>0.0054049027435041355</v>
+        <v>0.015043110583627239</v>
       </c>
       <c r="AQ24" s="0">
-        <v>0.94148733488169645</v>
+        <v>0.7918290503326233</v>
       </c>
       <c r="AR24" s="0">
-        <v>0.96934306569343076</v>
+        <v>0.87153284671532816</v>
       </c>
       <c r="AS24" s="0">
-        <v>4.7554904946942003e-06</v>
+        <v>0.0023422566740068456</v>
       </c>
       <c r="AT24" s="0">
-        <v>227385.95406626505</v>
+        <v>2531.2998324958121</v>
       </c>
       <c r="AU24" s="0">
-        <v>4.6412889605146044e-06</v>
+        <v>0.0016404077559176394</v>
       </c>
       <c r="AV24" s="0">
-        <v>222698.53229585008</v>
+        <v>2276.5799655685837</v>
       </c>
       <c r="AW24" s="0">
-        <v>5.244937680954224e-06</v>
+        <v>0.0052238531509094764</v>
       </c>
       <c r="AX24" s="0">
-        <v>247509.5233433735</v>
+        <v>4735.5904522613064</v>
       </c>
       <c r="AY24" s="0">
-        <v>0.26405791391104505</v>
+        <v>0.011790164413005438</v>
       </c>
       <c r="AZ24" s="0">
-        <v>1.2372794558530417e-06</v>
+        <v>5.5070566645071691e-06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H25" s="0">
         <v>24</v>
       </c>
       <c r="I25" s="0">
-        <v>276.98269009103211</v>
+        <v>276.98269009103205</v>
       </c>
       <c r="J25" s="0">
-        <v>0.83359940928145926</v>
+        <v>0.83359940928145859</v>
       </c>
       <c r="K25" s="0">
-        <v>0.8217083539357275</v>
+        <v>0.82170835393573016</v>
       </c>
       <c r="L25" s="0">
         <v>1343</v>
       </c>
       <c r="M25" s="0">
-        <v>0.00014644281636712363</v>
+        <v>0.00061118066391018953</v>
       </c>
       <c r="N25" s="0">
-        <v>2102.8540577033582</v>
+        <v>207.50040583701502</v>
       </c>
       <c r="O25" s="0">
-        <v>12.897763154225858</v>
+        <v>11.327098733053248</v>
       </c>
       <c r="P25" s="0">
-        <v>0.08090783074249823</v>
+        <v>0.19134524583612503</v>
       </c>
       <c r="Q25" s="0">
-        <v>0.76238503979438543</v>
+        <v>0.74997891493103208</v>
       </c>
       <c r="R25" s="0">
-        <v>0.0002712378385443066</v>
+        <v>0.00074726381373583486</v>
       </c>
       <c r="S25" s="0">
-        <v>0.0024161682307601699</v>
+        <v>0.0060061332808247396</v>
       </c>
       <c r="T25" s="0">
-        <v>34.165669721508998</v>
+        <v>10.774284969949749</v>
       </c>
       <c r="U25" s="0">
-        <v>230640.9481488255</v>
+        <v>2647.8673240157686</v>
       </c>
       <c r="V25" s="0">
-        <v>0.0075259533339688519</v>
+        <v>0.0078840560107862109</v>
       </c>
       <c r="W25" s="0">
-        <v>2.1992717281412024</v>
+        <v>0.78888708456892853</v>
       </c>
       <c r="X25" s="0">
-        <v>0.0013641769818187137</v>
+        <v>0.049251384164069378</v>
       </c>
       <c r="Y25" s="0">
-        <v>672929.72718838148</v>
+        <v>16019.817433736649</v>
       </c>
       <c r="Z25" s="0">
-        <v>266.9839265858281</v>
+        <v>17.052365756827882</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.9924904983693803</v>
+        <v>0.96921480984717634</v>
       </c>
       <c r="AB25" s="0">
-        <v>1.0300380065224752</v>
+        <v>1.1666063204910468</v>
       </c>
       <c r="AC25" s="0">
-        <v>0.0052801433753835838</v>
+        <v>0.014811035812482654</v>
       </c>
       <c r="AD25" s="0">
-        <v>0.98017516939298011</v>
+        <v>0.92267635027925732</v>
       </c>
       <c r="AE25" s="0">
-        <v>0.99008659084215567</v>
+        <v>0.9547928492661234</v>
       </c>
       <c r="AF25" s="0">
-        <v>4.6310409569604338e-06</v>
+        <v>0.0009150680688288673</v>
       </c>
       <c r="AG25" s="0">
-        <v>231304.96495588019</v>
+        <v>2677.2355630166749</v>
       </c>
       <c r="AH25" s="0">
-        <v>4.5942685780079396e-06</v>
+        <v>0.0008869411464282451</v>
       </c>
       <c r="AI25" s="0">
-        <v>229671.17154128465</v>
+        <v>2569.4692622879684</v>
       </c>
       <c r="AJ25" s="0">
-        <v>4.778130472770421e-06</v>
+        <v>0.0010345809055045563</v>
       </c>
       <c r="AK25" s="0">
-        <v>237840.13861426251</v>
+        <v>3423.7866651127388</v>
       </c>
       <c r="AL25" s="0">
-        <v>0.39344860666956138</v>
+        <v>0.018031408145869659</v>
       </c>
       <c r="AM25" s="0">
-        <v>1.8049430661120883e-06</v>
+        <v>7.4365218768439388e-06</v>
       </c>
       <c r="AN25" s="0">
-        <v>0.9687904687904686</v>
+        <v>0.89849994152046786</v>
       </c>
       <c r="AO25" s="0">
-        <v>1.1351981351981351</v>
+        <v>2.0868421052631581</v>
       </c>
       <c r="AP25" s="0">
-        <v>0.0052506416142779821</v>
+        <v>0.014973838104032008</v>
       </c>
       <c r="AQ25" s="0">
-        <v>0.92084855488118855</v>
+        <v>0.76766697445367793</v>
       </c>
       <c r="AR25" s="0">
-        <v>0.95830230826507801</v>
+        <v>0.8488458674609084</v>
       </c>
       <c r="AS25" s="0">
-        <v>4.622827443946781e-06</v>
+        <v>0.00090556793764422184</v>
       </c>
       <c r="AT25" s="0">
-        <v>231714.91608391609</v>
+        <v>2627.7456140350878</v>
       </c>
       <c r="AU25" s="0">
-        <v>4.4706619470658402e-06</v>
+        <v>0.00079172739135611049</v>
       </c>
       <c r="AV25" s="0">
-        <v>224877.5375766209</v>
+        <v>2360.4029801267056</v>
       </c>
       <c r="AW25" s="0">
-        <v>5.2837507881486051e-06</v>
+        <v>0.0015045428297999104</v>
       </c>
       <c r="AX25" s="0">
-        <v>261224.12276612272</v>
+        <v>8377.1473684210523</v>
       </c>
       <c r="AY25" s="0">
-        <v>0.25575302331855282</v>
+        <v>0.0045327471125296568</v>
       </c>
       <c r="AZ25" s="0">
-        <v>1.1891867273784717e-06</v>
+        <v>2.0408179490126015e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H26" s="0">
         <v>25</v>
@@ -4638,305 +4817,305 @@
         <v>1356</v>
       </c>
       <c r="M26" s="0">
-        <v>0.00015162564035396431</v>
+        <v>0.00055450491087713147</v>
       </c>
       <c r="N26" s="0">
-        <v>2109.249275116395</v>
+        <v>208.00715415883434</v>
       </c>
       <c r="O26" s="0">
-        <v>12.8638552668342</v>
+        <v>11.269744531606856</v>
       </c>
       <c r="P26" s="0">
-        <v>0.07859368195005953</v>
+        <v>0.18410653578995007</v>
       </c>
       <c r="Q26" s="0">
-        <v>0.7502340228733948</v>
+        <v>0.74670790194042691</v>
       </c>
       <c r="R26" s="0">
-        <v>0.0002671018582129631</v>
+        <v>0.00071278837051302977</v>
       </c>
       <c r="S26" s="0">
-        <v>0.0023065858155930053</v>
+        <v>0.0059562110447323215</v>
       </c>
       <c r="T26" s="0">
-        <v>34.174546427324522</v>
+        <v>10.844854599213219</v>
       </c>
       <c r="U26" s="0">
-        <v>223561.57995905881</v>
+        <v>2431.5347605556908</v>
       </c>
       <c r="V26" s="0">
-        <v>0.0069555738811831955</v>
+        <v>0.0074334054842531798</v>
       </c>
       <c r="W26" s="0">
-        <v>2.1140866734965647</v>
+        <v>0.72067005904228809</v>
       </c>
       <c r="X26" s="0">
-        <v>0.0013631108307501176</v>
+        <v>0.047051829309148946</v>
       </c>
       <c r="Y26" s="0">
-        <v>680066.5138654036</v>
+        <v>17752.301797862769</v>
       </c>
       <c r="Z26" s="0">
-        <v>267.53653857032492</v>
+        <v>18.536860138307734</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.99270005982898368</v>
+        <v>0.97289007089382618</v>
       </c>
       <c r="AB26" s="0">
-        <v>1.029199760684061</v>
+        <v>1.1345490054376657</v>
       </c>
       <c r="AC26" s="0">
-        <v>0.0057438297103635967</v>
+        <v>0.015807938834401753</v>
       </c>
       <c r="AD26" s="0">
-        <v>0.98072296532706971</v>
+        <v>0.93129475833029451</v>
       </c>
       <c r="AE26" s="0">
-        <v>0.99036056946027617</v>
+        <v>0.96153174712101597</v>
       </c>
       <c r="AF26" s="0">
-        <v>4.7832782565578537e-06</v>
+        <v>0.0018951146303112047</v>
       </c>
       <c r="AG26" s="0">
-        <v>224336.81722429954</v>
+        <v>2485.3668937251105</v>
       </c>
       <c r="AH26" s="0">
-        <v>4.7469934318439015e-06</v>
+        <v>0.0018705583951902846</v>
       </c>
       <c r="AI26" s="0">
-        <v>222807.671938466</v>
+        <v>2397.0491389969279</v>
       </c>
       <c r="AJ26" s="0">
-        <v>4.9284175554136616e-06</v>
+        <v>0.0020011892568397279</v>
       </c>
       <c r="AK26" s="0">
-        <v>230453.39836763349</v>
+        <v>3003.3630265074667</v>
       </c>
       <c r="AL26" s="0">
-        <v>0.41542119059397381</v>
+        <v>0.017246707997586489</v>
       </c>
       <c r="AM26" s="0">
-        <v>1.9747668465797338e-06</v>
+        <v>7.9879149024253057e-06</v>
       </c>
       <c r="AN26" s="0">
-        <v>0.97243524199045617</v>
+        <v>0.91380747177343158</v>
       </c>
       <c r="AO26" s="0">
-        <v>1.1273006134969319</v>
+        <v>1.7431972789115646</v>
       </c>
       <c r="AP26" s="0">
-        <v>0.0056844913244758931</v>
+        <v>0.015809384978481188</v>
       </c>
       <c r="AQ26" s="0">
-        <v>0.93026529978546324</v>
+        <v>0.79946145124716561</v>
       </c>
       <c r="AR26" s="0">
-        <v>0.9616519174041297</v>
+        <v>0.8672566371681415</v>
       </c>
       <c r="AS26" s="0">
-        <v>4.7779231335628792e-06</v>
+        <v>0.0019972407787627075</v>
       </c>
       <c r="AT26" s="0">
-        <v>224760.59585889571</v>
+        <v>2429.392006802721</v>
       </c>
       <c r="AU26" s="0">
-        <v>4.6427506395898035e-06</v>
+        <v>0.0019096364824459039</v>
       </c>
       <c r="AV26" s="0">
-        <v>218900.1575494206</v>
+        <v>2193.6127929687495</v>
       </c>
       <c r="AW26" s="0">
-        <v>5.4154131943454574e-06</v>
+        <v>0.0025278691769568275</v>
       </c>
       <c r="AX26" s="0">
-        <v>251252.88420245404</v>
+        <v>5548.6547619047615</v>
       </c>
       <c r="AY26" s="0">
-        <v>0.26827432664129208</v>
+        <v>0.0066090010370959537</v>
       </c>
       <c r="AZ26" s="0">
-        <v>1.2982618119795349e-06</v>
+        <v>3.3278138019253489e-06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H27" s="0">
         <v>26</v>
       </c>
       <c r="I27" s="0">
-        <v>244.3670133369649</v>
+        <v>244.36701333696493</v>
       </c>
       <c r="J27" s="0">
-        <v>1.0420090335887362</v>
+        <v>1.0420090335887346</v>
       </c>
       <c r="K27" s="0">
-        <v>1.5104852645923623</v>
+        <v>1.5104852645923597</v>
       </c>
       <c r="L27" s="0">
         <v>1363</v>
       </c>
       <c r="M27" s="0">
-        <v>0.0001478297058693051</v>
+        <v>0.00058765246579415545</v>
       </c>
       <c r="N27" s="0">
-        <v>2172.7977225275072</v>
+        <v>210.90113387645698</v>
       </c>
       <c r="O27" s="0">
-        <v>12.888960420593879</v>
+        <v>11.299824117467454</v>
       </c>
       <c r="P27" s="0">
-        <v>0.079470541440511314</v>
+        <v>0.18678051038082719</v>
       </c>
       <c r="Q27" s="0">
-        <v>0.76136324970179159</v>
+        <v>0.75028546165778631</v>
       </c>
       <c r="R27" s="0">
-        <v>0.00026785886402760684</v>
+        <v>0.00071501962743224083</v>
       </c>
       <c r="S27" s="0">
-        <v>0.0024871378056212229</v>
+        <v>0.0060885930490876773</v>
       </c>
       <c r="T27" s="0">
-        <v>34.770756348076468</v>
+        <v>10.920604567015943</v>
       </c>
       <c r="U27" s="0">
-        <v>225099.23967296572</v>
+        <v>2452.1662987479531</v>
       </c>
       <c r="V27" s="0">
-        <v>0.0071510102170400519</v>
+        <v>0.0075856142950450024</v>
       </c>
       <c r="W27" s="0">
-        <v>2.2939888126467327</v>
+        <v>0.81398940017659926</v>
       </c>
       <c r="X27" s="0">
-        <v>0.0014084691553840959</v>
+        <v>0.054082770724145031</v>
       </c>
       <c r="Y27" s="0">
-        <v>701275.61759427772</v>
+        <v>15709.21447386165</v>
       </c>
       <c r="Z27" s="0">
-        <v>287.99932964995656</v>
+        <v>16.540929088740409</v>
       </c>
       <c r="AA27" s="0">
-        <v>0.99309209742505622</v>
+        <v>0.97026668988468268</v>
       </c>
       <c r="AB27" s="0">
-        <v>1.028313244691808</v>
+        <v>1.1501637568070888</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.0056207253816573169</v>
+        <v>0.015457344990727836</v>
       </c>
       <c r="AD27" s="0">
-        <v>0.98180158310805954</v>
+        <v>0.92481538020871579</v>
       </c>
       <c r="AE27" s="0">
-        <v>0.99075084246676559</v>
+        <v>0.95773096230945842</v>
       </c>
       <c r="AF27" s="0">
-        <v>4.7520912852944475e-06</v>
+        <v>0.0010213917967542081</v>
       </c>
       <c r="AG27" s="0">
-        <v>225898.43433792805</v>
+        <v>2493.2486350052768</v>
       </c>
       <c r="AH27" s="0">
-        <v>4.7173810827412128e-06</v>
+        <v>0.00099010332878094213</v>
       </c>
       <c r="AI27" s="0">
-        <v>224433.56195283265</v>
+        <v>2393.6734229336735</v>
       </c>
       <c r="AJ27" s="0">
-        <v>4.8949477566915113e-06</v>
+        <v>0.0011528958129709982</v>
       </c>
       <c r="AK27" s="0">
-        <v>231873.62722655205</v>
+        <v>3108.5943133538717</v>
       </c>
       <c r="AL27" s="0">
-        <v>0.27945548987753921</v>
+        <v>0.016964014829143722</v>
       </c>
       <c r="AM27" s="0">
-        <v>1.3244870751472709e-06</v>
+        <v>7.8404844582413501e-06</v>
       </c>
       <c r="AN27" s="0">
-        <v>0.97231220359078618</v>
+        <v>0.90172383857526972</v>
       </c>
       <c r="AO27" s="0">
-        <v>1.1227134146341466</v>
+        <v>1.8134135855546003</v>
       </c>
       <c r="AP27" s="0">
-        <v>0.0056200271415823922</v>
+        <v>0.015764814955835892</v>
       </c>
       <c r="AQ27" s="0">
-        <v>0.92939819118084521</v>
+        <v>0.77440411542775245</v>
       </c>
       <c r="AR27" s="0">
-        <v>0.96258253851797493</v>
+        <v>0.85326485693323573</v>
       </c>
       <c r="AS27" s="0">
-        <v>4.744209909857762e-06</v>
+        <v>0.0010114612790898532</v>
       </c>
       <c r="AT27" s="0">
-        <v>226297.84908536583</v>
+        <v>2435.7016337059331</v>
       </c>
       <c r="AU27" s="0">
-        <v>4.6054951505867039e-06</v>
+        <v>0.00091229953052834683</v>
       </c>
       <c r="AV27" s="0">
-        <v>220399.80191395665</v>
+        <v>2174.9090024479269</v>
       </c>
       <c r="AW27" s="0">
-        <v>5.3633539676683926e-06</v>
+        <v>0.0017711991675287237</v>
       </c>
       <c r="AX27" s="0">
-        <v>252178.92835365853</v>
+        <v>5981.2089423903708</v>
       </c>
       <c r="AY27" s="0">
-        <v>0.20389112755426697</v>
+        <v>0.0073931710384394318</v>
       </c>
       <c r="AZ27" s="0">
-        <v>9.7883170848321121e-07</v>
+        <v>3.7477424512580504e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H28" s="0">
         <v>27</v>
@@ -4954,147 +5133,147 @@
         <v>1336</v>
       </c>
       <c r="M28" s="0">
-        <v>0.00015275274283133564</v>
+        <v>0.00050368259793655301</v>
       </c>
       <c r="N28" s="0">
-        <v>2219.3873616438532</v>
+        <v>225.3909305314059</v>
       </c>
       <c r="O28" s="0">
-        <v>12.849110374808305</v>
+        <v>11.297817155188692</v>
       </c>
       <c r="P28" s="0">
-        <v>0.079636725073826062</v>
+        <v>0.17951904192808124</v>
       </c>
       <c r="Q28" s="0">
-        <v>0.71715925119714097</v>
+        <v>0.71864356683670949</v>
       </c>
       <c r="R28" s="0">
-        <v>0.00026700776173467191</v>
+        <v>0.00071384145225491114</v>
       </c>
       <c r="S28" s="0">
-        <v>0.0021402664278411319</v>
+        <v>0.0057738086719818721</v>
       </c>
       <c r="T28" s="0">
-        <v>35.121858638703316</v>
+        <v>11.22219748538692</v>
       </c>
       <c r="U28" s="0">
-        <v>223058.70169986371</v>
+        <v>2417.3345034675385</v>
       </c>
       <c r="V28" s="0">
-        <v>0.0069536984921891925</v>
+        <v>0.0073289131408301612</v>
       </c>
       <c r="W28" s="0">
-        <v>2.2773860031818018</v>
+        <v>0.75975486878171528</v>
       </c>
       <c r="X28" s="0">
-        <v>0.0015537021973168579</v>
+        <v>0.050291970228255205</v>
       </c>
       <c r="Y28" s="0">
-        <v>592041.96672099316</v>
+        <v>17362.686965138204</v>
       </c>
       <c r="Z28" s="0">
-        <v>215.90700441555134</v>
+        <v>16.982510349520854</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.99139364827406462</v>
+        <v>0.97369985332056497</v>
       </c>
       <c r="AB28" s="0">
-        <v>1.0344254069037395</v>
+        <v>1.1104536830884324</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.0057932688650359915</v>
+        <v>0.015957386792138983</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.97731308620650337</v>
+        <v>0.93260363522171896</v>
       </c>
       <c r="AE28" s="0">
-        <v>0.98865504921445191</v>
+        <v>0.96526983911930275</v>
       </c>
       <c r="AF28" s="0">
-        <v>4.7657975904185589e-06</v>
+        <v>0.0010431435196230606</v>
       </c>
       <c r="AG28" s="0">
-        <v>223709.79366312502</v>
+        <v>2507.0605451802858</v>
       </c>
       <c r="AH28" s="0">
-        <v>4.724501120856059e-06</v>
+        <v>0.0010212739781196385</v>
       </c>
       <c r="AI28" s="0">
-        <v>221834.37089996788</v>
+        <v>2437.2130599285579</v>
       </c>
       <c r="AJ28" s="0">
-        <v>4.9309834686685568e-06</v>
+        <v>0.0011325204677526391</v>
       </c>
       <c r="AK28" s="0">
-        <v>231211.48471575356</v>
+        <v>2812.2802920479035</v>
       </c>
       <c r="AL28" s="0">
-        <v>0.4208270183272414</v>
+        <v>0.030126521638895593</v>
       </c>
       <c r="AM28" s="0">
-        <v>1.9853692474185194e-06</v>
+        <v>1.3601184202696393e-05</v>
       </c>
       <c r="AN28" s="0">
-        <v>0.96672000174155392</v>
+        <v>0.90401026674342755</v>
       </c>
       <c r="AO28" s="0">
-        <v>1.148902821316615</v>
+        <v>1.5423143350604493</v>
       </c>
       <c r="AP28" s="0">
-        <v>0.0057241968927192197</v>
+        <v>0.01588111239377045</v>
       </c>
       <c r="AQ28" s="0">
-        <v>0.91588010141409859</v>
+        <v>0.7789008504329723</v>
       </c>
       <c r="AR28" s="0">
-        <v>0.95508982035928114</v>
+        <v>0.86676646706586813</v>
       </c>
       <c r="AS28" s="0">
-        <v>4.7633484555893061e-06</v>
+        <v>0.0010665678030660976</v>
       </c>
       <c r="AT28" s="0">
-        <v>223957.68103448272</v>
+        <v>2485.0699481865286</v>
       </c>
       <c r="AU28" s="0">
-        <v>4.6021792947892012e-06</v>
+        <v>0.00098586955550388497</v>
       </c>
       <c r="AV28" s="0">
-        <v>216745.40508533616</v>
+        <v>2227.4247977835353</v>
       </c>
       <c r="AW28" s="0">
-        <v>5.4800711271784481e-06</v>
+        <v>0.0015144637019883691</v>
       </c>
       <c r="AX28" s="0">
-        <v>256284.12068965519</v>
+        <v>3969.1606217616581</v>
       </c>
       <c r="AY28" s="0">
-        <v>0.20302949164657769</v>
+        <v>0.020362251538482572</v>
       </c>
       <c r="AZ28" s="0">
-        <v>9.772617102051128e-07</v>
+        <v>9.7653374260442561e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H29" s="0">
         <v>28</v>
@@ -5112,147 +5291,147 @@
         <v>1309</v>
       </c>
       <c r="M29" s="0">
-        <v>0.00015978051221083523</v>
+        <v>0.00052817643242553754</v>
       </c>
       <c r="N29" s="0">
-        <v>1989.7259688843806</v>
+        <v>204.40114793796337</v>
       </c>
       <c r="O29" s="0">
-        <v>12.793937933213092</v>
+        <v>11.244529073156119</v>
       </c>
       <c r="P29" s="0">
-        <v>0.07876643771250609</v>
+        <v>0.17747382743668419</v>
       </c>
       <c r="Q29" s="0">
-        <v>0.70700141316986531</v>
+        <v>0.71352055918811053</v>
       </c>
       <c r="R29" s="0">
-        <v>0.00026604866537490189</v>
+        <v>0.000708584191257286</v>
       </c>
       <c r="S29" s="0">
-        <v>0.0018725107829728068</v>
+        <v>0.0052087156122551216</v>
       </c>
       <c r="T29" s="0">
-        <v>33.452376725678569</v>
+        <v>10.834936776271748</v>
       </c>
       <c r="U29" s="0">
-        <v>221122.18939960856</v>
+        <v>2359.4650946038446</v>
       </c>
       <c r="V29" s="0">
-        <v>0.0069577007844350653</v>
+        <v>0.0073841336004723049</v>
       </c>
       <c r="W29" s="0">
-        <v>1.9103572424012805</v>
+        <v>0.66338869921235011</v>
       </c>
       <c r="X29" s="0">
-        <v>0.0014448809144838746</v>
+        <v>0.050626341445937265</v>
       </c>
       <c r="Y29" s="0">
-        <v>574962.0526058526</v>
+        <v>16979.994106250953</v>
       </c>
       <c r="Z29" s="0">
-        <v>216.66966700599818</v>
+        <v>17.099491420684853</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.99362946727546997</v>
+        <v>0.97579075265345994</v>
       </c>
       <c r="AB29" s="0">
-        <v>1.0261913843919714</v>
+        <v>1.1010709524285076</v>
       </c>
       <c r="AC29" s="0">
-        <v>0.0060872334394453638</v>
+        <v>0.016490351875597657</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.98321166179316477</v>
+        <v>0.93779663932423618</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.99144966527469447</v>
+        <v>0.96800246271134405</v>
       </c>
       <c r="AF29" s="0">
-        <v>4.7694531631275533e-06</v>
+        <v>0.0011488996795654628</v>
       </c>
       <c r="AG29" s="0">
-        <v>222023.06565327081</v>
+        <v>2454.5671444766394</v>
       </c>
       <c r="AH29" s="0">
-        <v>4.7364829817247827e-06</v>
+        <v>0.0011266310596221309</v>
       </c>
       <c r="AI29" s="0">
-        <v>220753.53156042844</v>
+        <v>2397.2023104543514</v>
       </c>
       <c r="AJ29" s="0">
-        <v>4.9049973881903595e-06</v>
+        <v>0.0012412966761255974</v>
       </c>
       <c r="AK29" s="0">
-        <v>227238.51350105047</v>
+        <v>2690.8471174011952</v>
       </c>
       <c r="AL29" s="0">
-        <v>0.30227196127071559</v>
+        <v>0.03950573940689156</v>
       </c>
       <c r="AM29" s="0">
-        <v>1.4371586287153791e-06</v>
+        <v>1.8474699234646475e-05</v>
       </c>
       <c r="AN29" s="0">
-        <v>0.97400510653284056</v>
+        <v>0.90522300126594613</v>
       </c>
       <c r="AO29" s="0">
-        <v>1.1180665610142633</v>
+        <v>1.5065731814198073</v>
       </c>
       <c r="AP29" s="0">
-        <v>0.0060176662204485176</v>
+        <v>0.01642008755024461</v>
       </c>
       <c r="AQ29" s="0">
-        <v>0.93398022408020931</v>
+        <v>0.78087551780846332</v>
       </c>
       <c r="AR29" s="0">
-        <v>0.96409472880061131</v>
+        <v>0.87165775401069512</v>
       </c>
       <c r="AS29" s="0">
-        <v>4.7570958179906899e-06</v>
+        <v>0.0011746065949135589</v>
       </c>
       <c r="AT29" s="0">
-        <v>222708.59825673536</v>
+        <v>2472.5214723926383</v>
       </c>
       <c r="AU29" s="0">
-        <v>4.622788796938053e-06</v>
+        <v>0.0010909984432196148</v>
       </c>
       <c r="AV29" s="0">
-        <v>217527.33846187705</v>
+        <v>2246.8872933099619</v>
       </c>
       <c r="AW29" s="0">
-        <v>5.3734508915507748e-06</v>
+        <v>0.0016517001175437563</v>
       </c>
       <c r="AX29" s="0">
-        <v>246010.17908082408</v>
+        <v>3605.4960560911486</v>
       </c>
       <c r="AY29" s="0">
-        <v>0.28587566011007554</v>
+        <v>0.021263596734799911</v>
       </c>
       <c r="AZ29" s="0">
-        <v>1.3738787320938481e-06</v>
+        <v>1.0256708853639042e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H30" s="0">
         <v>29</v>
@@ -5270,147 +5449,147 @@
         <v>1281</v>
       </c>
       <c r="M30" s="0">
-        <v>0.00016780987207656137</v>
+        <v>0.00059933068563708804</v>
       </c>
       <c r="N30" s="0">
-        <v>1741.5359684631089</v>
+        <v>176.00841141570498</v>
       </c>
       <c r="O30" s="0">
-        <v>12.725498949356243</v>
+        <v>11.138633446271093</v>
       </c>
       <c r="P30" s="0">
-        <v>0.085828128638858484</v>
+        <v>0.19346019386735419</v>
       </c>
       <c r="Q30" s="0">
-        <v>0.77105823848651256</v>
+        <v>0.76064814411520876</v>
       </c>
       <c r="R30" s="0">
-        <v>0.0002666584675476567</v>
+        <v>0.00070875871920090367</v>
       </c>
       <c r="S30" s="0">
-        <v>0.0020784027977365804</v>
+        <v>0.0053287950234217384</v>
       </c>
       <c r="T30" s="0">
-        <v>31.096748123083195</v>
+        <v>9.9381221689162373</v>
       </c>
       <c r="U30" s="0">
-        <v>222612.57189989815</v>
+        <v>2382.515551781557</v>
       </c>
       <c r="V30" s="0">
-        <v>0.0077531202118883372</v>
+        <v>0.008223925920704438</v>
       </c>
       <c r="W30" s="0">
-        <v>2.0354361500898857</v>
+        <v>0.67153438478131555</v>
       </c>
       <c r="X30" s="0">
-        <v>0.0013895043899278662</v>
+        <v>0.051448179177990397</v>
       </c>
       <c r="Y30" s="0">
-        <v>538819.66903183621</v>
+        <v>14312.385074328984</v>
       </c>
       <c r="Z30" s="0">
-        <v>259.11377154120402</v>
+        <v>17.684184370949513</v>
       </c>
       <c r="AA30" s="0">
-        <v>0.99119719149103969</v>
+        <v>0.97118608786649296</v>
       </c>
       <c r="AB30" s="0">
-        <v>1.0369669092059191</v>
+        <v>1.1298208157387879</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.0060412250066664485</v>
+        <v>0.016429348507288298</v>
       </c>
       <c r="AD30" s="0">
-        <v>0.97693534149152628</v>
+        <v>0.92674777187951318</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.9880847338272517</v>
+        <v>0.96080155859828553</v>
       </c>
       <c r="AF30" s="0">
-        <v>4.7601899175297246e-06</v>
+        <v>0.00089019604285280984</v>
       </c>
       <c r="AG30" s="0">
-        <v>223086.40296737841</v>
+        <v>2431.3930827853301</v>
       </c>
       <c r="AH30" s="0">
-        <v>4.7169181058817042e-06</v>
+        <v>0.0008673895340739554</v>
       </c>
       <c r="AI30" s="0">
-        <v>221184.47641475711</v>
+        <v>2348.1796580459627</v>
       </c>
       <c r="AJ30" s="0">
-        <v>4.9447470195948491e-06</v>
+        <v>0.00099013066761785128</v>
       </c>
       <c r="AK30" s="0">
-        <v>230963.4041891052</v>
+        <v>2847.2172516062637</v>
       </c>
       <c r="AL30" s="0">
-        <v>0.29787063823001575</v>
+        <v>0.023674377399121767</v>
       </c>
       <c r="AM30" s="0">
-        <v>1.4215209592357871e-06</v>
+        <v>1.1418067828420923e-05</v>
       </c>
       <c r="AN30" s="0">
-        <v>0.96593861088323807</v>
+        <v>0.90564155545445368</v>
       </c>
       <c r="AO30" s="0">
-        <v>1.1673502871205912</v>
+        <v>1.6842584167424937</v>
       </c>
       <c r="AP30" s="0">
-        <v>0.0060492839314086905</v>
+        <v>0.016573094408764359</v>
       </c>
       <c r="AQ30" s="0">
-        <v>0.91487663538948949</v>
+        <v>0.78324078221495119</v>
       </c>
       <c r="AR30" s="0">
-        <v>0.9516003122560498</v>
+        <v>0.85792349726775941</v>
       </c>
       <c r="AS30" s="0">
-        <v>4.7528824057468004e-06</v>
+        <v>0.00090027820696766438</v>
       </c>
       <c r="AT30" s="0">
-        <v>223381.39294503693</v>
+        <v>2396.2666060054594</v>
       </c>
       <c r="AU30" s="0">
-        <v>4.5876446521956431e-06</v>
+        <v>0.00082476257176328607</v>
       </c>
       <c r="AV30" s="0">
-        <v>215906.27003577614</v>
+        <v>2159.5863945126885</v>
       </c>
       <c r="AW30" s="0">
-        <v>5.5949135827180518e-06</v>
+        <v>0.001408384961359333</v>
       </c>
       <c r="AX30" s="0">
-        <v>258826.60623461855</v>
+        <v>4742.4595086442223</v>
       </c>
       <c r="AY30" s="0">
-        <v>0.21564839566623134</v>
+        <v>0.010572803576617084</v>
       </c>
       <c r="AZ30" s="0">
-        <v>1.0512693223782316e-06</v>
+        <v>5.3824883866000997e-06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H31" s="0">
         <v>30</v>
@@ -5428,147 +5607,147 @@
         <v>1239</v>
       </c>
       <c r="M31" s="0">
-        <v>0.00016640914823277188</v>
+        <v>0.0006722983050163918</v>
       </c>
       <c r="N31" s="0">
-        <v>1751.5246198763907</v>
+        <v>181.24806434279176</v>
       </c>
       <c r="O31" s="0">
-        <v>12.725086156318334</v>
+        <v>11.119102779604297</v>
       </c>
       <c r="P31" s="0">
-        <v>0.084280884250303945</v>
+        <v>0.19333738880944495</v>
       </c>
       <c r="Q31" s="0">
-        <v>0.76705480624179334</v>
+        <v>0.74424294751681164</v>
       </c>
       <c r="R31" s="0">
-        <v>0.00026597634503950241</v>
+        <v>0.00070272404745682043</v>
       </c>
       <c r="S31" s="0">
-        <v>0.0020450563823613023</v>
+        <v>0.0051608190239046635</v>
       </c>
       <c r="T31" s="0">
-        <v>31.17150109032346</v>
+        <v>10.099049347699053</v>
       </c>
       <c r="U31" s="0">
-        <v>221425.72227692351</v>
+        <v>2332.9575440715639</v>
       </c>
       <c r="V31" s="0">
-        <v>0.0081904346151323391</v>
+        <v>0.0085563744614555997</v>
       </c>
       <c r="W31" s="0">
-        <v>1.9008266396593159</v>
+        <v>0.60630386265774017</v>
       </c>
       <c r="X31" s="0">
-        <v>0.001270770404331026</v>
+        <v>0.044519341258865551</v>
       </c>
       <c r="Y31" s="0">
-        <v>521864.30848732527</v>
+        <v>14902.151190897572</v>
       </c>
       <c r="Z31" s="0">
-        <v>283.33986733164187</v>
+        <v>19.398173336232912</v>
       </c>
       <c r="AA31" s="0">
-        <v>0.99220638274440565</v>
+        <v>0.96910897546150021</v>
       </c>
       <c r="AB31" s="0">
-        <v>1.0311744690223734</v>
+        <v>1.1574522677585612</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.006198578046119221</v>
+        <v>0.017034529448148338</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.97943298676704393</v>
+        <v>0.92212935291326181</v>
       </c>
       <c r="AE31" s="0">
-        <v>0.98971538281911275</v>
+        <v>0.95573103922121239</v>
       </c>
       <c r="AF31" s="0">
-        <v>4.7754980184330071e-06</v>
+        <v>0.00094321130068215995</v>
       </c>
       <c r="AG31" s="0">
-        <v>222091.3328158916</v>
+        <v>2363.5627200824752</v>
       </c>
       <c r="AH31" s="0">
-        <v>4.7361458330521713e-06</v>
+        <v>0.00092027055084032707</v>
       </c>
       <c r="AI31" s="0">
-        <v>220452.22601998525</v>
+        <v>2269.6396586861356</v>
       </c>
       <c r="AJ31" s="0">
-        <v>4.9329067599563505e-06</v>
+        <v>0.0010401447825929661</v>
       </c>
       <c r="AK31" s="0">
-        <v>228647.75999951691</v>
+        <v>2987.0165674561495</v>
       </c>
       <c r="AL31" s="0">
-        <v>0.44586236172529725</v>
+        <v>0.023359248542068629</v>
       </c>
       <c r="AM31" s="0">
-        <v>2.1411018421257804e-06</v>
+        <v>1.180916570165663e-05</v>
       </c>
       <c r="AN31" s="0">
-        <v>0.96817373396985884</v>
+        <v>0.9020248534371833</v>
       </c>
       <c r="AO31" s="0">
-        <v>1.1347935973041283</v>
+        <v>1.874172185430464</v>
       </c>
       <c r="AP31" s="0">
-        <v>0.00613853108194716</v>
+        <v>0.016917446334702473</v>
       </c>
       <c r="AQ31" s="0">
-        <v>0.91916642594691622</v>
+        <v>0.77562387614578354</v>
       </c>
       <c r="AR31" s="0">
-        <v>0.95803066989507668</v>
+        <v>0.85310734463276816</v>
       </c>
       <c r="AS31" s="0">
-        <v>4.7652670726991909e-06</v>
+        <v>0.00095754065251736544</v>
       </c>
       <c r="AT31" s="0">
-        <v>222560.16175231675</v>
+        <v>2347.4834437086092</v>
       </c>
       <c r="AU31" s="0">
-        <v>4.6049292244233537e-06</v>
+        <v>0.00087370626160828823</v>
       </c>
       <c r="AV31" s="0">
-        <v>215874.40145558366</v>
+        <v>2121.0114856860114</v>
       </c>
       <c r="AW31" s="0">
-        <v>5.4534779996623237e-06</v>
+        <v>0.0014511999461446661</v>
       </c>
       <c r="AX31" s="0">
-        <v>250501.84751474304</v>
+        <v>6152.8590350047307</v>
       </c>
       <c r="AY31" s="0">
-        <v>0.28655133482844997</v>
+        <v>0.0055010309185565568</v>
       </c>
       <c r="AZ31" s="0">
-        <v>1.4011181562749541e-06</v>
+        <v>2.9791134004758846e-06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H32" s="0">
         <v>31</v>
@@ -5586,305 +5765,305 @@
         <v>1224</v>
       </c>
       <c r="M32" s="0">
-        <v>0.00017034243209171888</v>
+        <v>0.00056782637348458322</v>
       </c>
       <c r="N32" s="0">
-        <v>1650.1268968422507</v>
+        <v>178.52903449926882</v>
       </c>
       <c r="O32" s="0">
-        <v>12.696650473607878</v>
+        <v>11.158239900500623</v>
       </c>
       <c r="P32" s="0">
-        <v>0.085967739738625537</v>
+        <v>0.19142986416555588</v>
       </c>
       <c r="Q32" s="0">
-        <v>0.76384536554668514</v>
+        <v>0.76009823985950076</v>
       </c>
       <c r="R32" s="0">
-        <v>0.00026549804038667336</v>
+        <v>0.00070263408443374661</v>
       </c>
       <c r="S32" s="0">
-        <v>0.0019137197011646647</v>
+        <v>0.005382157406742848</v>
       </c>
       <c r="T32" s="0">
-        <v>30.43052739195301</v>
+        <v>10.00879224136939</v>
       </c>
       <c r="U32" s="0">
-        <v>220459.60631117134</v>
+        <v>2348.1750084859482</v>
       </c>
       <c r="V32" s="0">
-        <v>0.0079324794014670498</v>
+        <v>0.008647496298780144</v>
       </c>
       <c r="W32" s="0">
-        <v>1.9043478441105595</v>
+        <v>0.66749829777023739</v>
       </c>
       <c r="X32" s="0">
-        <v>0.0013793834425110969</v>
+        <v>0.047039290517696661</v>
       </c>
       <c r="Y32" s="0">
-        <v>499779.4269240562</v>
+        <v>14664.905452309682</v>
       </c>
       <c r="Z32" s="0">
-        <v>234.1112015682003</v>
+        <v>18.924396184338146</v>
       </c>
       <c r="AA32" s="0">
-        <v>0.9914869625194157</v>
+        <v>0.9708827404022905</v>
       </c>
       <c r="AB32" s="0">
-        <v>1.0355736848795751</v>
+        <v>1.1277999170731106</v>
       </c>
       <c r="AC32" s="0">
-        <v>0.0060648442106498793</v>
+        <v>0.016226078648638127</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.97767267453223428</v>
+        <v>0.92594995763336241</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.98850402956546957</v>
+        <v>0.96080836376758405</v>
       </c>
       <c r="AF32" s="0">
-        <v>4.7941136737447236e-06</v>
+        <v>0.00096275606529842926</v>
       </c>
       <c r="AG32" s="0">
-        <v>220950.33116742349</v>
+        <v>2397.9076204181638</v>
       </c>
       <c r="AH32" s="0">
-        <v>4.751845831718283e-06</v>
+        <v>0.00094018767298876345</v>
       </c>
       <c r="AI32" s="0">
-        <v>219151.20875296087</v>
+        <v>2312.5173845930108</v>
       </c>
       <c r="AJ32" s="0">
-        <v>4.9708654874747128e-06</v>
+        <v>0.0010573319221112445</v>
       </c>
       <c r="AK32" s="0">
-        <v>228450.79688286898</v>
+        <v>2793.4296238918878</v>
       </c>
       <c r="AL32" s="0">
-        <v>0.29758506804874052</v>
+        <v>0.028259304314994498</v>
       </c>
       <c r="AM32" s="0">
-        <v>1.4266524202507646e-06</v>
+        <v>1.3797121255154419e-05</v>
       </c>
       <c r="AN32" s="0">
-        <v>0.96478940346864805</v>
+        <v>0.89784194439979759</v>
       </c>
       <c r="AO32" s="0">
-        <v>1.1560891938250422</v>
+        <v>1.6934865900383143</v>
       </c>
       <c r="AP32" s="0">
-        <v>0.0060460915181132623</v>
+        <v>0.01623398071079403</v>
       </c>
       <c r="AQ32" s="0">
-        <v>0.91137106525953926</v>
+        <v>0.76661932443739833</v>
       </c>
       <c r="AR32" s="0">
-        <v>0.9526143790849676</v>
+        <v>0.85294117647058809</v>
       </c>
       <c r="AS32" s="0">
-        <v>4.7884659850448577e-06</v>
+        <v>0.0009848208351666604</v>
       </c>
       <c r="AT32" s="0">
-        <v>221300.3644939966</v>
+        <v>2341.9080459770112</v>
       </c>
       <c r="AU32" s="0">
-        <v>4.6154340776926008e-06</v>
+        <v>0.00089634520283500595</v>
       </c>
       <c r="AV32" s="0">
-        <v>213792.49249571189</v>
+        <v>2089.3990490929941</v>
       </c>
       <c r="AW32" s="0">
-        <v>5.565126686090402e-06</v>
+        <v>0.0014430391884548211</v>
       </c>
       <c r="AX32" s="0">
-        <v>254117.95883361925</v>
+        <v>4838.0402298850568</v>
       </c>
       <c r="AY32" s="0">
-        <v>0.28102233697441364</v>
+        <v>0.010730695392353761</v>
       </c>
       <c r="AZ32" s="0">
-        <v>1.3781346525205813e-06</v>
+        <v>5.768442473199051e-06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H33" s="0">
         <v>32</v>
       </c>
       <c r="I33" s="0">
-        <v>242.57746339025411</v>
+        <v>242.577463390254</v>
       </c>
       <c r="J33" s="0">
-        <v>-0.12725181213332665</v>
+        <v>-0.12725181213332493</v>
       </c>
       <c r="K33" s="0">
-        <v>0.4810062980740244</v>
+        <v>0.48100629807402706</v>
       </c>
       <c r="L33" s="0">
         <v>1225</v>
       </c>
       <c r="M33" s="0">
-        <v>0.00017015073971732292</v>
+        <v>0.00055958396046943922</v>
       </c>
       <c r="N33" s="0">
-        <v>1653.1096991879535</v>
+        <v>183.01313992322798</v>
       </c>
       <c r="O33" s="0">
-        <v>12.704197239617493</v>
+        <v>11.162534921012938</v>
       </c>
       <c r="P33" s="0">
-        <v>0.088966106184204169</v>
+        <v>0.19138558713657675</v>
       </c>
       <c r="Q33" s="0">
-        <v>0.7449481762942296</v>
+        <v>0.74753438790771853</v>
       </c>
       <c r="R33" s="0">
-        <v>0.00026073786727331787</v>
+        <v>0.00067093905406376297</v>
       </c>
       <c r="S33" s="0">
-        <v>0.0017628587121620008</v>
+        <v>0.0052431826558618751</v>
       </c>
       <c r="T33" s="0">
-        <v>29.709680246668437</v>
+        <v>9.9732389998703681</v>
       </c>
       <c r="U33" s="0">
-        <v>212448.64607218705</v>
+        <v>2152.8173613138729</v>
       </c>
       <c r="V33" s="0">
-        <v>0.0082074588298045089</v>
+        <v>0.0088175534269189036</v>
       </c>
       <c r="W33" s="0">
-        <v>1.8573253397555185</v>
+        <v>0.63278513476624065</v>
       </c>
       <c r="X33" s="0">
-        <v>0.0013063677941100968</v>
+        <v>0.040880341603239521</v>
       </c>
       <c r="Y33" s="0">
-        <v>496073.30815607606</v>
+        <v>16056.782229929842</v>
       </c>
       <c r="Z33" s="0">
-        <v>229.05671314527578</v>
+        <v>20.144788032304465</v>
       </c>
       <c r="AA33" s="0">
-        <v>0.99104761609147174</v>
+        <v>0.97308555308891198</v>
       </c>
       <c r="AB33" s="0">
-        <v>1.0358095356341122</v>
+        <v>1.1176176367915704</v>
       </c>
       <c r="AC33" s="0">
-        <v>0.0059604458936362709</v>
+        <v>0.015880473092963848</v>
       </c>
       <c r="AD33" s="0">
-        <v>0.97641193687555372</v>
+        <v>0.93137027663259764</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.98820428778097469</v>
+        <v>0.96370951500186475</v>
       </c>
       <c r="AF33" s="0">
-        <v>5.0262042552197874e-06</v>
+        <v>0.0026813386792176644</v>
       </c>
       <c r="AG33" s="0">
-        <v>212656.24465235058</v>
+        <v>2239.31895134973</v>
       </c>
       <c r="AH33" s="0">
-        <v>4.9815474208838519e-06</v>
+        <v>0.0024919999106672234</v>
       </c>
       <c r="AI33" s="0">
-        <v>210779.55221807104</v>
+        <v>2184.9341326962776</v>
       </c>
       <c r="AJ33" s="0">
-        <v>5.2048315925635318e-06</v>
+        <v>0.0036017073766935262</v>
       </c>
       <c r="AK33" s="0">
-        <v>220163.01438946865</v>
+        <v>2477.7054080179878</v>
       </c>
       <c r="AL33" s="0">
-        <v>0.4272202730243177</v>
+        <v>0.027727285891665822</v>
       </c>
       <c r="AM33" s="0">
-        <v>2.0429392880358652e-06</v>
+        <v>1.3496002231286703e-05</v>
       </c>
       <c r="AN33" s="0">
-        <v>0.96309796073946985</v>
+        <v>0.8950435518980393</v>
       </c>
       <c r="AO33" s="0">
-        <v>1.1552315608919379</v>
+        <v>1.6024785510009534</v>
       </c>
       <c r="AP33" s="0">
-        <v>0.0058872161205570043</v>
+        <v>0.015769705770896252</v>
       </c>
       <c r="AQ33" s="0">
-        <v>0.90684752963467419</v>
+        <v>0.76071632068673167</v>
       </c>
       <c r="AR33" s="0">
-        <v>0.95183673469387753</v>
+        <v>0.85632653061224473</v>
       </c>
       <c r="AS33" s="0">
-        <v>5.0264608089995897e-06</v>
+        <v>0.0021469218212489616</v>
       </c>
       <c r="AT33" s="0">
-        <v>212808.50600343052</v>
+        <v>2264.540514775977</v>
       </c>
       <c r="AU33" s="0">
-        <v>4.8412666222991585e-06</v>
+        <v>0.001733744767925808</v>
       </c>
       <c r="AV33" s="0">
-        <v>205105.63655422145</v>
+        <v>2041.5938042115476</v>
       </c>
       <c r="AW33" s="0">
-        <v>5.8036483822097518e-06</v>
+        <v>0.009310751290747727</v>
       </c>
       <c r="AX33" s="0">
-        <v>245257.59005145798</v>
+        <v>3419.2964728312672</v>
       </c>
       <c r="AY33" s="0">
-        <v>0.27008418317900562</v>
+        <v>0.013597373099875578</v>
       </c>
       <c r="AZ33" s="0">
-        <v>1.3194073579103789e-06</v>
+        <v>7.0411376545836834e-06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H34" s="0">
         <v>33</v>
@@ -5902,305 +6081,305 @@
         <v>1158</v>
       </c>
       <c r="M34" s="0">
-        <v>0.00018999368814704985</v>
+        <v>0.00062144787603198189</v>
       </c>
       <c r="N34" s="0">
-        <v>1337.6897635717405</v>
+        <v>161.76856462719849</v>
       </c>
       <c r="O34" s="0">
-        <v>12.550072076945577</v>
+        <v>11.020403428606061</v>
       </c>
       <c r="P34" s="0">
-        <v>0.09335264831082718</v>
+        <v>0.19436284412656016</v>
       </c>
       <c r="Q34" s="0">
-        <v>0.71608089789405793</v>
+        <v>0.72535424983930008</v>
       </c>
       <c r="R34" s="0">
-        <v>0.00025935585922822775</v>
+        <v>0.00065512085908353915</v>
       </c>
       <c r="S34" s="0">
-        <v>0.0012822268733421426</v>
+        <v>0.0042588870105574363</v>
       </c>
       <c r="T34" s="0">
-        <v>27.221929869407603</v>
+        <v>9.5070509834084884</v>
       </c>
       <c r="U34" s="0">
-        <v>209539.15888336292</v>
+        <v>2010.7445711693415</v>
       </c>
       <c r="V34" s="0">
-        <v>0.0078931600362182972</v>
+        <v>0.0086852018350438397</v>
       </c>
       <c r="W34" s="0">
-        <v>1.7446877157185388</v>
+        <v>0.6022093017753033</v>
       </c>
       <c r="X34" s="0">
-        <v>0.0017326409310676537</v>
+        <v>0.049073640440447777</v>
       </c>
       <c r="Y34" s="0">
-        <v>305408.53835400357</v>
+        <v>12795.199257241487</v>
       </c>
       <c r="Z34" s="0">
-        <v>134.13296687572802</v>
+        <v>16.121237465901579</v>
       </c>
       <c r="AA34" s="0">
-        <v>0.99121021745072269</v>
+        <v>0.97269785033764355</v>
       </c>
       <c r="AB34" s="0">
-        <v>1.035159130197107</v>
+        <v>1.1175175310219259</v>
       </c>
       <c r="AC34" s="0">
-        <v>0.0068149472152555859</v>
+        <v>0.017519096172155003</v>
       </c>
       <c r="AD34" s="0">
-        <v>0.97683528307664247</v>
+        <v>0.93035901773365837</v>
       </c>
       <c r="AE34" s="0">
-        <v>0.98841605046427194</v>
+        <v>0.96345966450864884</v>
       </c>
       <c r="AF34" s="0">
-        <v>4.9589767932634453e-06</v>
+        <v>0.0011068904759280042</v>
       </c>
       <c r="AG34" s="0">
-        <v>210539.11856993509</v>
+        <v>2112.1215055640805</v>
       </c>
       <c r="AH34" s="0">
-        <v>4.9125378880411296e-06</v>
+        <v>0.0010693293204158127</v>
       </c>
       <c r="AI34" s="0">
-        <v>208800.49502560202</v>
+        <v>2065.2123054344665</v>
       </c>
       <c r="AJ34" s="0">
-        <v>5.1447324141527066e-06</v>
+        <v>0.0012734892016078862</v>
       </c>
       <c r="AK34" s="0">
-        <v>217493.61274726744</v>
+        <v>2311.2508893018667</v>
       </c>
       <c r="AL34" s="0">
-        <v>0.49303893524276032</v>
+        <v>0.038309174053584076</v>
       </c>
       <c r="AM34" s="0">
-        <v>2.3708398669420402e-06</v>
+        <v>1.9554270090674645e-05</v>
       </c>
       <c r="AN34" s="0">
-        <v>0.96568627450980371</v>
+        <v>0.89766705711735828</v>
       </c>
       <c r="AO34" s="0">
-        <v>1.1493212669683257</v>
+        <v>1.5642570281124497</v>
       </c>
       <c r="AP34" s="0">
-        <v>0.0068376978358346482</v>
+        <v>0.017382784148642763</v>
       </c>
       <c r="AQ34" s="0">
-        <v>0.91336622919268617</v>
+        <v>0.7661287721165787</v>
       </c>
       <c r="AR34" s="0">
-        <v>0.95423143350604478</v>
+        <v>0.86010362694300535</v>
       </c>
       <c r="AS34" s="0">
-        <v>4.9469268583548253e-06</v>
+        <v>0.0010635154262539886</v>
       </c>
       <c r="AT34" s="0">
-        <v>210992.69592760183</v>
+        <v>2159.7951807228915</v>
       </c>
       <c r="AU34" s="0">
-        <v>4.7667592205505432e-06</v>
+        <v>0.00092185704329299852</v>
       </c>
       <c r="AV34" s="0">
-        <v>204148.80472599299</v>
+        <v>1977.583319388666</v>
       </c>
       <c r="AW34" s="0">
-        <v>5.7418595361202497e-06</v>
+        <v>0.0019007808211857419</v>
       </c>
       <c r="AX34" s="0">
-        <v>240358.35022624434</v>
+        <v>3098.3182730923695</v>
       </c>
       <c r="AY34" s="0">
-        <v>0.32131461360838759</v>
+        <v>0.025806661399609632</v>
       </c>
       <c r="AZ34" s="0">
-        <v>1.5735086159678299e-06</v>
+        <v>1.3285808613386215e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H35" s="0">
         <v>34</v>
       </c>
       <c r="I35" s="0">
-        <v>242.64855352049943</v>
+        <v>242.64855352049941</v>
       </c>
       <c r="J35" s="0">
-        <v>-0.59739902100116382</v>
+        <v>-0.59739902100116304</v>
       </c>
       <c r="K35" s="0">
-        <v>1.2063507714020867</v>
+        <v>1.2063507714020885</v>
       </c>
       <c r="L35" s="0">
         <v>1177</v>
       </c>
       <c r="M35" s="0">
-        <v>0.00019821487278830102</v>
+        <v>0.00074048475171602864</v>
       </c>
       <c r="N35" s="0">
-        <v>1564.7354100283353</v>
+        <v>167.96152392305464</v>
       </c>
       <c r="O35" s="0">
-        <v>12.522350185087337</v>
+        <v>10.904317971591096</v>
       </c>
       <c r="P35" s="0">
-        <v>0.096021469469110388</v>
+        <v>0.2120884993673697</v>
       </c>
       <c r="Q35" s="0">
-        <v>0.77908587035839694</v>
+        <v>0.75717399309158895</v>
       </c>
       <c r="R35" s="0">
-        <v>0.00025411865400741312</v>
+        <v>0.00061876821729366983</v>
       </c>
       <c r="S35" s="0">
-        <v>0.001905706827935341</v>
+        <v>0.0049491861617917696</v>
       </c>
       <c r="T35" s="0">
-        <v>27.695008011174824</v>
+        <v>9.1756835981673213</v>
       </c>
       <c r="U35" s="0">
-        <v>202208.21975774961</v>
+        <v>1856.7277492981937</v>
       </c>
       <c r="V35" s="0">
-        <v>0.0087948787162854848</v>
+        <v>0.0096104875969475218</v>
       </c>
       <c r="W35" s="0">
-        <v>2.036740695160435</v>
+        <v>0.58395530203330204</v>
       </c>
       <c r="X35" s="0">
-        <v>0.0011796331733039539</v>
+        <v>0.038482587499503229</v>
       </c>
       <c r="Y35" s="0">
-        <v>485291.09502113861</v>
+        <v>14856.108628831027</v>
       </c>
       <c r="Z35" s="0">
-        <v>266.74624996340805</v>
+        <v>21.264770429574799</v>
       </c>
       <c r="AA35" s="0">
-        <v>0.98936943008343115</v>
+        <v>0.965327049148896</v>
       </c>
       <c r="AB35" s="0">
-        <v>1.0425222796662734</v>
+        <v>1.1599172157538344</v>
       </c>
       <c r="AC35" s="0">
-        <v>0.0063635888711168556</v>
+        <v>0.016811851303566008</v>
       </c>
       <c r="AD35" s="0">
-        <v>0.9720536233931536</v>
+        <v>0.91288981422601589</v>
       </c>
       <c r="AE35" s="0">
-        <v>0.98602400385020739</v>
+        <v>0.95243391556989077</v>
       </c>
       <c r="AF35" s="0">
-        <v>5.3746925100926075e-06</v>
+        <v>0.0055776302336064416</v>
       </c>
       <c r="AG35" s="0">
-        <v>202416.9591748442</v>
+        <v>1952.9332240264962</v>
       </c>
       <c r="AH35" s="0">
-        <v>5.319418146851428e-06</v>
+        <v>0.0047309764637660677</v>
       </c>
       <c r="AI35" s="0">
-        <v>200310.34472245892</v>
+        <v>1899.4945652045687</v>
       </c>
       <c r="AJ35" s="0">
-        <v>5.5957899630573255e-06</v>
+        <v>0.010179583041698742</v>
       </c>
       <c r="AK35" s="0">
-        <v>210843.4169843852</v>
+        <v>2186.862672395951</v>
       </c>
       <c r="AL35" s="0">
-        <v>0.43818948650451439</v>
+        <v>0.020715812246753163</v>
       </c>
       <c r="AM35" s="0">
-        <v>2.1713983698466509e-06</v>
+        <v>1.1505635923657331e-05</v>
       </c>
       <c r="AN35" s="0">
-        <v>0.9607167814714983</v>
+        <v>0.89172509382463339</v>
       </c>
       <c r="AO35" s="0">
-        <v>1.1850853548966755</v>
+        <v>1.9334698055271236</v>
       </c>
       <c r="AP35" s="0">
-        <v>0.0062005103453509087</v>
+        <v>0.016935053832832739</v>
       </c>
       <c r="AQ35" s="0">
-        <v>0.90225457692273514</v>
+        <v>0.75654799382732241</v>
       </c>
       <c r="AR35" s="0">
-        <v>0.9456244689889548</v>
+        <v>0.83007646559048442</v>
       </c>
       <c r="AS35" s="0">
-        <v>5.3826880225948807e-06</v>
+        <v>0.0033589902046367096</v>
       </c>
       <c r="AT35" s="0">
-        <v>202571.4016172507</v>
+        <v>2002.9488229273284</v>
       </c>
       <c r="AU35" s="0">
-        <v>5.1798922485973649e-06</v>
+        <v>0.0023775600779998496</v>
       </c>
       <c r="AV35" s="0">
-        <v>194718.77805231107</v>
+        <v>1805.602009624133</v>
       </c>
       <c r="AW35" s="0">
-        <v>6.3470277978230682e-06</v>
+        <v>0.04225307545049159</v>
       </c>
       <c r="AX35" s="0">
-        <v>239174.57232704404</v>
+        <v>3155.7523029682702</v>
       </c>
       <c r="AY35" s="0">
-        <v>0.27091282419414747</v>
+        <v>0.0079276807006478066</v>
       </c>
       <c r="AZ35" s="0">
-        <v>1.3804782101416683e-06</v>
+        <v>4.6055901027840453e-06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H36" s="0">
         <v>35</v>
@@ -6218,147 +6397,147 @@
         <v>1072</v>
       </c>
       <c r="M36" s="0">
-        <v>0.00020306040662983755</v>
+        <v>0.00069695537021961806</v>
       </c>
       <c r="N36" s="0">
-        <v>1335.7212535811236</v>
+        <v>144.40581504641432</v>
       </c>
       <c r="O36" s="0">
-        <v>12.446231958012111</v>
+        <v>10.866652903490571</v>
       </c>
       <c r="P36" s="0">
-        <v>0.096950372482160513</v>
+        <v>0.20770505887351234</v>
       </c>
       <c r="Q36" s="0">
-        <v>0.75469343537517908</v>
+        <v>0.75494353104435552</v>
       </c>
       <c r="R36" s="0">
-        <v>0.00025418603099883463</v>
+        <v>0.00061233453030450698</v>
       </c>
       <c r="S36" s="0">
-        <v>0.0014819814054623504</v>
+        <v>0.0043001013158208631</v>
       </c>
       <c r="T36" s="0">
-        <v>26.336947561360429</v>
+        <v>8.8463749065450266</v>
       </c>
       <c r="U36" s="0">
-        <v>201683.57959323894</v>
+        <v>1792.8088768479779</v>
       </c>
       <c r="V36" s="0">
-        <v>0.0092820042344731526</v>
+        <v>0.010032150121672136</v>
       </c>
       <c r="W36" s="0">
-        <v>1.8521597426950476</v>
+        <v>0.5253866616098799</v>
       </c>
       <c r="X36" s="0">
-        <v>0.0013336065784672647</v>
+        <v>0.03749409821926885</v>
       </c>
       <c r="Y36" s="0">
-        <v>376413.72984477767</v>
+        <v>13924.943755388282</v>
       </c>
       <c r="Z36" s="0">
-        <v>220.9678004557806</v>
+        <v>21.728756795600976</v>
       </c>
       <c r="AA36" s="0">
-        <v>0.99110058204713547</v>
+        <v>0.96935339409210863</v>
       </c>
       <c r="AB36" s="0">
-        <v>1.0355976718114577</v>
+        <v>1.1423306727300508</v>
       </c>
       <c r="AC36" s="0">
-        <v>0.0066102279164921918</v>
+        <v>0.017447743127597493</v>
       </c>
       <c r="AD36" s="0">
-        <v>0.97654981751200487</v>
+        <v>0.92274739909366543</v>
       </c>
       <c r="AE36" s="0">
-        <v>0.98827325763818485</v>
+        <v>0.95747025830966737</v>
       </c>
       <c r="AF36" s="0">
-        <v>5.2800363977674382e-06</v>
+        <v>0.0044289064846282644</v>
       </c>
       <c r="AG36" s="0">
-        <v>201650.441544245</v>
+        <v>1861.0914171615718</v>
       </c>
       <c r="AH36" s="0">
-        <v>5.2317154402582082e-06</v>
+        <v>0.00409106514301093</v>
       </c>
       <c r="AI36" s="0">
-        <v>199950.41478934407</v>
+        <v>1811.014674013551</v>
       </c>
       <c r="AJ36" s="0">
-        <v>5.4733202278043632e-06</v>
+        <v>0.0065719248078423727</v>
       </c>
       <c r="AK36" s="0">
-        <v>208450.54856384872</v>
+        <v>2084.928040462406</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.45962266419631048</v>
+        <v>0.02582850462536649</v>
       </c>
       <c r="AM36" s="0">
-        <v>2.2829737956351226e-06</v>
+        <v>1.4807158195972553e-05</v>
       </c>
       <c r="AN36" s="0">
-        <v>0.96176470588235285</v>
+        <v>0.89073656462585027</v>
       </c>
       <c r="AO36" s="0">
-        <v>1.1529411764705881</v>
+        <v>1.7266666666666666</v>
       </c>
       <c r="AP36" s="0">
-        <v>0.0065321030372933473</v>
+        <v>0.017202469135802471</v>
       </c>
       <c r="AQ36" s="0">
-        <v>0.90323721645520938</v>
+        <v>0.75414320987654326</v>
       </c>
       <c r="AR36" s="0">
-        <v>0.95149253731343264</v>
+        <v>0.83955223880597007</v>
       </c>
       <c r="AS36" s="0">
-        <v>5.2743973407837655e-06</v>
+        <v>0.0038063342837224533</v>
       </c>
       <c r="AT36" s="0">
-        <v>202041.81274509802</v>
+        <v>1883.7933333333335</v>
       </c>
       <c r="AU36" s="0">
-        <v>5.0669011184135085e-06</v>
+        <v>0.0031922405174303601</v>
       </c>
       <c r="AV36" s="0">
-        <v>194723.37671568626</v>
+        <v>1692.0850736835471</v>
       </c>
       <c r="AW36" s="0">
-        <v>6.104382230264805e-06</v>
+        <v>0.01450578887565806</v>
       </c>
       <c r="AX36" s="0">
-        <v>231315.55686274508</v>
+        <v>3026.9722222222226</v>
       </c>
       <c r="AY36" s="0">
-        <v>0.42269608707878498</v>
+        <v>0.012548063809013965</v>
       </c>
       <c r="AZ36" s="0">
-        <v>2.145839277158163e-06</v>
+        <v>7.7035649892981973e-06</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H37" s="0">
         <v>36</v>
@@ -6376,147 +6555,147 @@
         <v>1025</v>
       </c>
       <c r="M37" s="0">
-        <v>0.00021109790557955724</v>
+        <v>0.00075447840140917526</v>
       </c>
       <c r="N37" s="0">
-        <v>1520.9379822529586</v>
+        <v>163.70780874073196</v>
       </c>
       <c r="O37" s="0">
-        <v>12.398956893638118</v>
+        <v>10.843266438113865</v>
       </c>
       <c r="P37" s="0">
-        <v>0.093809802680141122</v>
+        <v>0.20806492387839806</v>
       </c>
       <c r="Q37" s="0">
-        <v>0.7585288687168058</v>
+        <v>0.73889555347251112</v>
       </c>
       <c r="R37" s="0">
-        <v>0.00025073220125939488</v>
+        <v>0.00058491811427789306</v>
       </c>
       <c r="S37" s="0">
-        <v>0.0017153970183593815</v>
+        <v>0.0045030700722398613</v>
       </c>
       <c r="T37" s="0">
-        <v>27.773624016988371</v>
+        <v>9.1842722131596322</v>
       </c>
       <c r="U37" s="0">
-        <v>196610.04833144741</v>
+        <v>1657.5662325430731</v>
       </c>
       <c r="V37" s="0">
-        <v>0.0089756582665192017</v>
+        <v>0.009899966069962041</v>
       </c>
       <c r="W37" s="0">
-        <v>2.0196301522706919</v>
+        <v>0.54205720858474271</v>
       </c>
       <c r="X37" s="0">
-        <v>0.0012042246673737258</v>
+        <v>0.036424966307396223</v>
       </c>
       <c r="Y37" s="0">
-        <v>483188.9001147963</v>
+        <v>16326.104810164194</v>
       </c>
       <c r="Z37" s="0">
-        <v>277.07278438299272</v>
+        <v>23.865515246600374</v>
       </c>
       <c r="AA37" s="0">
-        <v>0.98966225219270976</v>
+        <v>0.966636129542225</v>
       </c>
       <c r="AB37" s="0">
-        <v>1.0426387939899797</v>
+        <v>1.1482361932524017</v>
       </c>
       <c r="AC37" s="0">
-        <v>0.0065880763723325277</v>
+        <v>0.017567126598458528</v>
       </c>
       <c r="AD37" s="0">
-        <v>0.97290922672562685</v>
+        <v>0.91571857091227904</v>
       </c>
       <c r="AE37" s="0">
-        <v>0.98617407524365497</v>
+        <v>0.95505261676891184</v>
       </c>
       <c r="AF37" s="0">
-        <v>5.5083137006487506e-06</v>
+        <v>0.0062433966425691975</v>
       </c>
       <c r="AG37" s="0">
-        <v>196260.00696278716</v>
+        <v>1735.7613691840352</v>
       </c>
       <c r="AH37" s="0">
-        <v>5.4560570011081292e-06</v>
+        <v>0.0055729314333812403</v>
       </c>
       <c r="AI37" s="0">
-        <v>194156.55301003146</v>
+        <v>1685.883683722119</v>
       </c>
       <c r="AJ37" s="0">
-        <v>5.724114985180349e-06</v>
+        <v>0.0098517771018872147</v>
       </c>
       <c r="AK37" s="0">
-        <v>204918.62892743142</v>
+        <v>1946.1533660461837</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.30402001705254417</v>
+        <v>0.023477070218342787</v>
       </c>
       <c r="AM37" s="0">
-        <v>1.5418919051520424e-06</v>
+        <v>1.491851089981363e-05</v>
       </c>
       <c r="AN37" s="0">
-        <v>0.95917899323472045</v>
+        <v>0.88117137830599501</v>
       </c>
       <c r="AO37" s="0">
-        <v>1.1816305469556241</v>
+        <v>1.7675233644859809</v>
       </c>
       <c r="AP37" s="0">
-        <v>0.0064720472948290716</v>
+        <v>0.017588872390601799</v>
       </c>
       <c r="AQ37" s="0">
-        <v>0.89802345358326863</v>
+        <v>0.73396421084810848</v>
       </c>
       <c r="AR37" s="0">
-        <v>0.94536585365853654</v>
+        <v>0.83512195121951216</v>
       </c>
       <c r="AS37" s="0">
-        <v>5.5270842033613057e-06</v>
+        <v>0.0048464999811230272</v>
       </c>
       <c r="AT37" s="0">
-        <v>195992.00206398347</v>
+        <v>1763.7920560747664</v>
       </c>
       <c r="AU37" s="0">
-        <v>5.3210637387240007e-06</v>
+        <v>0.0035966340168998752</v>
       </c>
       <c r="AV37" s="0">
-        <v>187687.75117532397</v>
+        <v>1566.3741828141888</v>
       </c>
       <c r="AW37" s="0">
-        <v>6.4509271385368269e-06</v>
+        <v>0.026221529571523735</v>
       </c>
       <c r="AX37" s="0">
-        <v>232700.10526315792</v>
+        <v>2782.6530373831774</v>
       </c>
       <c r="AY37" s="0">
-        <v>0.27590620964101004</v>
+        <v>0.0099508817260185265</v>
       </c>
       <c r="AZ37" s="0">
-        <v>1.4513038724478192e-06</v>
+        <v>6.9842904559331372e-06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H38" s="0">
         <v>37</v>
@@ -6534,147 +6713,147 @@
         <v>899</v>
       </c>
       <c r="M38" s="0">
-        <v>0.00025130676271534143</v>
+        <v>0.00081813853847202288</v>
       </c>
       <c r="N38" s="0">
-        <v>1308.4670693716039</v>
+        <v>147.0802269165047</v>
       </c>
       <c r="O38" s="0">
-        <v>12.159152334856103</v>
+        <v>10.639719253064385</v>
       </c>
       <c r="P38" s="0">
-        <v>0.09516236667155531</v>
+        <v>0.20013245992526946</v>
       </c>
       <c r="Q38" s="0">
-        <v>0.67360498176918204</v>
+        <v>0.68117244876194027</v>
       </c>
       <c r="R38" s="0">
-        <v>0.00025186120688945038</v>
+        <v>0.00058440736702879625</v>
       </c>
       <c r="S38" s="0">
-        <v>0.0011006587020319892</v>
+        <v>0.0034231556807070808</v>
       </c>
       <c r="T38" s="0">
-        <v>26.258370219750983</v>
+        <v>8.9600676048279801</v>
       </c>
       <c r="U38" s="0">
-        <v>197389.63601126801</v>
+        <v>1593.1333529853478</v>
       </c>
       <c r="V38" s="0">
-        <v>0.0094123126608814892</v>
+        <v>0.010204401015473413</v>
       </c>
       <c r="W38" s="0">
-        <v>1.9062374268360782</v>
+        <v>0.49810923520195688</v>
       </c>
       <c r="X38" s="0">
-        <v>0.0014561736285415446</v>
+        <v>0.038357719301070993</v>
       </c>
       <c r="Y38" s="0">
-        <v>328900.35259418626</v>
+        <v>15125.659716131591</v>
       </c>
       <c r="Z38" s="0">
-        <v>177.77736313580988</v>
+        <v>22.252986137395776</v>
       </c>
       <c r="AA38" s="0">
-        <v>0.99039812445773856</v>
+        <v>0.97164983363778079</v>
       </c>
       <c r="AB38" s="0">
-        <v>1.0384075021690449</v>
+        <v>1.1196006791250059</v>
       </c>
       <c r="AC38" s="0">
-        <v>0.0075947421509221825</v>
+        <v>0.019988014114489895</v>
       </c>
       <c r="AD38" s="0">
-        <v>0.97472280660349542</v>
+        <v>0.92763416083877248</v>
       </c>
       <c r="AE38" s="0">
-        <v>0.98735933144529597</v>
+        <v>0.9625223713510288</v>
       </c>
       <c r="AF38" s="0">
-        <v>5.2893750680719193e-06</v>
+        <v>0.0020391367713627822</v>
       </c>
       <c r="AG38" s="0">
-        <v>197527.3176665302</v>
+        <v>1673.9270519212685</v>
       </c>
       <c r="AH38" s="0">
-        <v>5.2398927485373602e-06</v>
+        <v>0.0019624122759063483</v>
       </c>
       <c r="AI38" s="0">
-        <v>195620.23774371608</v>
+        <v>1634.3754955028908</v>
       </c>
       <c r="AJ38" s="0">
-        <v>5.4873043462101652e-06</v>
+        <v>0.0023520477305153118</v>
       </c>
       <c r="AK38" s="0">
-        <v>205155.63735778682</v>
+        <v>1842.2305582247857</v>
       </c>
       <c r="AL38" s="0">
-        <v>0.50894103323432716</v>
+        <v>0.033142168952830446</v>
       </c>
       <c r="AM38" s="0">
-        <v>2.6393646409259609e-06</v>
+        <v>2.2506442234115655e-05</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.96262685402029702</v>
+        <v>0.89485930735930752</v>
       </c>
       <c r="AO38" s="0">
-        <v>1.1651053864168621</v>
+        <v>1.5883116883116883</v>
       </c>
       <c r="AP38" s="0">
-        <v>0.0074974359536881174</v>
+        <v>0.019925788497217066</v>
       </c>
       <c r="AQ38" s="0">
-        <v>0.90615590498494558</v>
+        <v>0.76050936076910136</v>
       </c>
       <c r="AR38" s="0">
-        <v>0.94994438264738601</v>
+        <v>0.85650723025583997</v>
       </c>
       <c r="AS38" s="0">
-        <v>5.2947053640641296e-06</v>
+        <v>0.0019250999067702674</v>
       </c>
       <c r="AT38" s="0">
-        <v>197489.03747072601</v>
+        <v>1703.0883116883117</v>
       </c>
       <c r="AU38" s="0">
-        <v>5.1027673271346031e-06</v>
+        <v>0.0016199923826066417</v>
       </c>
       <c r="AV38" s="0">
-        <v>190037.55383164197</v>
+        <v>1547.9142316017312</v>
       </c>
       <c r="AW38" s="0">
-        <v>6.1478598658347489e-06</v>
+        <v>0.0035821518727544525</v>
       </c>
       <c r="AX38" s="0">
-        <v>230162.94496487122</v>
+        <v>2522.8831168831171</v>
       </c>
       <c r="AY38" s="0">
-        <v>0.31973105589431183</v>
+        <v>0.014655771234474578</v>
       </c>
       <c r="AZ38" s="0">
-        <v>1.7095683730678105e-06</v>
+        <v>1.0565949853536582e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H39" s="0">
         <v>38</v>
@@ -6692,147 +6871,147 @@
         <v>874</v>
       </c>
       <c r="M39" s="0">
-        <v>0.00025728415998024166</v>
+        <v>0.0012258082580571743</v>
       </c>
       <c r="N39" s="0">
-        <v>1291.3958467561529</v>
+        <v>138.32970391049957</v>
       </c>
       <c r="O39" s="0">
-        <v>12.116060225868392</v>
+        <v>10.403629389966474</v>
       </c>
       <c r="P39" s="0">
-        <v>0.097696638735757596</v>
+        <v>0.22435870030716981</v>
       </c>
       <c r="Q39" s="0">
-        <v>0.77998591519811455</v>
+        <v>0.72234948218976502</v>
       </c>
       <c r="R39" s="0">
-        <v>0.0002453919216918212</v>
+        <v>0.00054185709190488168</v>
       </c>
       <c r="S39" s="0">
-        <v>0.0016037177118995059</v>
+        <v>0.0035889501678819527</v>
       </c>
       <c r="T39" s="0">
-        <v>25.613453235957405</v>
+        <v>8.3989129119425279</v>
       </c>
       <c r="U39" s="0">
-        <v>188337.61652083229</v>
+        <v>1405.6595273193016</v>
       </c>
       <c r="V39" s="0">
-        <v>0.010538741892975446</v>
+        <v>0.011183754151940827</v>
       </c>
       <c r="W39" s="0">
-        <v>2.1905649877620315</v>
+        <v>0.48403222827880521</v>
       </c>
       <c r="X39" s="0">
-        <v>0.0010991461777305684</v>
+        <v>0.034254033934650117</v>
       </c>
       <c r="Y39" s="0">
-        <v>387135.06830871565</v>
+        <v>13048.584929103417</v>
       </c>
       <c r="Z39" s="0">
-        <v>288.99935810836473</v>
+        <v>24.571134559166001</v>
       </c>
       <c r="AA39" s="0">
-        <v>0.99094169319037428</v>
+        <v>0.96554091551981369</v>
       </c>
       <c r="AB39" s="0">
-        <v>1.0383658398796456</v>
+        <v>1.195920166279457</v>
       </c>
       <c r="AC39" s="0">
-        <v>0.0076645533971011134</v>
+        <v>0.021610495230828031</v>
       </c>
       <c r="AD39" s="0">
-        <v>0.97629865460074738</v>
+        <v>0.91430673226958414</v>
       </c>
       <c r="AE39" s="0">
-        <v>0.98768483298936982</v>
+        <v>0.94820417320171524</v>
       </c>
       <c r="AF39" s="0">
-        <v>5.7565137483102116e-06</v>
+        <v>0.0069880993225065087</v>
       </c>
       <c r="AG39" s="0">
-        <v>188038.66674094507</v>
+        <v>1483.0760328366914</v>
       </c>
       <c r="AH39" s="0">
-        <v>5.7001097260112924e-06</v>
+        <v>0.0058217921663829865</v>
       </c>
       <c r="AI39" s="0">
-        <v>186425.67841984364</v>
+        <v>1442.624072927556</v>
       </c>
       <c r="AJ39" s="0">
-        <v>5.9945802850833672e-06</v>
+        <v>0.017211743496639457</v>
       </c>
       <c r="AK39" s="0">
-        <v>194856.21807564737</v>
+        <v>1658.6203191427521</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.34632082016146232</v>
+        <v>0.014829936772261489</v>
       </c>
       <c r="AM39" s="0">
-        <v>1.8159147835891368e-06</v>
+        <v>1.0930027300131708e-05</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.96223696555421556</v>
+        <v>0.88966658590810632</v>
       </c>
       <c r="AO39" s="0">
-        <v>1.1724969843184563</v>
+        <v>2.7597765363128492</v>
       </c>
       <c r="AP39" s="0">
-        <v>0.0075999540190413535</v>
+        <v>0.022108392372273026</v>
       </c>
       <c r="AQ39" s="0">
-        <v>0.90554696241929755</v>
+        <v>0.75167363690271827</v>
       </c>
       <c r="AR39" s="0">
-        <v>0.94851258581235709</v>
+        <v>0.81922196796338698</v>
       </c>
       <c r="AS39" s="0">
-        <v>5.7461258368511919e-06</v>
+        <v>0.0036621929808899269</v>
       </c>
       <c r="AT39" s="0">
-        <v>188328.77201447528</v>
+        <v>1528.1731843575419</v>
       </c>
       <c r="AU39" s="0">
-        <v>5.5206835629877901e-06</v>
+        <v>0.0023448074927962001</v>
       </c>
       <c r="AV39" s="0">
-        <v>181458.71032703388</v>
+        <v>1373.139157094402</v>
       </c>
       <c r="AW39" s="0">
-        <v>6.8018347124909974e-06</v>
+        <v>0.13890119692241068</v>
       </c>
       <c r="AX39" s="0">
-        <v>219217.08202653794</v>
+        <v>2440.8980446927376</v>
       </c>
       <c r="AY39" s="0">
-        <v>0.32383396893553618</v>
+        <v>0.0033477201442541969</v>
       </c>
       <c r="AZ39" s="0">
-        <v>1.7616124519665061e-06</v>
+        <v>2.8240401822532614e-06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H40" s="0">
         <v>39</v>
@@ -6850,147 +7029,147 @@
         <v>747</v>
       </c>
       <c r="M40" s="0">
-        <v>0.00029892816576224216</v>
+        <v>0.0010900193423364402</v>
       </c>
       <c r="N40" s="0">
-        <v>1275.4556956261172</v>
+        <v>143.80723968531407</v>
       </c>
       <c r="O40" s="0">
-        <v>11.908253633165785</v>
+        <v>10.362252246727097</v>
       </c>
       <c r="P40" s="0">
-        <v>0.10009833111255916</v>
+        <v>0.21505040512251808</v>
       </c>
       <c r="Q40" s="0">
-        <v>0.6933319458027386</v>
+        <v>0.64752749114661856</v>
       </c>
       <c r="R40" s="0">
-        <v>0.00024983001368576307</v>
+        <v>0.00057453952839650222</v>
       </c>
       <c r="S40" s="0">
-        <v>0.0011470700551241969</v>
+        <v>0.0029492272448460696</v>
       </c>
       <c r="T40" s="0">
-        <v>25.584787056418268</v>
+        <v>8.6878609179408777</v>
       </c>
       <c r="U40" s="0">
-        <v>194337.37371556187</v>
+        <v>1515.5971034303147</v>
       </c>
       <c r="V40" s="0">
-        <v>0.011096730824924511</v>
+        <v>0.012231534156526816</v>
       </c>
       <c r="W40" s="0">
-        <v>1.9833937797889463</v>
+        <v>0.44931824955926408</v>
       </c>
       <c r="X40" s="0">
-        <v>0.0010968560298518341</v>
+        <v>0.029735060914485367</v>
       </c>
       <c r="Y40" s="0">
-        <v>323097.55719654472</v>
+        <v>12635.65115864063</v>
       </c>
       <c r="Z40" s="0">
-        <v>246.27059616405407</v>
+        <v>24.007906697496132</v>
       </c>
       <c r="AA40" s="0">
-        <v>0.98934423499036117</v>
+        <v>0.96417394575234439</v>
       </c>
       <c r="AB40" s="0">
-        <v>1.0426230600385549</v>
+        <v>1.170239289991643</v>
       </c>
       <c r="AC40" s="0">
-        <v>0.0084870575895614666</v>
+        <v>0.022679733037210426</v>
       </c>
       <c r="AD40" s="0">
-        <v>0.97198834336252982</v>
+        <v>0.91022107727831059</v>
       </c>
       <c r="AE40" s="0">
-        <v>0.98599134391691146</v>
+        <v>0.95030613073151327</v>
       </c>
       <c r="AF40" s="0">
-        <v>5.4785683114565655e-06</v>
+        <v>0.004585382623590718</v>
       </c>
       <c r="AG40" s="0">
-        <v>193695.25430777896</v>
+        <v>1593.6072983129584</v>
       </c>
       <c r="AH40" s="0">
-        <v>5.4217460926887903e-06</v>
+        <v>0.0038571730394167704</v>
       </c>
       <c r="AI40" s="0">
-        <v>191671.42379124428</v>
+        <v>1550.7492168548722</v>
       </c>
       <c r="AJ40" s="0">
-        <v>5.7058571865276611e-06</v>
+        <v>0.0089691530372766858</v>
       </c>
       <c r="AK40" s="0">
-        <v>201790.57637391728</v>
+        <v>1781.6781686446334</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.57531976135099949</v>
+        <v>0.023132732009833391</v>
       </c>
       <c r="AM40" s="0">
-        <v>2.9525288674637614e-06</v>
+        <v>1.5675965707235138e-05</v>
       </c>
       <c r="AN40" s="0">
-        <v>0.96411220811784959</v>
+        <v>0.889625</v>
       </c>
       <c r="AO40" s="0">
-        <v>1.174894217207334</v>
+        <v>1.8758064516129036</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.0083333167555567043</v>
+        <v>0.022315296566077</v>
       </c>
       <c r="AQ40" s="0">
-        <v>0.91068689685904125</v>
+        <v>0.75239334027055138</v>
       </c>
       <c r="AR40" s="0">
-        <v>0.94912985274431083</v>
+        <v>0.82998661311914324</v>
       </c>
       <c r="AS40" s="0">
-        <v>5.4846532414826947e-06</v>
+        <v>0.0029003100653462038</v>
       </c>
       <c r="AT40" s="0">
-        <v>193820.83215796895</v>
+        <v>1639.0387096774193</v>
       </c>
       <c r="AU40" s="0">
-        <v>5.2927858986449375e-06</v>
+        <v>0.0021280191005238003</v>
       </c>
       <c r="AV40" s="0">
-        <v>187011.06468421881</v>
+        <v>1484.199678315412</v>
       </c>
       <c r="AW40" s="0">
-        <v>6.4134094777809142e-06</v>
+        <v>0.032517822009744374</v>
       </c>
       <c r="AX40" s="0">
-        <v>227171.95345557126</v>
+        <v>2545.8774193548384</v>
       </c>
       <c r="AY40" s="0">
-        <v>0.35994869244039679</v>
+        <v>0.010073545500189069</v>
       </c>
       <c r="AZ40" s="0">
-        <v>1.9016816367311114e-06</v>
+        <v>7.4332016702131742e-06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H41" s="0">
         <v>40</v>
@@ -7008,147 +7187,147 @@
         <v>677</v>
       </c>
       <c r="M41" s="0">
-        <v>0.0003188457888164167</v>
+        <v>0.0011478920895954239</v>
       </c>
       <c r="N41" s="0">
-        <v>1696.8185257653095</v>
+        <v>176.27160984305917</v>
       </c>
       <c r="O41" s="0">
-        <v>11.798580392703975</v>
+        <v>10.243669960353248</v>
       </c>
       <c r="P41" s="0">
-        <v>0.098204594193481251</v>
+        <v>0.21808680822166118</v>
       </c>
       <c r="Q41" s="0">
-        <v>0.68631348503278766</v>
+        <v>0.60234094171887154</v>
       </c>
       <c r="R41" s="0">
-        <v>0.00024921558143463823</v>
+        <v>0.00057839076674625776</v>
       </c>
       <c r="S41" s="0">
-        <v>0.0014814920109548981</v>
+        <v>0.0032359294441203657</v>
       </c>
       <c r="T41" s="0">
-        <v>28.012983435471654</v>
+        <v>9.0907372432245328</v>
       </c>
       <c r="U41" s="0">
-        <v>193766.74207938436</v>
+        <v>1536.7820468914579</v>
       </c>
       <c r="V41" s="0">
-        <v>0.012120055639975355</v>
+        <v>0.013210715791321059</v>
       </c>
       <c r="W41" s="0">
-        <v>2.8068747200524755</v>
+        <v>0.61676815558203135</v>
       </c>
       <c r="X41" s="0">
-        <v>0.0010073433127831142</v>
+        <v>0.03041452034666314</v>
       </c>
       <c r="Y41" s="0">
-        <v>373206.8097614026</v>
+        <v>11483.056833162967</v>
       </c>
       <c r="Z41" s="0">
-        <v>316.00401861167501</v>
+        <v>22.203694133255969</v>
       </c>
       <c r="AA41" s="0">
-        <v>0.98965947353436812</v>
+        <v>0.96695984004375957</v>
       </c>
       <c r="AB41" s="0">
-        <v>1.0413621058625266</v>
+        <v>1.1477427233370276</v>
       </c>
       <c r="AC41" s="0">
-        <v>0.0084786949180599997</v>
+        <v>0.022690340632261136</v>
       </c>
       <c r="AD41" s="0">
-        <v>0.97280544582528927</v>
+        <v>0.91643491266931121</v>
       </c>
       <c r="AE41" s="0">
-        <v>0.98640013769396373</v>
+        <v>0.95547690454397216</v>
       </c>
       <c r="AF41" s="0">
-        <v>5.6545211244097723e-06</v>
+        <v>0.0088593537141365263</v>
       </c>
       <c r="AG41" s="0">
-        <v>192280.96135933776</v>
+        <v>1606.5499710531235</v>
       </c>
       <c r="AH41" s="0">
-        <v>5.5995166557734337e-06</v>
+        <v>0.0080579578576589986</v>
       </c>
       <c r="AI41" s="0">
-        <v>190254.59039768798</v>
+        <v>1564.4655661896959</v>
       </c>
       <c r="AJ41" s="0">
-        <v>5.8745389989551352e-06</v>
+        <v>0.014000883666705027</v>
       </c>
       <c r="AK41" s="0">
-        <v>200386.44520593691</v>
+        <v>1782.2784589379135</v>
       </c>
       <c r="AL41" s="0">
-        <v>0.5856983212027751</v>
+        <v>0.024472870100205435</v>
       </c>
       <c r="AM41" s="0">
-        <v>2.9507702323591655e-06</v>
+        <v>1.566455294008935e-05</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.95664062499999991</v>
+        <v>0.86616387893269586</v>
       </c>
       <c r="AO41" s="0">
-        <v>1.1734374999999999</v>
+        <v>1.7508960573476702</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.0083251953124999986</v>
+        <v>0.022308295114399863</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.89105957031249994</v>
+        <v>0.7057912925065194</v>
       </c>
       <c r="AR41" s="0">
-        <v>0.945347119645495</v>
+        <v>0.82422451994091583</v>
       </c>
       <c r="AS41" s="0">
-        <v>5.6687083795739839e-06</v>
+        <v>0.005791328284934831</v>
       </c>
       <c r="AT41" s="0">
-        <v>192056.43125000002</v>
+        <v>1658.1218637992831</v>
       </c>
       <c r="AU41" s="0">
-        <v>5.437789102804469e-06</v>
+        <v>0.0032983476763794929</v>
       </c>
       <c r="AV41" s="0">
-        <v>183511.11289062502</v>
+        <v>1475.6975433094383</v>
       </c>
       <c r="AW41" s="0">
-        <v>6.5923854866520416e-06</v>
+        <v>0.035798764470233072</v>
       </c>
       <c r="AX41" s="0">
-        <v>226237.70468750002</v>
+        <v>2542.2508960573473</v>
       </c>
       <c r="AY41" s="0">
-        <v>0.52720971942318196</v>
+        <v>0.016686224153086286</v>
       </c>
       <c r="AZ41" s="0">
-        <v>2.7619338860505349e-06</v>
+        <v>1.1854730524698724e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H42" s="0">
         <v>41</v>
@@ -7166,147 +7345,147 @@
         <v>511</v>
       </c>
       <c r="M42" s="0">
-        <v>0.00047838448067533666</v>
+        <v>0.0014723666246840312</v>
       </c>
       <c r="N42" s="0">
-        <v>1034.9460747110215</v>
+        <v>129.89033083215705</v>
       </c>
       <c r="O42" s="0">
-        <v>11.268454946900199</v>
+        <v>9.8649293265797162</v>
       </c>
       <c r="P42" s="0">
-        <v>0.10583370528420581</v>
+        <v>0.21365090466121242</v>
       </c>
       <c r="Q42" s="0">
-        <v>0.41226713760052208</v>
+        <v>0.40525048757823484</v>
       </c>
       <c r="R42" s="0">
-        <v>0.0002581598546476473</v>
+        <v>0.00064409041838572835</v>
       </c>
       <c r="S42" s="0">
-        <v>0.00048034497297593767</v>
+        <v>0.0016320655114358156</v>
       </c>
       <c r="T42" s="0">
-        <v>23.367266278718354</v>
+        <v>8.2968952684572823</v>
       </c>
       <c r="U42" s="0">
-        <v>206367.09215408374</v>
+        <v>1795.2800975786431</v>
       </c>
       <c r="V42" s="0">
-        <v>0.012674145163042631</v>
+        <v>0.0146555572927645</v>
       </c>
       <c r="W42" s="0">
-        <v>1.7262891138182495</v>
+        <v>0.40052995894617388</v>
       </c>
       <c r="X42" s="0">
-        <v>0.0015646685526579326</v>
+        <v>0.028640337432497141</v>
       </c>
       <c r="Y42" s="0">
-        <v>122616.87979151444</v>
+        <v>8049.3056983006973</v>
       </c>
       <c r="Z42" s="0">
-        <v>94.374714414683069</v>
+        <v>17.740260973258795</v>
       </c>
       <c r="AA42" s="0">
-        <v>0.98794160183848534</v>
+        <v>0.96822000069095637</v>
       </c>
       <c r="AB42" s="0">
-        <v>1.0482335926460593</v>
+        <v>1.1369809039351564</v>
       </c>
       <c r="AC42" s="0">
-        <v>0.012238640971844669</v>
+        <v>0.029601542143495949</v>
       </c>
       <c r="AD42" s="0">
-        <v>0.96836126700474878</v>
+        <v>0.9194204144503032</v>
       </c>
       <c r="AE42" s="0">
-        <v>0.98417654317489833</v>
+        <v>0.95768821850575403</v>
       </c>
       <c r="AF42" s="0">
-        <v>4.9393587301395509e-06</v>
+        <v>0.00087142450352478706</v>
       </c>
       <c r="AG42" s="0">
-        <v>206266.09856078491</v>
+        <v>1855.6732060871395</v>
       </c>
       <c r="AH42" s="0">
-        <v>4.8784905813077969e-06</v>
+        <v>0.00084565318950366366</v>
       </c>
       <c r="AI42" s="0">
-        <v>203861.6234819692</v>
+        <v>1804.3997759466897</v>
       </c>
       <c r="AJ42" s="0">
-        <v>5.1828313254665701e-06</v>
+        <v>0.0009835782488737631</v>
       </c>
       <c r="AK42" s="0">
-        <v>215883.99887604779</v>
+        <v>2071.5107740455674</v>
       </c>
       <c r="AL42" s="0">
-        <v>0.87893950850348868</v>
+        <v>0.058414675774037313</v>
       </c>
       <c r="AM42" s="0">
-        <v>4.3116423905255011e-06</v>
+        <v>3.3580587601766276e-05</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.95703395703395711</v>
+        <v>0.89070537551440321</v>
       </c>
       <c r="AO42" s="0">
-        <v>1.1995841995841996</v>
+        <v>1.6689814814814812</v>
       </c>
       <c r="AP42" s="0">
-        <v>0.012037465259918483</v>
+        <v>0.028217163923182437</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.8934133237667542</v>
+        <v>0.75327932098765427</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.94129158512720146</v>
+        <v>0.84540117416829752</v>
       </c>
       <c r="AS42" s="0">
-        <v>4.9350315117114948e-06</v>
+        <v>0.00087373618692295667</v>
       </c>
       <c r="AT42" s="0">
-        <v>206557.20582120583</v>
+        <v>1888.5740740740739</v>
       </c>
       <c r="AU42" s="0">
-        <v>4.719630469758058e-06</v>
+        <v>0.00077911418771732304</v>
       </c>
       <c r="AV42" s="0">
-        <v>197931.69086394089</v>
+        <v>1709.9291570216044</v>
       </c>
       <c r="AW42" s="0">
-        <v>5.9439986978450416e-06</v>
+        <v>0.001432190155266353</v>
       </c>
       <c r="AX42" s="0">
-        <v>246282.84615384619</v>
+        <v>2935.2476851851852</v>
       </c>
       <c r="AY42" s="0">
-        <v>0.5457596199626551</v>
+        <v>0.024108426949136241</v>
       </c>
       <c r="AZ42" s="0">
-        <v>2.783014537407973e-06</v>
+        <v>1.4990585662362896e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H43" s="0">
         <v>42</v>
@@ -7324,147 +7503,147 @@
         <v>418</v>
       </c>
       <c r="M43" s="0">
-        <v>0.0004899005320510067</v>
+        <v>0.0013942201496712589</v>
       </c>
       <c r="N43" s="0">
-        <v>1406.1569115763793</v>
+        <v>165.58563762777891</v>
       </c>
       <c r="O43" s="0">
-        <v>11.166264556568525</v>
+        <v>9.9825574541335946</v>
       </c>
       <c r="P43" s="0">
-        <v>0.10107878857590717</v>
+        <v>0.20371986315875218</v>
       </c>
       <c r="Q43" s="0">
-        <v>0.46793183252099751</v>
+        <v>0.47068413640443607</v>
       </c>
       <c r="R43" s="0">
-        <v>0.00025900909866682844</v>
+        <v>0.00065230263441519085</v>
       </c>
       <c r="S43" s="0">
-        <v>0.00072534673539291668</v>
+        <v>0.0023158479574295048</v>
       </c>
       <c r="T43" s="0">
-        <v>26.855729890455979</v>
+        <v>9.3296995552724056</v>
       </c>
       <c r="U43" s="0">
-        <v>207970.0775666532</v>
+        <v>1866.9104524216013</v>
       </c>
       <c r="V43" s="0">
-        <v>0.015637890162983906</v>
+        <v>0.019128400116855706</v>
       </c>
       <c r="W43" s="0">
-        <v>2.5353939691819138</v>
+        <v>0.50065182591191693</v>
       </c>
       <c r="X43" s="0">
-        <v>0.0013178233452089375</v>
+        <v>0.020648164501764696</v>
       </c>
       <c r="Y43" s="0">
-        <v>161934.62362183293</v>
+        <v>10135.817647922184</v>
       </c>
       <c r="Z43" s="0">
-        <v>151.94308465043372</v>
+        <v>28.52944866641964</v>
       </c>
       <c r="AA43" s="0">
-        <v>0.98745136900703856</v>
+        <v>0.9666074286442613</v>
       </c>
       <c r="AB43" s="0">
-        <v>1.0501945239718438</v>
+        <v>1.1487415395362361</v>
       </c>
       <c r="AC43" s="0">
-        <v>0.010756917377017484</v>
+        <v>0.026587886178331865</v>
       </c>
       <c r="AD43" s="0">
-        <v>0.96709687073804962</v>
+        <v>0.91558398729438084</v>
       </c>
       <c r="AE43" s="0">
-        <v>0.9835438285731094</v>
+        <v>0.95504092531384333</v>
       </c>
       <c r="AF43" s="0">
-        <v>4.9707160115465695e-06</v>
+        <v>0.0011821790417342578</v>
       </c>
       <c r="AG43" s="0">
-        <v>206823.5538489499</v>
+        <v>1907.0628430285749</v>
       </c>
       <c r="AH43" s="0">
-        <v>4.9079388616989744e-06</v>
+        <v>0.0011386589288253878</v>
       </c>
       <c r="AI43" s="0">
-        <v>204229.99558562943</v>
+        <v>1848.1808353615543</v>
       </c>
       <c r="AJ43" s="0">
-        <v>5.2218246109369487e-06</v>
+        <v>0.0013678372780585397</v>
       </c>
       <c r="AK43" s="0">
-        <v>217197.78690223198</v>
+        <v>2164.503976052401</v>
       </c>
       <c r="AL43" s="0">
-        <v>0.77439950408965341</v>
+        <v>0.040314719253033399</v>
       </c>
       <c r="AM43" s="0">
-        <v>3.7806187675785094e-06</v>
+        <v>2.2672935893010651e-05</v>
       </c>
       <c r="AN43" s="0">
-        <v>0.9518140589569164</v>
+        <v>0.88258505443483837</v>
       </c>
       <c r="AO43" s="0">
-        <v>1.2040816326530615</v>
+        <v>1.8328530259365992</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.01071168263223656</v>
+        <v>0.025189146990673456</v>
       </c>
       <c r="AQ43" s="0">
-        <v>0.8802712411495216</v>
+        <v>0.73726216478834639</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.93779904306220074</v>
+        <v>0.83014354066985641</v>
       </c>
       <c r="AS43" s="0">
-        <v>4.9726975480521262e-06</v>
+        <v>0.0011811839254563766</v>
       </c>
       <c r="AT43" s="0">
-        <v>206693.53826530612</v>
+        <v>1925.3198847262247</v>
       </c>
       <c r="AU43" s="0">
-        <v>4.734193440276908e-06</v>
+        <v>0.0010195457383297508</v>
       </c>
       <c r="AV43" s="0">
-        <v>196625.18048469385</v>
+        <v>1709.9837938280498</v>
       </c>
       <c r="AW43" s="0">
-        <v>5.9827034531318899e-06</v>
+        <v>0.0020759386259527569</v>
       </c>
       <c r="AX43" s="0">
-        <v>249262.88775510198</v>
+        <v>3344.9769452449568</v>
       </c>
       <c r="AY43" s="0">
-        <v>0.48980026764197732</v>
+        <v>0.016150562009099697</v>
       </c>
       <c r="AZ43" s="0">
-        <v>2.5325368010926339e-06</v>
+        <v>1.0390854847800344e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H44" s="0">
         <v>43</v>
@@ -7473,156 +7652,156 @@
         <v>227.94282985241523</v>
       </c>
       <c r="J44" s="0">
-        <v>-0.37092609348145722</v>
+        <v>-0.37092609348145855</v>
       </c>
       <c r="K44" s="0">
-        <v>0.89705447565762508</v>
+        <v>0.89705447565762642</v>
       </c>
       <c r="L44" s="0">
         <v>293</v>
       </c>
       <c r="M44" s="0">
-        <v>0.00061939177142437052</v>
+        <v>0.0012833787544363766</v>
       </c>
       <c r="N44" s="0">
-        <v>1636.2902277795854</v>
+        <v>197.60020978034106</v>
       </c>
       <c r="O44" s="0">
-        <v>10.778247316359922</v>
+        <v>9.9272936025375831</v>
       </c>
       <c r="P44" s="0">
-        <v>0.079418539873807287</v>
+        <v>0.17053307730884856</v>
       </c>
       <c r="Q44" s="0">
-        <v>0.49238409882078521</v>
+        <v>0.49190876093379099</v>
       </c>
       <c r="R44" s="0">
-        <v>0.00026684221304285185</v>
+        <v>0.0007276574395850958</v>
       </c>
       <c r="S44" s="0">
-        <v>0.0008780330838100139</v>
+        <v>0.0028654336635431086</v>
       </c>
       <c r="T44" s="0">
-        <v>30.72540942171322</v>
+        <v>10.712882175536993</v>
       </c>
       <c r="U44" s="0">
-        <v>220857.67152628049</v>
+        <v>2326.32147854101</v>
       </c>
       <c r="V44" s="0">
-        <v>0.018677865121689959</v>
+        <v>0.025244326105005713</v>
       </c>
       <c r="W44" s="0">
-        <v>3.7932369135428061</v>
+        <v>0.67551710326092362</v>
       </c>
       <c r="X44" s="0">
-        <v>0.0011103353481619225</v>
+        <v>0.013805247417862323</v>
       </c>
       <c r="Y44" s="0">
-        <v>172505.84751675656</v>
+        <v>11355.363604061005</v>
       </c>
       <c r="Z44" s="0">
-        <v>217.07512076660956</v>
+        <v>41.469748848008514</v>
       </c>
       <c r="AA44" s="0">
-        <v>0.99408452743673514</v>
+        <v>0.98085567427519671</v>
       </c>
       <c r="AB44" s="0">
-        <v>1.0236618902530572</v>
+        <v>1.0765773028992114</v>
       </c>
       <c r="AC44" s="0">
-        <v>0.011856323601163008</v>
+        <v>0.025578340095486093</v>
       </c>
       <c r="AD44" s="0">
-        <v>0.98434982539803806</v>
+        <v>0.95025159436037332</v>
       </c>
       <c r="AE44" s="0">
-        <v>0.99217442587435667</v>
+        <v>0.97510957945797472</v>
       </c>
       <c r="AF44" s="0">
-        <v>4.7300531487770584e-06</v>
+        <v>0.0011527786838409449</v>
       </c>
       <c r="AG44" s="0">
-        <v>218720.41282506808</v>
+        <v>2332.1353560060193</v>
       </c>
       <c r="AH44" s="0">
-        <v>4.7026726765565645e-06</v>
+        <v>0.0011411790970298368</v>
       </c>
       <c r="AI44" s="0">
-        <v>217410.36592100345</v>
+        <v>2282.7096827382184</v>
       </c>
       <c r="AJ44" s="0">
-        <v>4.8395750376590308e-06</v>
+        <v>0.001199177031085378</v>
       </c>
       <c r="AK44" s="0">
-        <v>223960.60044132656</v>
+        <v>2529.8380490772233</v>
       </c>
       <c r="AL44" s="0">
-        <v>0.94023248328736186</v>
+        <v>0.099523719510971179</v>
       </c>
       <c r="AM44" s="0">
-        <v>4.2531785912861287e-06</v>
+        <v>4.3443937018976263e-05</v>
       </c>
       <c r="AN44" s="0">
-        <v>0.97623239436619691</v>
+        <v>0.922243265993266</v>
       </c>
       <c r="AO44" s="0">
-        <v>1.095070422535211</v>
+        <v>1.3446969696969697</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.0118032136480857</v>
+        <v>0.024850780532598711</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.9386282483634194</v>
+        <v>0.81493916437098257</v>
       </c>
       <c r="AR44" s="0">
-        <v>0.96928327645051193</v>
+        <v>0.90102389078498279</v>
       </c>
       <c r="AS44" s="0">
-        <v>4.7305546116468984e-06</v>
+        <v>0.0011930874499784952</v>
       </c>
       <c r="AT44" s="0">
-        <v>218726.45070422534</v>
+        <v>2320.829545454546</v>
       </c>
       <c r="AU44" s="0">
-        <v>4.6191228689271859e-06</v>
+        <v>0.001141914393665452</v>
       </c>
       <c r="AV44" s="0">
-        <v>213515.92341549296</v>
+        <v>2124.912984006734</v>
       </c>
       <c r="AW44" s="0">
-        <v>5.1762815825257485e-06</v>
+        <v>0.0014140573423019874</v>
       </c>
       <c r="AX44" s="0">
-        <v>239568.55985915492</v>
+        <v>3176.280303030303</v>
       </c>
       <c r="AY44" s="0">
-        <v>0.91573439188307115</v>
+        <v>0.058368449582289379</v>
       </c>
       <c r="AZ44" s="0">
-        <v>4.2759692084207809e-06</v>
+        <v>2.7247727665981312e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H45" s="0">
         <v>44</v>
@@ -7640,147 +7819,147 @@
         <v>184</v>
       </c>
       <c r="M45" s="0">
-        <v>0.00097520688606002976</v>
+        <v>0.0015792989823357174</v>
       </c>
       <c r="N45" s="0">
-        <v>2317.4725469948044</v>
+        <v>282.33339423470875</v>
       </c>
       <c r="O45" s="0">
-        <v>10.107531145114848</v>
+        <v>9.6110089842318125</v>
       </c>
       <c r="P45" s="0">
-        <v>0.077939780421083571</v>
+        <v>0.16240634700352582</v>
       </c>
       <c r="Q45" s="0">
-        <v>0.46690031672493526</v>
+        <v>0.46010731234225138</v>
       </c>
       <c r="R45" s="0">
-        <v>0.00026597115662549604</v>
+        <v>0.0007192414403076068</v>
       </c>
       <c r="S45" s="0">
-        <v>0.0011688095315986644</v>
+        <v>0.0038213388023982447</v>
       </c>
       <c r="T45" s="0">
-        <v>36.484820844317696</v>
+        <v>12.71645475567081</v>
       </c>
       <c r="U45" s="0">
-        <v>219593.53198209716</v>
+        <v>2294.6247875875724</v>
       </c>
       <c r="V45" s="0">
-        <v>0.023099861306700949</v>
+        <v>0.037342817458340144</v>
       </c>
       <c r="W45" s="0">
-        <v>7.7951415760902307</v>
+        <v>1.0877186807208024</v>
       </c>
       <c r="X45" s="0">
-        <v>0.0013912179848869736</v>
+        <v>0.011316973432892855</v>
       </c>
       <c r="Y45" s="0">
-        <v>179782.63132595169</v>
+        <v>12915.194927115579</v>
       </c>
       <c r="Z45" s="0">
-        <v>275.77798161931531</v>
+        <v>59.469931643960365</v>
       </c>
       <c r="AA45" s="0">
-        <v>0.99140067289088529</v>
+        <v>0.97628124891143797</v>
       </c>
       <c r="AB45" s="0">
-        <v>1.0343973084364584</v>
+        <v>1.1073618916019952</v>
       </c>
       <c r="AC45" s="0">
-        <v>0.011351403009819197</v>
+        <v>0.021342471603800137</v>
       </c>
       <c r="AD45" s="0">
-        <v>0.97733138878184356</v>
+        <v>0.93956658422066464</v>
       </c>
       <c r="AE45" s="0">
-        <v>0.98866420414333189</v>
+        <v>0.96719818529384372</v>
       </c>
       <c r="AF45" s="0">
-        <v>4.8357748367114951e-06</v>
+        <v>0.0012813815218545611</v>
       </c>
       <c r="AG45" s="0">
-        <v>215945.98296379519</v>
+        <v>2283.4587185716628</v>
       </c>
       <c r="AH45" s="0">
-        <v>4.800655171731682e-06</v>
+        <v>0.0012711024487898235</v>
       </c>
       <c r="AI45" s="0">
-        <v>213791.19255344447</v>
+        <v>2217.5823490379389</v>
       </c>
       <c r="AJ45" s="0">
-        <v>4.9762534966307464e-06</v>
+        <v>0.0013300356992306936</v>
       </c>
       <c r="AK45" s="0">
-        <v>224565.14460519786</v>
+        <v>2567.9576948174595</v>
       </c>
       <c r="AL45" s="0">
-        <v>0.86907203093943874</v>
+        <v>0.053906319131530343</v>
       </c>
       <c r="AM45" s="0">
-        <v>4.0066951965280717e-06</v>
+        <v>2.427275654059524e-05</v>
       </c>
       <c r="AN45" s="0">
-        <v>0.96938131313131293</v>
+        <v>0.92110938578329893</v>
       </c>
       <c r="AO45" s="0">
-        <v>1.1477272727272725</v>
+        <v>1.5527950310559007</v>
       </c>
       <c r="AP45" s="0">
-        <v>0.010976239669421482</v>
+        <v>0.020253848231163923</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.92323088842975154</v>
+        <v>0.81705952702442042</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.95652173913043459</v>
+        <v>0.87500000000000011</v>
       </c>
       <c r="AS45" s="0">
-        <v>4.8600322196101705e-06</v>
+        <v>0.0013685470345727892</v>
       </c>
       <c r="AT45" s="0">
-        <v>214822.625</v>
+        <v>2240.6708074534163</v>
       </c>
       <c r="AU45" s="0">
-        <v>4.734051949306804e-06</v>
+        <v>0.0013325126676133876</v>
       </c>
       <c r="AV45" s="0">
-        <v>207171.62926136365</v>
+        <v>2022.9942201518286</v>
       </c>
       <c r="AW45" s="0">
-        <v>5.4657763571151744e-06</v>
+        <v>0.0016152401364447006</v>
       </c>
       <c r="AX45" s="0">
-        <v>251689.33522727274</v>
+        <v>3711.782608695652</v>
       </c>
       <c r="AY45" s="0">
-        <v>0.55340335225367621</v>
+        <v>0.035684667135691517</v>
       </c>
       <c r="AZ45" s="0">
-        <v>2.8200134844495326e-06</v>
+        <v>1.9849446135249179e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="H46" s="0">
         <v>45</v>
@@ -7798,124 +7977,124 @@
         <v>78</v>
       </c>
       <c r="M46" s="0">
-        <v>0.0022375995330675661</v>
+        <v>0.0081852964849101657</v>
       </c>
       <c r="N46" s="0">
-        <v>1654.4537759228708</v>
+        <v>81.418932242359048</v>
       </c>
       <c r="O46" s="0">
-        <v>8.8448268624636377</v>
+        <v>7.4778167257125681</v>
       </c>
       <c r="P46" s="0">
-        <v>0.069618606031187136</v>
+        <v>0.30140155428337567</v>
       </c>
       <c r="Q46" s="0">
-        <v>0.60635159406733019</v>
+        <v>0.55668795795719062</v>
       </c>
       <c r="R46" s="0">
-        <v>0.00020050155847064908</v>
+        <v>0.0001864567029403562</v>
       </c>
       <c r="S46" s="0">
-        <v>0.0011519490182272563</v>
+        <v>0.0013492199621379631</v>
       </c>
       <c r="T46" s="0">
-        <v>32.837460050205259</v>
+        <v>6.2346318871316768</v>
       </c>
       <c r="U46" s="0">
-        <v>125480.60894499048</v>
+        <v>194.02335472900262</v>
       </c>
       <c r="V46" s="0">
-        <v>0.035278861120512393</v>
+        <v>0.053425236068685281</v>
       </c>
       <c r="W46" s="0">
-        <v>22.549242126468702</v>
+        <v>0.84214133722267182</v>
       </c>
       <c r="X46" s="0">
-        <v>0.0033420335660669402</v>
+        <v>0.107923136447619</v>
       </c>
       <c r="Y46" s="0">
-        <v>84894.934497331196</v>
+        <v>1611.4126010581144</v>
       </c>
       <c r="Z46" s="0">
-        <v>386.96163561319901</v>
+        <v>44.388490107879385</v>
       </c>
       <c r="AA46" s="0">
-        <v>0.99717310393850267</v>
+        <v>0.95433271772957962</v>
       </c>
       <c r="AB46" s="0">
-        <v>1.0113075842459893</v>
+        <v>1.2309994845668806</v>
       </c>
       <c r="AC46" s="0">
-        <v>0.018368163025027535</v>
+        <v>0.071529536885767006</v>
       </c>
       <c r="AD46" s="0">
-        <v>0.99249002416078058</v>
+        <v>0.88813689320713363</v>
       </c>
       <c r="AE46" s="0">
-        <v>0.99624495873316088</v>
+        <v>0.93479760977401405</v>
       </c>
       <c r="AF46" s="0">
-        <v>8.940440067853e-06</v>
+        <v>0.038817390429827757</v>
       </c>
       <c r="AG46" s="0">
-        <v>121022.66441540627</v>
+        <v>214.11693849857409</v>
       </c>
       <c r="AH46" s="0">
-        <v>8.9226832945821216e-06</v>
+        <v>0.036735285094498624</v>
       </c>
       <c r="AI46" s="0">
-        <v>120572.61973551984</v>
+        <v>209.99166154849073</v>
       </c>
       <c r="AJ46" s="0">
-        <v>9.0114671609365206e-06</v>
+        <v>0.048860820950054985</v>
       </c>
       <c r="AK46" s="0">
-        <v>122822.84313495203</v>
+        <v>232.02268972248501</v>
       </c>
       <c r="AL46" s="0">
-        <v>0.78851462248793458</v>
+        <v>0.0066420170471044072</v>
       </c>
       <c r="AM46" s="0">
-        <v>6.7472354604782609e-06</v>
+        <v>7.9933007433973286e-05</v>
       </c>
       <c r="AN46" s="0">
-        <v>0.9902597402597404</v>
+        <v>0.82215160075329574</v>
       </c>
       <c r="AO46" s="0">
-        <v>1.0389610389610391</v>
+        <v>2.2033898305084749</v>
       </c>
       <c r="AP46" s="0">
-        <v>0.018384213189407996</v>
+        <v>0.058316575696638888</v>
       </c>
       <c r="AQ46" s="0">
-        <v>0.97436329903862395</v>
+        <v>0.6311404768744614</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.98717948717948734</v>
+        <v>0.75641025641025639</v>
       </c>
       <c r="AS46" s="0">
-        <v>8.9648588754930963e-06</v>
+        <v>0.037031970538698451</v>
       </c>
       <c r="AT46" s="0">
-        <v>120672.06493506496</v>
+        <v>246.44067796610167</v>
       </c>
       <c r="AU46" s="0">
-        <v>8.9036767237461873e-06</v>
+        <v>0.027718173650107012</v>
       </c>
       <c r="AV46" s="0">
-        <v>119121.40584415586</v>
+        <v>234.17937853107347</v>
       </c>
       <c r="AW46" s="0">
-        <v>9.2095874824807344e-06</v>
+        <v>0.087858261180089242</v>
       </c>
       <c r="AX46" s="0">
-        <v>126874.70129870131</v>
+        <v>345.28813559322032</v>
       </c>
       <c r="AY46" s="0">
-        <v>0.79243031183917279</v>
+        <v>0.0060390601762899572</v>
       </c>
       <c r="AZ46" s="0">
-        <v>6.9770999533268469e-06</v>
+        <v>7.2110024197931147e-05</v>
       </c>
     </row>
   </sheetData>
